--- a/controle_contratos/Planilha_Completa.xlsx
+++ b/controle_contratos/Planilha_Completa.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1650" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1678" uniqueCount="456">
   <si>
     <t>Nº</t>
   </si>
@@ -44,6 +44,9 @@
     <t>Dias</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>87000/23-001/00</t>
   </si>
   <si>
@@ -86,21 +89,21 @@
     <t>87000/23-051/00</t>
   </si>
   <si>
+    <t>87000/22-032/00</t>
+  </si>
+  <si>
     <t>87000/21-080/00</t>
   </si>
   <si>
-    <t>87000/22-032/00</t>
+    <t>87000/21-084/00</t>
+  </si>
+  <si>
+    <t>87000/21-085/00</t>
   </si>
   <si>
     <t>87000/21-086/00</t>
   </si>
   <si>
-    <t>87000/21-085/00</t>
-  </si>
-  <si>
-    <t>87000/21-084/00</t>
-  </si>
-  <si>
     <t>87000/21-109/00</t>
   </si>
   <si>
@@ -158,1210 +161,1225 @@
     <t>87000/23-115/00</t>
   </si>
   <si>
+    <t>87000/17-1532/00</t>
+  </si>
+  <si>
+    <t>87000/17-1531/00</t>
+  </si>
+  <si>
+    <t>87000/23-108/00</t>
+  </si>
+  <si>
+    <t>87000/22-007/00</t>
+  </si>
+  <si>
+    <t>87000/22-099/00</t>
+  </si>
+  <si>
+    <t>87000/18-100/00</t>
+  </si>
+  <si>
+    <t>Resíduos Sólidos</t>
+  </si>
+  <si>
+    <t>Embarcações</t>
+  </si>
+  <si>
+    <t>Central Telefônica</t>
+  </si>
+  <si>
+    <t>Manutenção de Cozinha</t>
+  </si>
+  <si>
+    <t>Passagens</t>
+  </si>
+  <si>
+    <t>Serviço de Jardinagem</t>
+  </si>
+  <si>
+    <t>Leiloeiro Oficial</t>
+  </si>
+  <si>
+    <t>Material Permanente</t>
+  </si>
+  <si>
+    <t>Gestão de Frota</t>
+  </si>
+  <si>
+    <t>Assistência Social</t>
+  </si>
+  <si>
+    <t>Serviços de Engenharia</t>
+  </si>
+  <si>
+    <t>Serviços de Limpeza</t>
+  </si>
+  <si>
+    <t>Manutenção Frigorífica</t>
+  </si>
+  <si>
+    <t>Licença de Software</t>
+  </si>
+  <si>
+    <t>Materiais de Tecnologia</t>
+  </si>
+  <si>
+    <t>Serviço Móvel</t>
+  </si>
+  <si>
+    <t>Montagem de Palanques</t>
+  </si>
+  <si>
+    <t>TV por assinatura</t>
+  </si>
+  <si>
+    <t>Transporte de Bagagem</t>
+  </si>
+  <si>
+    <t>Cessão de Uso</t>
+  </si>
+  <si>
+    <t>Locação de Móvel</t>
+  </si>
+  <si>
+    <t>Seguro Total</t>
+  </si>
+  <si>
+    <t>Fornecimento de Energia</t>
+  </si>
+  <si>
+    <t>Elevadores</t>
+  </si>
+  <si>
+    <t>Reprografia</t>
+  </si>
+  <si>
+    <t>D.O.U</t>
+  </si>
+  <si>
+    <t>Com7ºDN</t>
+  </si>
+  <si>
+    <t>GptFNB</t>
+  </si>
+  <si>
+    <t>CeIMBra</t>
+  </si>
+  <si>
+    <t>CFGO</t>
+  </si>
+  <si>
+    <t>Divisão de Manutenção e Reparo de PNR</t>
+  </si>
+  <si>
+    <t>Divisão de Serviços Gerais</t>
+  </si>
+  <si>
+    <t>Divisão de Segurança da Informação e Comunicações</t>
+  </si>
+  <si>
+    <t>Divisão de Municiamento</t>
+  </si>
+  <si>
+    <t>Seção de Passagem e Bagagem</t>
+  </si>
+  <si>
+    <t>Divisão de Gerência dos Créditos</t>
+  </si>
+  <si>
+    <t>Divisão de Transporte</t>
+  </si>
+  <si>
+    <t>Divisão de Assistência Social</t>
+  </si>
+  <si>
+    <t>Divisão de Obras</t>
+  </si>
+  <si>
+    <t>Divisão de Conectividade de Sistemas de Informações</t>
+  </si>
+  <si>
+    <t>Divisão de Telefonia</t>
+  </si>
+  <si>
+    <t>Divisão de Obtenção</t>
+  </si>
+  <si>
+    <t>TK ELEVADORES BRASIL LTDA</t>
+  </si>
+  <si>
+    <t>SMART TURISMO COMUNICACAO E E</t>
+  </si>
+  <si>
+    <t>NORESA NOVO RIO ENERGIA E SER</t>
+  </si>
+  <si>
+    <t>L C DE SOUZA EMBARCACOES NAVA</t>
+  </si>
+  <si>
+    <t>PINO LTDA</t>
+  </si>
+  <si>
+    <t>SOLUCAO EPI COMERCIO DE EQUIP</t>
+  </si>
+  <si>
+    <t>QUILHA NAUTICA LTDA</t>
+  </si>
+  <si>
+    <t>FORTT DO BRASIL LTDA</t>
+  </si>
+  <si>
+    <t>PLUS CONSTRUCOES E SERVICOS L</t>
+  </si>
+  <si>
+    <t>TOMASINI &amp; BUENO INDUSTRIA E</t>
+  </si>
+  <si>
+    <t>NORTFORT COMERCIO E SERVICOS</t>
+  </si>
+  <si>
+    <t>RS TURISMO E EVENTOS LTDA</t>
+  </si>
+  <si>
+    <t>ALFA E OMEGA  SERVICOS TERCEI</t>
+  </si>
+  <si>
+    <t>R MORAES AGENCIA DE TURISMO L</t>
+  </si>
+  <si>
+    <t>LUCIANO GONÇALVES BORBA ASSUNÇÃO</t>
+  </si>
+  <si>
+    <t>CIRURGICAS MULLET IMPORTADORA</t>
+  </si>
+  <si>
+    <t>NP3 COMERCIO E SERVICOS LTDA</t>
+  </si>
+  <si>
+    <t>INTEGRAR - INSTITUTO DE REABI</t>
+  </si>
+  <si>
+    <t>ADTEL FACILITIES LTDA</t>
+  </si>
+  <si>
+    <t>HEIMAR-CONSTRUCOES E SERVICOS</t>
+  </si>
+  <si>
+    <t>TECNICALL ENGENHARIA LTDA</t>
+  </si>
+  <si>
+    <t>ANDRACON SERVICOS GERAIS LTDA</t>
+  </si>
+  <si>
+    <t>CLIAMA CLINICA DE ATENDIMENTO</t>
+  </si>
+  <si>
+    <t>VIVACE FISIOTERAPIA &amp; MEDICIN</t>
+  </si>
+  <si>
+    <t>I.S ENGECLIM SERVICOS DE ENGE</t>
+  </si>
+  <si>
+    <t>MCR SISTEMAS E CONSULTORIA LT</t>
+  </si>
+  <si>
+    <t>PRATICAR CENTRO DE TREINAMENT</t>
+  </si>
+  <si>
+    <t>ELP COMERCIO DE EQUIPAMENTOS</t>
+  </si>
+  <si>
+    <t>CLARO S.A.</t>
+  </si>
+  <si>
+    <t>PALCO LOCACAO LTDA</t>
+  </si>
+  <si>
+    <t>STAR LOCACAO DE SERVICOS GERA</t>
+  </si>
+  <si>
+    <t>MARCIO ANDERSON RODRIGUES COM</t>
+  </si>
+  <si>
+    <t>STAMM MUDANCAS E TRANSPORTES</t>
+  </si>
+  <si>
+    <t>BANCO BRADESCO S.A.</t>
+  </si>
+  <si>
+    <t>BANCO SANTANDER (BRASIL) S.A.</t>
+  </si>
+  <si>
+    <t>CAIXA ECONOMICA FEDERAL</t>
+  </si>
+  <si>
+    <t>UNICA SERVICOS EM SAUDE LTDA</t>
+  </si>
+  <si>
+    <t>ABRIGO DO MARINHEIRO</t>
+  </si>
+  <si>
+    <t>SEGUROS SURA S.A.</t>
+  </si>
+  <si>
+    <t>NEOENERGIA DISTRIBUICAO BRASI</t>
+  </si>
+  <si>
+    <t>OVER ELEVADORES LTDA</t>
+  </si>
+  <si>
+    <t>COPY LINE COMERCIO E SERVICOS</t>
+  </si>
+  <si>
+    <t>COPYUAI LOCACAO DE EQUIPAMENT</t>
+  </si>
+  <si>
+    <t>IMPRENSA NACIONAL</t>
+  </si>
+  <si>
+    <t>R$ 40.700,00</t>
+  </si>
+  <si>
+    <t>R$ 1.199.844,00</t>
+  </si>
+  <si>
+    <t>R$ 57.120,00</t>
+  </si>
+  <si>
+    <t>R$ 37.395,00</t>
+  </si>
+  <si>
+    <t>R$ 2.300,00</t>
+  </si>
+  <si>
+    <t>R$ 5.138,40</t>
+  </si>
+  <si>
+    <t>R$ 3.683,52</t>
+  </si>
+  <si>
+    <t>R$ 39.934,69</t>
+  </si>
+  <si>
+    <t>R$ 78.200,00</t>
+  </si>
+  <si>
+    <t>R$ 38.076,00</t>
+  </si>
+  <si>
+    <t>R$ 87.776,23</t>
+  </si>
+  <si>
+    <t>R$ 103.050,00</t>
+  </si>
+  <si>
+    <t>R$ 235.090,08</t>
+  </si>
+  <si>
+    <t>R$ 724.802,54</t>
+  </si>
+  <si>
+    <t>R$ 0,00</t>
+  </si>
+  <si>
+    <t>R$ 215.210,88</t>
+  </si>
+  <si>
+    <t>R$ 1.569.750,00</t>
+  </si>
+  <si>
+    <t>R$ 1.500.000,00</t>
+  </si>
+  <si>
+    <t>R$ 2.056.113,91</t>
+  </si>
+  <si>
+    <t>R$ 2.680.560,00</t>
+  </si>
+  <si>
+    <t>R$ 5.965.139.520,00</t>
+  </si>
+  <si>
+    <t>R$ 885.709,45</t>
+  </si>
+  <si>
+    <t>R$ 219.921,46</t>
+  </si>
+  <si>
+    <t>R$ 565.914,20</t>
+  </si>
+  <si>
+    <t>R$ 82.235,00</t>
+  </si>
+  <si>
+    <t>R$ 76.560,00</t>
+  </si>
+  <si>
+    <t>R$ 30.270,00</t>
+  </si>
+  <si>
+    <t>R$ 392.634,00</t>
+  </si>
+  <si>
+    <t>R$ 175.795,00</t>
+  </si>
+  <si>
+    <t>R$ 29.640,00</t>
+  </si>
+  <si>
+    <t>R$ 11.334.610,60</t>
+  </si>
+  <si>
+    <t>R$ 42.051,24</t>
+  </si>
+  <si>
+    <t>R$ 173.076,84</t>
+  </si>
+  <si>
+    <t>R$ 278.245,56</t>
+  </si>
+  <si>
+    <t>R$ 188.730,00</t>
+  </si>
+  <si>
+    <t>R$ 44.699,72</t>
+  </si>
+  <si>
+    <t>R$ 2.500.000,00</t>
+  </si>
+  <si>
+    <t>R$ 2.688.000,00</t>
+  </si>
+  <si>
+    <t>R$ 738.576,00</t>
+  </si>
+  <si>
+    <t>R$ 96.768,00</t>
+  </si>
+  <si>
+    <t>R$ 40.000,00</t>
+  </si>
+  <si>
+    <t>10/01/2024</t>
+  </si>
+  <si>
+    <t>25/01/2024</t>
+  </si>
+  <si>
+    <t>08/02/2024</t>
+  </si>
+  <si>
+    <t>24/02/2024</t>
+  </si>
+  <si>
+    <t>29/02/2024</t>
+  </si>
+  <si>
+    <t>03/03/2024</t>
+  </si>
+  <si>
+    <t>14/03/2024</t>
+  </si>
+  <si>
+    <t>18/03/2024</t>
+  </si>
+  <si>
+    <t>30/03/2024</t>
+  </si>
+  <si>
+    <t>08/04/2024</t>
+  </si>
+  <si>
+    <t>24/04/2024</t>
+  </si>
+  <si>
+    <t>06/05/2024</t>
+  </si>
+  <si>
+    <t>25/05/2024</t>
+  </si>
+  <si>
+    <t>26/05/2024</t>
+  </si>
+  <si>
+    <t>21/07/2024</t>
+  </si>
+  <si>
+    <t>01/08/2024</t>
+  </si>
+  <si>
+    <t>04/08/2024</t>
+  </si>
+  <si>
+    <t>11/08/2024</t>
+  </si>
+  <si>
+    <t>16/08/2024</t>
+  </si>
+  <si>
+    <t>26/08/2024</t>
+  </si>
+  <si>
+    <t>01/09/2024</t>
+  </si>
+  <si>
+    <t>17/10/2024</t>
+  </si>
+  <si>
+    <t>18/10/2024</t>
+  </si>
+  <si>
+    <t>13/11/2024</t>
+  </si>
+  <si>
+    <t>20/11/2024</t>
+  </si>
+  <si>
+    <t>29/11/2024</t>
+  </si>
+  <si>
+    <t>05/12/2024</t>
+  </si>
+  <si>
+    <t>07/12/2024</t>
+  </si>
+  <si>
+    <t>09/12/2024</t>
+  </si>
+  <si>
+    <t>12/12/2024</t>
+  </si>
+  <si>
+    <t>20/12/2024</t>
+  </si>
+  <si>
+    <t>18/02/2025</t>
+  </si>
+  <si>
+    <t>19/11/2025</t>
+  </si>
+  <si>
+    <t>23/03/2026</t>
+  </si>
+  <si>
+    <t>14/02/2028</t>
+  </si>
+  <si>
+    <t>Controle de Contratos</t>
+  </si>
+  <si>
+    <t>Atualizado em: 20/02/2024</t>
+  </si>
+  <si>
+    <t>Ata</t>
+  </si>
+  <si>
+    <t>87000/23-038/00</t>
+  </si>
+  <si>
+    <t>87000/23-039/00</t>
+  </si>
+  <si>
+    <t>87000/23-046/00</t>
+  </si>
+  <si>
+    <t>87000/23-034/00</t>
+  </si>
+  <si>
+    <t>87000/23-031/00</t>
+  </si>
+  <si>
+    <t>87000/23-040/00</t>
+  </si>
+  <si>
+    <t>87000/23-041/00</t>
+  </si>
+  <si>
+    <t>87000/23-035/00</t>
+  </si>
+  <si>
+    <t>87000/23-045/00</t>
+  </si>
+  <si>
+    <t>87000/23-044/00</t>
+  </si>
+  <si>
+    <t>87000/23-043/00</t>
+  </si>
+  <si>
+    <t>87000/23-042/00</t>
+  </si>
+  <si>
+    <t>87000/23-032/00</t>
+  </si>
+  <si>
+    <t>87000/23-036/00</t>
+  </si>
+  <si>
+    <t>87000/23-033/00</t>
+  </si>
+  <si>
+    <t>87000/23-019/00</t>
+  </si>
+  <si>
+    <t>87000/23-048/00</t>
+  </si>
+  <si>
+    <t>87000/23-056/00</t>
+  </si>
+  <si>
+    <t>87000/23-057/00</t>
+  </si>
+  <si>
+    <t>87000/23-055/00</t>
+  </si>
+  <si>
+    <t>87000/23-049/00</t>
+  </si>
+  <si>
+    <t>87000/23-053/00</t>
+  </si>
+  <si>
+    <t>87000/23-052/00</t>
+  </si>
+  <si>
+    <t>87000/23-022/00</t>
+  </si>
+  <si>
+    <t>87000/23-054/00</t>
+  </si>
+  <si>
+    <t>87000/23-037/00</t>
+  </si>
+  <si>
+    <t>87000/23-050/00</t>
+  </si>
+  <si>
+    <t>87000/23-062/00</t>
+  </si>
+  <si>
+    <t>87000/23-064/00</t>
+  </si>
+  <si>
+    <t>87000/23-061/00</t>
+  </si>
+  <si>
+    <t>87000/23-063/00</t>
+  </si>
+  <si>
+    <t>87000/23-066/00</t>
+  </si>
+  <si>
+    <t>87000/23-068/00</t>
+  </si>
+  <si>
+    <t>87000/23-070/00</t>
+  </si>
+  <si>
+    <t>87000/23-069/00</t>
+  </si>
+  <si>
+    <t>87000/23-067/00</t>
+  </si>
+  <si>
+    <t>87000/23-065/00</t>
+  </si>
+  <si>
+    <t>87000/23-072/00</t>
+  </si>
+  <si>
+    <t>87000/23-077/00</t>
+  </si>
+  <si>
+    <t>87000/23-076/00</t>
+  </si>
+  <si>
+    <t>87000/23-074/00</t>
+  </si>
+  <si>
+    <t>87000/23-082/00</t>
+  </si>
+  <si>
+    <t>87000/23-081/00</t>
+  </si>
+  <si>
+    <t>87000/23-079/00</t>
+  </si>
+  <si>
+    <t>87000/23-075/00</t>
+  </si>
+  <si>
+    <t>87000/23-078/00</t>
+  </si>
+  <si>
+    <t>87000/23-084/00</t>
+  </si>
+  <si>
+    <t>87000/23-085/00</t>
+  </si>
+  <si>
+    <t>87000/23-086/00</t>
+  </si>
+  <si>
+    <t>87000/23-080/00</t>
+  </si>
+  <si>
+    <t>87000/23-091/00</t>
+  </si>
+  <si>
+    <t>87000/23-098/00</t>
+  </si>
+  <si>
+    <t>87000/23-095/00</t>
+  </si>
+  <si>
+    <t>87000/23-096/00</t>
+  </si>
+  <si>
+    <t>87000/23-094/00</t>
+  </si>
+  <si>
+    <t>87000/23-090/00</t>
+  </si>
+  <si>
+    <t>87000/23-092/00</t>
+  </si>
+  <si>
+    <t>87000/23-089/00</t>
+  </si>
+  <si>
+    <t>87000/23-093/00</t>
+  </si>
+  <si>
+    <t>87000/23-109/00</t>
+  </si>
+  <si>
+    <t>87000/23-111/00</t>
+  </si>
+  <si>
+    <t>87000/23-112/00</t>
+  </si>
+  <si>
+    <t>87000/23-110/00</t>
+  </si>
+  <si>
+    <t>87000/23-113/00</t>
+  </si>
+  <si>
+    <t>87000/23-118/00</t>
+  </si>
+  <si>
+    <t>87000/23-119/00</t>
+  </si>
+  <si>
+    <t>87000/23-120/00</t>
+  </si>
+  <si>
+    <t>87000/23-116/00</t>
+  </si>
+  <si>
+    <t>87000/23-117/00</t>
+  </si>
+  <si>
     <t>87000/23-122/00</t>
   </si>
   <si>
-    <t>87000/17-1532/00</t>
-  </si>
-  <si>
-    <t>87000/17-1531/00</t>
-  </si>
-  <si>
-    <t>87000/23-108/00</t>
-  </si>
-  <si>
-    <t>87000/22-007/00</t>
-  </si>
-  <si>
-    <t>87000/22-099/00</t>
-  </si>
-  <si>
-    <t>87000/18-100/00</t>
-  </si>
-  <si>
-    <t>Resíduos Sólidos</t>
-  </si>
-  <si>
-    <t>Embarcações</t>
-  </si>
-  <si>
-    <t>Central Telefônica</t>
-  </si>
-  <si>
-    <t>Manutenção de Cozinha</t>
-  </si>
-  <si>
-    <t>Passagens</t>
-  </si>
-  <si>
-    <t>Serviço de Jardinagem</t>
-  </si>
-  <si>
-    <t>Leiloeiro Oficial</t>
-  </si>
-  <si>
-    <t>Material Permanente</t>
-  </si>
-  <si>
-    <t>Assistência Social</t>
-  </si>
-  <si>
-    <t>Gestão de Frota</t>
-  </si>
-  <si>
-    <t>Serviços de Engenharia</t>
-  </si>
-  <si>
-    <t>Serviços de Limpeza</t>
-  </si>
-  <si>
-    <t>Manutenção Frigorífica</t>
-  </si>
-  <si>
-    <t>Licença de Software</t>
-  </si>
-  <si>
-    <t>Materiais de Tecnologia</t>
-  </si>
-  <si>
-    <t>Serviço Móvel</t>
-  </si>
-  <si>
-    <t>Montagem de Palanques</t>
-  </si>
-  <si>
-    <t>TV por assinatura</t>
-  </si>
-  <si>
-    <t>Transporte de Bagagem</t>
-  </si>
-  <si>
-    <t>Cessão de Uso</t>
-  </si>
-  <si>
-    <t>Locação de Móvel</t>
-  </si>
-  <si>
-    <t>Seguro Total</t>
+    <t>87000/24-003/00</t>
+  </si>
+  <si>
+    <t>Desentupidora</t>
+  </si>
+  <si>
+    <t>Dedetização</t>
+  </si>
+  <si>
+    <t>Material de Expediente</t>
+  </si>
+  <si>
+    <t>Peças de Elevadores</t>
+  </si>
+  <si>
+    <t>Laticínios</t>
+  </si>
+  <si>
+    <t>Hortifrutigranjeiros</t>
+  </si>
+  <si>
+    <t>Contêineres Frigoríficos</t>
+  </si>
+  <si>
+    <t>Gêneros Frigoríficados</t>
+  </si>
+  <si>
+    <t>Gêneros Frigorificados</t>
   </si>
   <si>
     <t>Eventos Protocolares</t>
   </si>
   <si>
-    <t>Fornecimento de Energia</t>
-  </si>
-  <si>
-    <t>Elevadores</t>
-  </si>
-  <si>
-    <t>Reprografia</t>
-  </si>
-  <si>
-    <t>D.O.U</t>
-  </si>
-  <si>
-    <t>Com7ºDN</t>
-  </si>
-  <si>
-    <t>GptFNB</t>
-  </si>
-  <si>
-    <t>CeIMBra</t>
-  </si>
-  <si>
-    <t>CFGO</t>
-  </si>
-  <si>
-    <t>Divisão de Serviços Gerais</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Divisão de Segurança da Informação e Comunicações</t>
-  </si>
-  <si>
-    <t>Divisão de Municiamento</t>
-  </si>
-  <si>
-    <t>Seção de Passagem e Bagagem</t>
-  </si>
-  <si>
-    <t>Divisão de Manutenção e Reparo de PNR</t>
-  </si>
-  <si>
-    <t>Divisão de Gerência dos Créditos</t>
-  </si>
-  <si>
-    <t>Divisão de Assistência Social</t>
-  </si>
-  <si>
-    <t>Divisão de Transporte</t>
-  </si>
-  <si>
-    <t>Divisão de Obras</t>
-  </si>
-  <si>
-    <t>Divisão de Conectividade de Sistemas de Informações</t>
-  </si>
-  <si>
-    <t>Divisão de Telefonia</t>
-  </si>
-  <si>
-    <t>Divisão de Obtenção</t>
-  </si>
-  <si>
-    <t>NORESA NOVO RIO ENERGIA E SER</t>
-  </si>
-  <si>
-    <t>L C DE SOUZA EMBARCACOES NAVA</t>
-  </si>
-  <si>
-    <t>PINO LTDA</t>
-  </si>
-  <si>
-    <t>SOLUCAO EPI COMERCIO DE EQUIP</t>
-  </si>
-  <si>
-    <t>QUILHA NAUTICA LTDA</t>
-  </si>
-  <si>
-    <t>FORTT DO BRASIL LTDA</t>
-  </si>
-  <si>
-    <t>PLUS CONSTRUCOES E SERVICOS L</t>
-  </si>
-  <si>
-    <t>TOMASINI &amp; BUENO INDUSTRIA E</t>
-  </si>
-  <si>
-    <t>NORTFORT COMERCIO E SERVICOS</t>
-  </si>
-  <si>
-    <t>RS TURISMO E EVENTOS LTDA</t>
-  </si>
-  <si>
-    <t>ALFA E OMEGA  SERVICOS TERCEI</t>
-  </si>
-  <si>
-    <t>R MORAES AGENCIA DE TURISMO L</t>
-  </si>
-  <si>
-    <t>LUCIANO GONÇALVES BORBA ASSUNÇÃO</t>
-  </si>
-  <si>
-    <t>CIRURGICAS MULLET IMPORTADORA</t>
-  </si>
-  <si>
-    <t>INTEGRAR - INSTITUTO DE REABI</t>
-  </si>
-  <si>
-    <t>NP3 COMERCIO E SERVICOS LTDA</t>
-  </si>
-  <si>
-    <t>TECNICALL ENGENHARIA LTDA</t>
-  </si>
-  <si>
-    <t>HEIMAR-CONSTRUCOES E SERVICOS</t>
-  </si>
-  <si>
-    <t>ADTEL FACILITIES LTDA</t>
-  </si>
-  <si>
-    <t>ANDRACON SERVICOS GERAIS LTDA</t>
-  </si>
-  <si>
-    <t>CLIAMA CLINICA DE ATENDIMENTO</t>
-  </si>
-  <si>
-    <t>VIVACE FISIOTERAPIA &amp; MEDICIN</t>
-  </si>
-  <si>
-    <t>I.S ENGECLIM SERVICOS DE ENGE</t>
-  </si>
-  <si>
-    <t>MCR SISTEMAS E CONSULTORIA LT</t>
-  </si>
-  <si>
-    <t>PRATICAR CENTRO DE TREINAMENT</t>
-  </si>
-  <si>
-    <t>ELP COMERCIO DE EQUIPAMENTOS</t>
-  </si>
-  <si>
-    <t>CLARO S.A.</t>
-  </si>
-  <si>
-    <t>PALCO LOCACAO LTDA</t>
-  </si>
-  <si>
-    <t>STAR LOCACAO DE SERVICOS GERA</t>
-  </si>
-  <si>
-    <t>MARCIO ANDERSON RODRIGUES COM</t>
-  </si>
-  <si>
-    <t>STAMM MUDANCAS E TRANSPORTES</t>
-  </si>
-  <si>
-    <t>BANCO BRADESCO S.A.</t>
-  </si>
-  <si>
-    <t>BANCO SANTANDER (BRASIL) S.A.</t>
-  </si>
-  <si>
-    <t>CAIXA ECONOMICA FEDERAL</t>
-  </si>
-  <si>
-    <t>UNICA SERVICOS EM SAUDE LTDA</t>
-  </si>
-  <si>
-    <t>ABRIGO DO MARINHEIRO</t>
-  </si>
-  <si>
-    <t>SEGUROS SURA S.A.</t>
+    <t>Panificados</t>
+  </si>
+  <si>
+    <t>ERMB</t>
+  </si>
+  <si>
+    <t>Divisão de Controle Patrimonial</t>
+  </si>
+  <si>
+    <t>Seção de Tecnologia da Informação</t>
+  </si>
+  <si>
+    <t>W &amp; E SERVICOS TECNICOS LTDA</t>
+  </si>
+  <si>
+    <t>DEDETIZADORA FOLHA LTDA</t>
+  </si>
+  <si>
+    <t>ART PAPER INDUSTRIA E COMERCI</t>
+  </si>
+  <si>
+    <t>AAZ COMERCIAL LTDA</t>
+  </si>
+  <si>
+    <t>LAZARO BEZERRA SOARES</t>
+  </si>
+  <si>
+    <t>RAFA PAPER DISTRIBUIDORA LTDA</t>
+  </si>
+  <si>
+    <t>DM COMERCIAL IMPORTADORA E EX</t>
+  </si>
+  <si>
+    <t>VS - VIEIRA &amp; SANTOS COMERCIO</t>
+  </si>
+  <si>
+    <t>DAIANE DOS SANTOS MARTINS 133</t>
+  </si>
+  <si>
+    <t>THIAGO CAETANIO DA SILVA 0549</t>
+  </si>
+  <si>
+    <t>ALEGRENSE DISTRIBUIDORA E REP</t>
+  </si>
+  <si>
+    <t>SMART SOLUTIONS - SOLUCOES IN</t>
+  </si>
+  <si>
+    <t>LER - LIVRARIA E PAPELARIA LT</t>
+  </si>
+  <si>
+    <t>LG COMERCIO E SERVICOS LTDA</t>
+  </si>
+  <si>
+    <t>AMAZONAS COMERCIO DE ADESIVOS</t>
+  </si>
+  <si>
+    <t>MAQUITEC MAQUINAS E EQUIPAMEN</t>
+  </si>
+  <si>
+    <t>MARCOS RIBEIRO E CIA LTDA</t>
+  </si>
+  <si>
+    <t>DIRCEU LONGO &amp; CIA LTDA</t>
+  </si>
+  <si>
+    <t>REDNOV FERRAMENTAS LTDA.</t>
+  </si>
+  <si>
+    <t>LOCTRAD LOCACAO E COMERCIO DE</t>
+  </si>
+  <si>
+    <t>DARLU INDUSTRIA TEXTIL LTDA</t>
+  </si>
+  <si>
+    <t>GO VENDAS ELETRONICAS LTDA</t>
+  </si>
+  <si>
+    <t>SUPORTE COMERCIAL ATACADISTA</t>
+  </si>
+  <si>
+    <t>FM COZINHAS PROFISSIONAIS E C</t>
+  </si>
+  <si>
+    <t>RX PROMOCAO DE VENDAS E COMER</t>
+  </si>
+  <si>
+    <t>MAYAS COMERCIAL DE PRODUTOS E</t>
+  </si>
+  <si>
+    <t>N3 DISTRIBUICAO DE SUPRIMENTO</t>
+  </si>
+  <si>
+    <t>ANJ COMERCIO DE PRODUTOS ALIM</t>
+  </si>
+  <si>
+    <t>UEDAMA COMERCIO DE PRODUTOS A</t>
+  </si>
+  <si>
+    <t>YOUC DISTRIBUIDORA LTDA</t>
+  </si>
+  <si>
+    <t>NOBORU HORTIFRUTI LTDA</t>
+  </si>
+  <si>
+    <t>JT&amp;A SOLUCOES LTDA</t>
+  </si>
+  <si>
+    <t>COMERCIAL MINAS BRASILIA LTDA</t>
+  </si>
+  <si>
+    <t>J &amp; S ALIMENTOS LTDA</t>
+  </si>
+  <si>
+    <t>C DO VALE LOPES</t>
+  </si>
+  <si>
+    <t>M&amp;M IMPORTACAO E ECOMMERCE DE</t>
+  </si>
+  <si>
+    <t>ARCANJO TELECOMUNICACOES E IN</t>
+  </si>
+  <si>
+    <t>NOVA ERA TECNOLOGIA LTDA</t>
+  </si>
+  <si>
+    <t>REPREMIG REPRESENTACAO E COME</t>
+  </si>
+  <si>
+    <t>OKAY TECHNOLOGY COMERCIO DO B</t>
+  </si>
+  <si>
+    <t>BACKUP MANUTENCAO E DISTRIBUI</t>
+  </si>
+  <si>
+    <t>DANIEL TAVARES DE GOES</t>
+  </si>
+  <si>
+    <t>ALPHA ELETRONICOS DO BRASIL L</t>
+  </si>
+  <si>
+    <t>J L PEREIRA ARCHILLA</t>
+  </si>
+  <si>
+    <t>NOVA MIX LTDA</t>
+  </si>
+  <si>
+    <t>PROVISÃO DISTRIBUIDORA E COME</t>
+  </si>
+  <si>
+    <t>GLOBAL DISTRIBUICAO DE BENS D</t>
+  </si>
+  <si>
+    <t>JVC INDUSTRIA COMERCIO ATACAD</t>
+  </si>
+  <si>
+    <t>FRIGORIFICO CALAFATE LTDA</t>
+  </si>
+  <si>
+    <t>PEIXE DO CAIS COMERCIO DE PES</t>
+  </si>
+  <si>
+    <t>S J PARAISO CHARQUE LTDA</t>
+  </si>
+  <si>
+    <t>JCA COMERCIO DE ALIMENTOS LTD</t>
+  </si>
+  <si>
+    <t>FONTE DE VIDA INDUSTRIA E COM</t>
+  </si>
+  <si>
+    <t>MIRANDA COMERCIO DE ALIMENTOS</t>
+  </si>
+  <si>
+    <t>RPR REPRESENTACAO DE PRODUTOS</t>
   </si>
   <si>
     <t>AMV FESTAS &amp; EVENTOS LTDA</t>
   </si>
   <si>
-    <t>NEOENERGIA DISTRIBUICAO BRASI</t>
-  </si>
-  <si>
-    <t>OVER ELEVADORES LTDA</t>
-  </si>
-  <si>
-    <t>COPY LINE COMERCIO E SERVICOS</t>
-  </si>
-  <si>
-    <t>COPYUAI LOCACAO DE EQUIPAMENT</t>
-  </si>
-  <si>
-    <t>IMPRENSA NACIONAL</t>
-  </si>
-  <si>
-    <t>R$ 57.120,00</t>
-  </si>
-  <si>
-    <t>R$ 37.395,00</t>
-  </si>
-  <si>
-    <t>R$ 2.300,00</t>
-  </si>
-  <si>
-    <t>R$ 5.138,40</t>
-  </si>
-  <si>
-    <t>R$ 3.683,52</t>
-  </si>
-  <si>
-    <t>R$ 39.934,69</t>
-  </si>
-  <si>
-    <t>R$ 78.200,00</t>
-  </si>
-  <si>
-    <t>R$ 38.076,00</t>
-  </si>
-  <si>
-    <t>R$ 87.776,23</t>
-  </si>
-  <si>
-    <t>R$ 103.050,00</t>
-  </si>
-  <si>
-    <t>R$ 235.090,08</t>
-  </si>
-  <si>
-    <t>R$ 724.802,54</t>
-  </si>
-  <si>
-    <t>R$ 0,00</t>
-  </si>
-  <si>
-    <t>R$ 215.210,88</t>
-  </si>
-  <si>
-    <t>R$ 1.500.000,00</t>
-  </si>
-  <si>
-    <t>R$ 1.569.750,00</t>
-  </si>
-  <si>
-    <t>R$ 5.965.139.520,00</t>
-  </si>
-  <si>
-    <t>R$ 2.680.560,00</t>
-  </si>
-  <si>
-    <t>R$ 2.056.113,91</t>
-  </si>
-  <si>
-    <t>R$ 885.709,45</t>
-  </si>
-  <si>
-    <t>R$ 219.921,46</t>
-  </si>
-  <si>
-    <t>R$ 565.914,20</t>
-  </si>
-  <si>
-    <t>R$ 82.235,00</t>
-  </si>
-  <si>
-    <t>R$ 76.560,00</t>
-  </si>
-  <si>
-    <t>R$ 30.270,00</t>
-  </si>
-  <si>
-    <t>R$ 392.634,00</t>
-  </si>
-  <si>
-    <t>R$ 175.795,00</t>
-  </si>
-  <si>
-    <t>R$ 29.640,00</t>
-  </si>
-  <si>
-    <t>R$ 11.334.610,60</t>
-  </si>
-  <si>
-    <t>R$ 42.051,24</t>
-  </si>
-  <si>
-    <t>R$ 173.076,84</t>
-  </si>
-  <si>
-    <t>R$ 278.245,56</t>
-  </si>
-  <si>
-    <t>R$ 188.730,00</t>
-  </si>
-  <si>
-    <t>R$ 44.699,72</t>
+    <t>R$ 1.500.490,00</t>
+  </si>
+  <si>
+    <t>R$ 54.326,40</t>
+  </si>
+  <si>
+    <t>R$ 85.649,00</t>
+  </si>
+  <si>
+    <t>R$ 216.327,80</t>
+  </si>
+  <si>
+    <t>R$ 566,40</t>
+  </si>
+  <si>
+    <t>R$ 379.711,40</t>
+  </si>
+  <si>
+    <t>R$ 8.846,40</t>
+  </si>
+  <si>
+    <t>R$ 30.887,10</t>
+  </si>
+  <si>
+    <t>R$ 41.477,68</t>
+  </si>
+  <si>
+    <t>R$ 13.442,10</t>
+  </si>
+  <si>
+    <t>R$ 485.516,36</t>
+  </si>
+  <si>
+    <t>R$ 46.280,04</t>
+  </si>
+  <si>
+    <t>R$ 52.328,48</t>
+  </si>
+  <si>
+    <t>R$ 11.369,29</t>
+  </si>
+  <si>
+    <t>R$ 7.075,20</t>
+  </si>
+  <si>
+    <t>R$ 52.477,38</t>
+  </si>
+  <si>
+    <t>R$ 423.575,00</t>
+  </si>
+  <si>
+    <t>R$ 62.260,00</t>
+  </si>
+  <si>
+    <t>R$ 32.315,08</t>
+  </si>
+  <si>
+    <t>R$ 62.259,28</t>
+  </si>
+  <si>
+    <t>R$ 11.100,32</t>
+  </si>
+  <si>
+    <t>R$ 3.051,22</t>
+  </si>
+  <si>
+    <t>R$ 102.052,62</t>
+  </si>
+  <si>
+    <t>R$ 83.268,00</t>
+  </si>
+  <si>
+    <t>R$ 135.000,00</t>
+  </si>
+  <si>
+    <t>R$ 30.962,40</t>
+  </si>
+  <si>
+    <t>R$ 18.747,90</t>
+  </si>
+  <si>
+    <t>R$ 45.078,80</t>
+  </si>
+  <si>
+    <t>R$ 97.342,00</t>
+  </si>
+  <si>
+    <t>R$ 2.848.031,91</t>
+  </si>
+  <si>
+    <t>R$ 416.264,24</t>
+  </si>
+  <si>
+    <t>R$ 40.359,00</t>
+  </si>
+  <si>
+    <t>R$ 255.628,50</t>
+  </si>
+  <si>
+    <t>R$ 1.547.342,85</t>
+  </si>
+  <si>
+    <t>R$ 127.902,60</t>
+  </si>
+  <si>
+    <t>R$ 438.398,24</t>
+  </si>
+  <si>
+    <t>R$ 530.877,90</t>
+  </si>
+  <si>
+    <t>R$ 52.003,00</t>
+  </si>
+  <si>
+    <t>R$ 116.000,00</t>
+  </si>
+  <si>
+    <t>R$ 77.284,80</t>
+  </si>
+  <si>
+    <t>R$ 331.890,00</t>
+  </si>
+  <si>
+    <t>R$ 51.300,00</t>
+  </si>
+  <si>
+    <t>R$ 1.263.240,00</t>
+  </si>
+  <si>
+    <t>R$ 93.000,00</t>
+  </si>
+  <si>
+    <t>R$ 24.273,00</t>
+  </si>
+  <si>
+    <t>R$ 326.016,00</t>
+  </si>
+  <si>
+    <t>R$ 541.060,00</t>
+  </si>
+  <si>
+    <t>R$ 142.816,80</t>
+  </si>
+  <si>
+    <t>R$ 112.270,76</t>
+  </si>
+  <si>
+    <t>R$ 233.782,56</t>
+  </si>
+  <si>
+    <t>R$ 560.000,00</t>
+  </si>
+  <si>
+    <t>R$ 764.374,80</t>
+  </si>
+  <si>
+    <t>R$ 1.528.770,00</t>
+  </si>
+  <si>
+    <t>R$ 1.502.863,00</t>
+  </si>
+  <si>
+    <t>R$ 965.778,24</t>
+  </si>
+  <si>
+    <t>R$ 57.039,20</t>
+  </si>
+  <si>
+    <t>R$ 347.512,75</t>
+  </si>
+  <si>
+    <t>R$ 590.848,00</t>
+  </si>
+  <si>
+    <t>R$ 2.300.774,50</t>
+  </si>
+  <si>
+    <t>R$ 3.402.169,60</t>
+  </si>
+  <si>
+    <t>R$ 2.313.003,40</t>
+  </si>
+  <si>
+    <t>R$ 4.614.740,60</t>
+  </si>
+  <si>
+    <t>R$ 882.443,45</t>
+  </si>
+  <si>
+    <t>R$ 629.850,00</t>
+  </si>
+  <si>
+    <t>R$ 441.243,10</t>
+  </si>
+  <si>
+    <t>R$ 67.788,00</t>
+  </si>
+  <si>
+    <t>R$ 1.317.600,00</t>
+  </si>
+  <si>
+    <t>R$ 1.462.004,00</t>
   </si>
   <si>
     <t>R$ 1.245.070,50</t>
   </si>
   <si>
-    <t>R$ 2.500.000,00</t>
-  </si>
-  <si>
-    <t>R$ 2.688.000,00</t>
-  </si>
-  <si>
-    <t>R$ 738.576,00</t>
-  </si>
-  <si>
-    <t>R$ 96.768,00</t>
-  </si>
-  <si>
-    <t>R$ 40.000,00</t>
-  </si>
-  <si>
-    <t>08/02/2024</t>
-  </si>
-  <si>
-    <t>24/02/2024</t>
-  </si>
-  <si>
-    <t>29/02/2024</t>
-  </si>
-  <si>
-    <t>03/03/2024</t>
-  </si>
-  <si>
-    <t>14/03/2024</t>
-  </si>
-  <si>
-    <t>18/03/2024</t>
-  </si>
-  <si>
-    <t>30/03/2024</t>
-  </si>
-  <si>
-    <t>08/04/2024</t>
-  </si>
-  <si>
-    <t>24/04/2024</t>
-  </si>
-  <si>
-    <t>06/05/2024</t>
-  </si>
-  <si>
-    <t>25/05/2024</t>
-  </si>
-  <si>
-    <t>26/05/2024</t>
-  </si>
-  <si>
-    <t>21/07/2024</t>
-  </si>
-  <si>
-    <t>01/08/2024</t>
-  </si>
-  <si>
-    <t>04/08/2024</t>
-  </si>
-  <si>
-    <t>11/08/2024</t>
-  </si>
-  <si>
-    <t>16/08/2024</t>
-  </si>
-  <si>
-    <t>26/08/2024</t>
-  </si>
-  <si>
-    <t>01/09/2024</t>
-  </si>
-  <si>
-    <t>17/10/2024</t>
-  </si>
-  <si>
-    <t>18/10/2024</t>
-  </si>
-  <si>
-    <t>13/11/2024</t>
-  </si>
-  <si>
-    <t>20/11/2024</t>
-  </si>
-  <si>
-    <t>29/11/2024</t>
-  </si>
-  <si>
-    <t>05/12/2024</t>
-  </si>
-  <si>
-    <t>07/12/2024</t>
-  </si>
-  <si>
-    <t>09/12/2024</t>
-  </si>
-  <si>
-    <t>12/12/2024</t>
-  </si>
-  <si>
-    <t>20/12/2024</t>
+    <t>R$ 414.600,80</t>
+  </si>
+  <si>
+    <t>29/03/2024</t>
+  </si>
+  <si>
+    <t>11/04/2024</t>
+  </si>
+  <si>
+    <t>15/05/2024</t>
+  </si>
+  <si>
+    <t>16/05/2024</t>
+  </si>
+  <si>
+    <t>17/05/2024</t>
+  </si>
+  <si>
+    <t>22/05/2024</t>
+  </si>
+  <si>
+    <t>07/06/2024</t>
+  </si>
+  <si>
+    <t>12/06/2024</t>
+  </si>
+  <si>
+    <t>15/06/2024</t>
+  </si>
+  <si>
+    <t>22/06/2024</t>
+  </si>
+  <si>
+    <t>11/07/2024</t>
+  </si>
+  <si>
+    <t>20/07/2024</t>
+  </si>
+  <si>
+    <t>28/08/2024</t>
+  </si>
+  <si>
+    <t>11/09/2024</t>
+  </si>
+  <si>
+    <t>13/09/2024</t>
+  </si>
+  <si>
+    <t>15/09/2024</t>
+  </si>
+  <si>
+    <t>19/09/2024</t>
+  </si>
+  <si>
+    <t>10/11/2024</t>
+  </si>
+  <si>
+    <t>14/11/2024</t>
+  </si>
+  <si>
+    <t>27/11/2024</t>
+  </si>
+  <si>
+    <t>30/11/2024</t>
+  </si>
+  <si>
+    <t>14/12/2024</t>
+  </si>
+  <si>
+    <t>18/12/2024</t>
+  </si>
+  <si>
+    <t>19/12/2024</t>
   </si>
   <si>
     <t>26/01/2025</t>
-  </si>
-  <si>
-    <t>18/02/2025</t>
-  </si>
-  <si>
-    <t>19/11/2025</t>
-  </si>
-  <si>
-    <t>23/03/2026</t>
-  </si>
-  <si>
-    <t>14/02/2028</t>
-  </si>
-  <si>
-    <t>Controle de Contratos</t>
-  </si>
-  <si>
-    <t>Atualizado em: 19/02/2024</t>
-  </si>
-  <si>
-    <t>Ata</t>
-  </si>
-  <si>
-    <t>87000/23-038/00</t>
-  </si>
-  <si>
-    <t>87000/23-039/00</t>
-  </si>
-  <si>
-    <t>87000/23-046/00</t>
-  </si>
-  <si>
-    <t>87000/23-031/00</t>
-  </si>
-  <si>
-    <t>87000/23-040/00</t>
-  </si>
-  <si>
-    <t>87000/23-041/00</t>
-  </si>
-  <si>
-    <t>87000/23-035/00</t>
-  </si>
-  <si>
-    <t>87000/23-045/00</t>
-  </si>
-  <si>
-    <t>87000/23-044/00</t>
-  </si>
-  <si>
-    <t>87000/23-043/00</t>
-  </si>
-  <si>
-    <t>87000/23-034/00</t>
-  </si>
-  <si>
-    <t>87000/23-042/00</t>
-  </si>
-  <si>
-    <t>87000/23-036/00</t>
-  </si>
-  <si>
-    <t>87000/23-032/00</t>
-  </si>
-  <si>
-    <t>87000/23-033/00</t>
-  </si>
-  <si>
-    <t>87000/23-019/00</t>
-  </si>
-  <si>
-    <t>87000/23-048/00</t>
-  </si>
-  <si>
-    <t>87000/23-056/00</t>
-  </si>
-  <si>
-    <t>87000/23-057/00</t>
-  </si>
-  <si>
-    <t>87000/23-055/00</t>
-  </si>
-  <si>
-    <t>87000/23-049/00</t>
-  </si>
-  <si>
-    <t>87000/23-053/00</t>
-  </si>
-  <si>
-    <t>87000/23-052/00</t>
-  </si>
-  <si>
-    <t>87000/23-022/00</t>
-  </si>
-  <si>
-    <t>87000/23-054/00</t>
-  </si>
-  <si>
-    <t>87000/23-037/00</t>
-  </si>
-  <si>
-    <t>87000/23-050/00</t>
-  </si>
-  <si>
-    <t>87000/23-062/00</t>
-  </si>
-  <si>
-    <t>87000/23-064/00</t>
-  </si>
-  <si>
-    <t>87000/23-061/00</t>
-  </si>
-  <si>
-    <t>87000/23-063/00</t>
-  </si>
-  <si>
-    <t>87000/23-068/00</t>
-  </si>
-  <si>
-    <t>87000/23-066/00</t>
-  </si>
-  <si>
-    <t>87000/23-069/00</t>
-  </si>
-  <si>
-    <t>87000/23-070/00</t>
-  </si>
-  <si>
-    <t>87000/23-067/00</t>
-  </si>
-  <si>
-    <t>87000/23-065/00</t>
-  </si>
-  <si>
-    <t>87000/23-072/00</t>
-  </si>
-  <si>
-    <t>87000/23-077/00</t>
-  </si>
-  <si>
-    <t>87000/23-076/00</t>
-  </si>
-  <si>
-    <t>87000/23-074/00</t>
-  </si>
-  <si>
-    <t>87000/23-082/00</t>
-  </si>
-  <si>
-    <t>87000/23-081/00</t>
-  </si>
-  <si>
-    <t>87000/23-079/00</t>
-  </si>
-  <si>
-    <t>87000/23-075/00</t>
-  </si>
-  <si>
-    <t>87000/23-078/00</t>
-  </si>
-  <si>
-    <t>87000/23-084/00</t>
-  </si>
-  <si>
-    <t>87000/23-085/00</t>
-  </si>
-  <si>
-    <t>87000/23-086/00</t>
-  </si>
-  <si>
-    <t>87000/23-080/00</t>
-  </si>
-  <si>
-    <t>87000/23-091/00</t>
-  </si>
-  <si>
-    <t>87000/23-098/00</t>
-  </si>
-  <si>
-    <t>87000/23-095/00</t>
-  </si>
-  <si>
-    <t>87000/23-096/00</t>
-  </si>
-  <si>
-    <t>87000/23-094/00</t>
-  </si>
-  <si>
-    <t>87000/23-089/00</t>
-  </si>
-  <si>
-    <t>87000/23-092/00</t>
-  </si>
-  <si>
-    <t>87000/23-090/00</t>
-  </si>
-  <si>
-    <t>87000/23-093/00</t>
-  </si>
-  <si>
-    <t>87000/23-109/00</t>
-  </si>
-  <si>
-    <t>87000/23-111/00</t>
-  </si>
-  <si>
-    <t>87000/23-112/00</t>
-  </si>
-  <si>
-    <t>87000/23-110/00</t>
-  </si>
-  <si>
-    <t>87000/23-113/00</t>
-  </si>
-  <si>
-    <t>87000/23-118/00</t>
-  </si>
-  <si>
-    <t>87000/23-119/00</t>
-  </si>
-  <si>
-    <t>87000/23-120/00</t>
-  </si>
-  <si>
-    <t>87000/23-116/00</t>
-  </si>
-  <si>
-    <t>87000/23-117/00</t>
-  </si>
-  <si>
-    <t>87000/24-003/00</t>
-  </si>
-  <si>
-    <t>Desentupidora</t>
-  </si>
-  <si>
-    <t>Dedetização</t>
-  </si>
-  <si>
-    <t>Material de Expediente</t>
-  </si>
-  <si>
-    <t>Peças de Elevadores</t>
-  </si>
-  <si>
-    <t>Laticínios</t>
-  </si>
-  <si>
-    <t>Hortifrutigranjeiros</t>
-  </si>
-  <si>
-    <t>Contêineres Frigoríficos</t>
-  </si>
-  <si>
-    <t>Gêneros Frigoríficados</t>
-  </si>
-  <si>
-    <t>Gêneros Frigorificados</t>
-  </si>
-  <si>
-    <t>Panificados</t>
-  </si>
-  <si>
-    <t>ERMB</t>
-  </si>
-  <si>
-    <t>Divisão de Controle Patrimonial</t>
-  </si>
-  <si>
-    <t>Divisão de Abastecimento</t>
-  </si>
-  <si>
-    <t>W &amp; E SERVICOS TECNICOS LTDA</t>
-  </si>
-  <si>
-    <t>DEDETIZADORA FOLHA LTDA</t>
-  </si>
-  <si>
-    <t>ART PAPER INDUSTRIA E COMERCI</t>
-  </si>
-  <si>
-    <t>LAZARO BEZERRA SOARES</t>
-  </si>
-  <si>
-    <t>RAFA PAPER DISTRIBUIDORA LTDA</t>
-  </si>
-  <si>
-    <t>DM COMERCIAL IMPORTADORA E EX</t>
-  </si>
-  <si>
-    <t>VS - VIEIRA &amp; SANTOS COMERCIO</t>
-  </si>
-  <si>
-    <t>DAIANE DOS SANTOS MARTINS 133</t>
-  </si>
-  <si>
-    <t>THIAGO CAETANIO DA SILVA 0549</t>
-  </si>
-  <si>
-    <t>ALEGRENSE DISTRIBUIDORA E REP</t>
-  </si>
-  <si>
-    <t>AAZ COMERCIAL LTDA</t>
-  </si>
-  <si>
-    <t>SMART SOLUTIONS - SOLUCOES IN</t>
-  </si>
-  <si>
-    <t>LG COMERCIO E SERVICOS LTDA</t>
-  </si>
-  <si>
-    <t>LER - LIVRARIA E PAPELARIA LT</t>
-  </si>
-  <si>
-    <t>AMAZONAS COMERCIO DE ADESIVOS</t>
-  </si>
-  <si>
-    <t>MAQUITEC MAQUINAS E EQUIPAMEN</t>
-  </si>
-  <si>
-    <t>MARCOS RIBEIRO E CIA LTDA</t>
-  </si>
-  <si>
-    <t>DIRCEU LONGO &amp; CIA LTDA</t>
-  </si>
-  <si>
-    <t>REDNOV FERRAMENTAS LTDA.</t>
-  </si>
-  <si>
-    <t>LOCTRAD LOCACAO E COMERCIO DE</t>
-  </si>
-  <si>
-    <t>DARLU INDUSTRIA TEXTIL LTDA</t>
-  </si>
-  <si>
-    <t>GO VENDAS ELETRONICAS LTDA</t>
-  </si>
-  <si>
-    <t>SUPORTE COMERCIAL ATACADISTA</t>
-  </si>
-  <si>
-    <t>FM COZINHAS PROFISSIONAIS E C</t>
-  </si>
-  <si>
-    <t>RX PROMOCAO DE VENDAS E COMER</t>
-  </si>
-  <si>
-    <t>MAYAS COMERCIAL DE PRODUTOS E</t>
-  </si>
-  <si>
-    <t>N3 DISTRIBUICAO DE SUPRIMENTO</t>
-  </si>
-  <si>
-    <t>ANJ COMERCIO DE PRODUTOS ALIM</t>
-  </si>
-  <si>
-    <t>UEDAMA COMERCIO DE PRODUTOS A</t>
-  </si>
-  <si>
-    <t>YOUC DISTRIBUIDORA LTDA</t>
-  </si>
-  <si>
-    <t>JT&amp;A SOLUCOES LTDA</t>
-  </si>
-  <si>
-    <t>NOBORU HORTIFRUTI LTDA</t>
-  </si>
-  <si>
-    <t>J &amp; S ALIMENTOS LTDA</t>
-  </si>
-  <si>
-    <t>COMERCIAL MINAS BRASILIA LTDA</t>
-  </si>
-  <si>
-    <t>C DO VALE LOPES</t>
-  </si>
-  <si>
-    <t>M&amp;M IMPORTACAO E ECOMMERCE DE</t>
-  </si>
-  <si>
-    <t>ARCANJO TELECOMUNICACOES E IN</t>
-  </si>
-  <si>
-    <t>NOVA ERA TECNOLOGIA LTDA</t>
-  </si>
-  <si>
-    <t>REPREMIG REPRESENTACAO E COME</t>
-  </si>
-  <si>
-    <t>OKAY TECHNOLOGY COMERCIO DO B</t>
-  </si>
-  <si>
-    <t>BACKUP MANUTENCAO E DISTRIBUI</t>
-  </si>
-  <si>
-    <t>DANIEL TAVARES DE GOES</t>
-  </si>
-  <si>
-    <t>ALPHA ELETRONICOS DO BRASIL L</t>
-  </si>
-  <si>
-    <t>J L PEREIRA ARCHILLA</t>
-  </si>
-  <si>
-    <t>NOVA MIX LTDA</t>
-  </si>
-  <si>
-    <t>PROVISÃO DISTRIBUIDORA E COME</t>
-  </si>
-  <si>
-    <t>GLOBAL DISTRIBUICAO DE BENS D</t>
-  </si>
-  <si>
-    <t>JVC INDUSTRIA COMERCIO ATACAD</t>
-  </si>
-  <si>
-    <t>FRIGORIFICO CALAFATE LTDA</t>
-  </si>
-  <si>
-    <t>PEIXE DO CAIS COMERCIO DE PES</t>
-  </si>
-  <si>
-    <t>FONTE DE VIDA INDUSTRIA E COM</t>
-  </si>
-  <si>
-    <t>JCA COMERCIO DE ALIMENTOS LTD</t>
-  </si>
-  <si>
-    <t>S J PARAISO CHARQUE LTDA</t>
-  </si>
-  <si>
-    <t>MIRANDA COMERCIO DE ALIMENTOS</t>
-  </si>
-  <si>
-    <t>RPR REPRESENTACAO DE PRODUTOS</t>
-  </si>
-  <si>
-    <t>R$ 1.500.490,00</t>
-  </si>
-  <si>
-    <t>R$ 54.326,40</t>
-  </si>
-  <si>
-    <t>R$ 85.649,00</t>
-  </si>
-  <si>
-    <t>R$ 566,40</t>
-  </si>
-  <si>
-    <t>R$ 379.711,40</t>
-  </si>
-  <si>
-    <t>R$ 8.846,40</t>
-  </si>
-  <si>
-    <t>R$ 30.887,10</t>
-  </si>
-  <si>
-    <t>R$ 41.477,68</t>
-  </si>
-  <si>
-    <t>R$ 13.442,10</t>
-  </si>
-  <si>
-    <t>R$ 485.516,36</t>
-  </si>
-  <si>
-    <t>R$ 216.327,80</t>
-  </si>
-  <si>
-    <t>R$ 46.280,04</t>
-  </si>
-  <si>
-    <t>R$ 11.369,29</t>
-  </si>
-  <si>
-    <t>R$ 52.328,48</t>
-  </si>
-  <si>
-    <t>R$ 7.075,20</t>
-  </si>
-  <si>
-    <t>R$ 52.477,38</t>
-  </si>
-  <si>
-    <t>R$ 423.575,00</t>
-  </si>
-  <si>
-    <t>R$ 62.260,00</t>
-  </si>
-  <si>
-    <t>R$ 32.315,08</t>
-  </si>
-  <si>
-    <t>R$ 62.259,28</t>
-  </si>
-  <si>
-    <t>R$ 11.100,32</t>
-  </si>
-  <si>
-    <t>R$ 3.051,22</t>
-  </si>
-  <si>
-    <t>R$ 102.052,62</t>
-  </si>
-  <si>
-    <t>R$ 83.268,00</t>
-  </si>
-  <si>
-    <t>R$ 135.000,00</t>
-  </si>
-  <si>
-    <t>R$ 30.962,40</t>
-  </si>
-  <si>
-    <t>R$ 18.747,90</t>
-  </si>
-  <si>
-    <t>R$ 45.078,80</t>
-  </si>
-  <si>
-    <t>R$ 97.342,00</t>
-  </si>
-  <si>
-    <t>R$ 2.848.031,91</t>
-  </si>
-  <si>
-    <t>R$ 416.264,24</t>
-  </si>
-  <si>
-    <t>R$ 255.628,50</t>
-  </si>
-  <si>
-    <t>R$ 40.359,00</t>
-  </si>
-  <si>
-    <t>R$ 127.902,60</t>
-  </si>
-  <si>
-    <t>R$ 1.547.342,85</t>
-  </si>
-  <si>
-    <t>R$ 438.398,24</t>
-  </si>
-  <si>
-    <t>R$ 530.877,90</t>
-  </si>
-  <si>
-    <t>R$ 52.003,00</t>
-  </si>
-  <si>
-    <t>R$ 116.000,00</t>
-  </si>
-  <si>
-    <t>R$ 77.284,80</t>
-  </si>
-  <si>
-    <t>R$ 331.890,00</t>
-  </si>
-  <si>
-    <t>R$ 51.300,00</t>
-  </si>
-  <si>
-    <t>R$ 1.263.240,00</t>
-  </si>
-  <si>
-    <t>R$ 93.000,00</t>
-  </si>
-  <si>
-    <t>R$ 24.273,00</t>
-  </si>
-  <si>
-    <t>R$ 326.016,00</t>
-  </si>
-  <si>
-    <t>R$ 541.060,00</t>
-  </si>
-  <si>
-    <t>R$ 142.816,80</t>
-  </si>
-  <si>
-    <t>R$ 112.270,76</t>
-  </si>
-  <si>
-    <t>R$ 233.782,56</t>
-  </si>
-  <si>
-    <t>R$ 560.000,00</t>
-  </si>
-  <si>
-    <t>R$ 764.374,80</t>
-  </si>
-  <si>
-    <t>R$ 1.528.770,00</t>
-  </si>
-  <si>
-    <t>R$ 1.502.863,00</t>
-  </si>
-  <si>
-    <t>R$ 347.512,75</t>
-  </si>
-  <si>
-    <t>R$ 57.039,20</t>
-  </si>
-  <si>
-    <t>R$ 965.778,24</t>
-  </si>
-  <si>
-    <t>R$ 590.848,00</t>
-  </si>
-  <si>
-    <t>R$ 2.300.774,50</t>
-  </si>
-  <si>
-    <t>R$ 3.402.169,60</t>
-  </si>
-  <si>
-    <t>R$ 2.313.003,40</t>
-  </si>
-  <si>
-    <t>R$ 4.614.740,60</t>
-  </si>
-  <si>
-    <t>R$ 882.443,45</t>
-  </si>
-  <si>
-    <t>R$ 629.850,00</t>
-  </si>
-  <si>
-    <t>R$ 441.243,10</t>
-  </si>
-  <si>
-    <t>R$ 67.788,00</t>
-  </si>
-  <si>
-    <t>R$ 1.317.600,00</t>
-  </si>
-  <si>
-    <t>R$ 1.462.004,00</t>
-  </si>
-  <si>
-    <t>R$ 414.600,80</t>
-  </si>
-  <si>
-    <t>29/03/2024</t>
-  </si>
-  <si>
-    <t>11/04/2024</t>
-  </si>
-  <si>
-    <t>15/05/2024</t>
-  </si>
-  <si>
-    <t>16/05/2024</t>
-  </si>
-  <si>
-    <t>17/05/2024</t>
-  </si>
-  <si>
-    <t>22/05/2024</t>
-  </si>
-  <si>
-    <t>07/06/2024</t>
-  </si>
-  <si>
-    <t>12/06/2024</t>
-  </si>
-  <si>
-    <t>15/06/2024</t>
-  </si>
-  <si>
-    <t>22/06/2024</t>
-  </si>
-  <si>
-    <t>11/07/2024</t>
-  </si>
-  <si>
-    <t>20/07/2024</t>
-  </si>
-  <si>
-    <t>28/08/2024</t>
-  </si>
-  <si>
-    <t>11/09/2024</t>
-  </si>
-  <si>
-    <t>13/09/2024</t>
-  </si>
-  <si>
-    <t>15/09/2024</t>
-  </si>
-  <si>
-    <t>19/09/2024</t>
-  </si>
-  <si>
-    <t>10/11/2024</t>
-  </si>
-  <si>
-    <t>14/11/2024</t>
-  </si>
-  <si>
-    <t>27/11/2024</t>
-  </si>
-  <si>
-    <t>30/11/2024</t>
-  </si>
-  <si>
-    <t>14/12/2024</t>
-  </si>
-  <si>
-    <t>18/12/2024</t>
-  </si>
-  <si>
-    <t>19/12/2024</t>
   </si>
   <si>
     <t>Controle de Atas</t>
@@ -1745,7 +1763,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I48"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1763,7 +1781,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1776,7 +1794,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1824,25 +1842,25 @@
         <v>9</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>181</v>
       </c>
       <c r="I4" s="4">
-        <v>-12</v>
+        <v>-42</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1850,28 +1868,28 @@
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>182</v>
       </c>
       <c r="I5" s="4">
-        <v>4</v>
+        <v>-27</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1879,28 +1897,28 @@
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I6" s="4">
-        <v>4</v>
+        <v>-13</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1908,28 +1926,28 @@
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>55</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>86</v>
+        <v>9</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="I7" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1937,28 +1955,28 @@
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>55</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>86</v>
+        <v>9</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I8" s="4">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1966,28 +1984,28 @@
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>81</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>87</v>
+        <v>9</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>184</v>
       </c>
       <c r="I9" s="4">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1995,28 +2013,28 @@
         <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>55</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>86</v>
+        <v>9</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>185</v>
       </c>
       <c r="I10" s="4">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -2024,28 +2042,28 @@
         <v>8</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>86</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>186</v>
       </c>
       <c r="I11" s="4">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -2053,28 +2071,28 @@
         <v>9</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>187</v>
       </c>
       <c r="I12" s="4">
-        <v>39</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -2082,28 +2100,28 @@
         <v>10</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>89</v>
+        <v>9</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>188</v>
       </c>
       <c r="I13" s="4">
-        <v>48</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -2111,28 +2129,28 @@
         <v>11</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>189</v>
       </c>
       <c r="I14" s="4">
-        <v>64</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -2140,28 +2158,28 @@
         <v>12</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>58</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>190</v>
       </c>
       <c r="I15" s="4">
-        <v>76</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -2169,28 +2187,28 @@
         <v>13</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>191</v>
       </c>
       <c r="I16" s="4">
-        <v>95</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -2198,28 +2216,28 @@
         <v>14</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>88</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>192</v>
       </c>
       <c r="I17" s="4">
-        <v>96</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -2227,28 +2245,28 @@
         <v>15</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>193</v>
       </c>
       <c r="I18" s="4">
-        <v>152</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -2256,28 +2274,28 @@
         <v>16</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="I19" s="4">
-        <v>152</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -2285,28 +2303,28 @@
         <v>17</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I20" s="4">
-        <v>163</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -2314,28 +2332,28 @@
         <v>18</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I21" s="4">
-        <v>163</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -2343,28 +2361,28 @@
         <v>19</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>64</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I22" s="4">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -2372,28 +2390,28 @@
         <v>20</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I23" s="4">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -2401,28 +2419,28 @@
         <v>21</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H24" s="4" t="s">
         <v>196</v>
       </c>
       <c r="I24" s="4">
-        <v>173</v>
+        <v>162</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -2430,28 +2448,28 @@
         <v>22</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="H25" s="4" t="s">
         <v>197</v>
       </c>
       <c r="I25" s="4">
-        <v>178</v>
+        <v>165</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -2459,28 +2477,28 @@
         <v>23</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="H26" s="4" t="s">
         <v>198</v>
       </c>
       <c r="I26" s="4">
-        <v>188</v>
+        <v>172</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -2488,28 +2506,28 @@
         <v>24</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="H27" s="4" t="s">
         <v>199</v>
       </c>
       <c r="I27" s="4">
-        <v>194</v>
+        <v>177</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -2517,28 +2535,28 @@
         <v>25</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="H28" s="4" t="s">
         <v>200</v>
       </c>
       <c r="I28" s="4">
-        <v>240</v>
+        <v>187</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -2546,28 +2564,28 @@
         <v>26</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="H29" s="4" t="s">
         <v>201</v>
       </c>
       <c r="I29" s="4">
-        <v>241</v>
+        <v>193</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -2575,19 +2593,19 @@
         <v>27</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G30" s="4" t="s">
         <v>164</v>
@@ -2596,7 +2614,7 @@
         <v>202</v>
       </c>
       <c r="I30" s="4">
-        <v>267</v>
+        <v>239</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -2604,28 +2622,28 @@
         <v>28</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="H31" s="4" t="s">
         <v>203</v>
       </c>
       <c r="I31" s="4">
-        <v>274</v>
+        <v>240</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -2633,28 +2651,28 @@
         <v>29</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H32" s="4" t="s">
         <v>204</v>
       </c>
       <c r="I32" s="4">
-        <v>283</v>
+        <v>266</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -2662,28 +2680,28 @@
         <v>30</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I33" s="4">
-        <v>283</v>
+        <v>273</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -2691,28 +2709,28 @@
         <v>31</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I34" s="4">
-        <v>289</v>
+        <v>282</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -2720,28 +2738,28 @@
         <v>32</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H35" s="4" t="s">
         <v>206</v>
       </c>
       <c r="I35" s="4">
-        <v>291</v>
+        <v>282</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -2749,28 +2767,28 @@
         <v>33</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H36" s="4" t="s">
         <v>207</v>
       </c>
       <c r="I36" s="4">
-        <v>293</v>
+        <v>288</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -2778,28 +2796,28 @@
         <v>34</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="I37" s="4">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -2807,28 +2825,28 @@
         <v>35</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>73</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="I38" s="4">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -2836,28 +2854,28 @@
         <v>36</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="I39" s="4">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -2865,28 +2883,28 @@
         <v>37</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G40" s="4" t="s">
         <v>173</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I40" s="4">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -2894,28 +2912,28 @@
         <v>38</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="H41" s="4" t="s">
         <v>209</v>
       </c>
       <c r="I41" s="4">
-        <v>304</v>
+        <v>292</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -2923,28 +2941,28 @@
         <v>39</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H42" s="4" t="s">
         <v>210</v>
       </c>
       <c r="I42" s="4">
-        <v>341</v>
+        <v>295</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -2952,28 +2970,28 @@
         <v>40</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H43" s="4" t="s">
         <v>211</v>
       </c>
       <c r="I43" s="4">
-        <v>364</v>
+        <v>303</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -2981,28 +2999,28 @@
         <v>41</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>85</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G44" s="4" t="s">
         <v>176</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="I44" s="4">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -3010,28 +3028,28 @@
         <v>42</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H45" s="4" t="s">
         <v>212</v>
       </c>
       <c r="I45" s="4">
-        <v>638</v>
+        <v>363</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -3039,28 +3057,28 @@
         <v>43</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H46" s="4" t="s">
         <v>213</v>
       </c>
       <c r="I46" s="4">
-        <v>762</v>
+        <v>637</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -3068,28 +3086,28 @@
         <v>44</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="I47" s="4">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -3097,28 +3115,57 @@
         <v>45</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>83</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>97</v>
+        <v>9</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H48" s="4" t="s">
         <v>214</v>
       </c>
       <c r="I48" s="4">
-        <v>1455</v>
+        <v>761</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="4">
+        <v>46</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="I49" s="4">
+        <v>1454</v>
       </c>
     </row>
   </sheetData>
@@ -3132,7 +3179,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I73"/>
+  <dimension ref="A1:I74"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3150,7 +3197,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3163,7 +3210,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -3179,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>2</v>
@@ -3208,28 +3255,28 @@
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="I4" s="4">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3237,28 +3284,28 @@
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="I5" s="4">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3266,28 +3313,28 @@
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="I6" s="4">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -3295,28 +3342,28 @@
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="I7" s="4">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -3324,28 +3371,28 @@
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="I8" s="4">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3353,28 +3400,28 @@
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="I9" s="4">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3382,28 +3429,28 @@
         <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="I10" s="4">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -3411,28 +3458,28 @@
         <v>8</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="I11" s="4">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -3440,28 +3487,28 @@
         <v>9</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="I12" s="4">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -3469,28 +3516,28 @@
         <v>10</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="I13" s="4">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -3498,28 +3545,28 @@
         <v>11</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="I14" s="4">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -3527,28 +3574,28 @@
         <v>12</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="I15" s="4">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -3556,28 +3603,28 @@
         <v>13</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="I16" s="4">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -3585,28 +3632,28 @@
         <v>14</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="I17" s="4">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -3614,28 +3661,28 @@
         <v>15</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="I18" s="4">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -3643,28 +3690,28 @@
         <v>16</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>61</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="I19" s="4">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -3672,28 +3719,28 @@
         <v>17</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>85</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="I20" s="4">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -3701,28 +3748,28 @@
         <v>18</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>61</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="I21" s="4">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -3730,28 +3777,28 @@
         <v>19</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>61</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="I22" s="4">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -3759,28 +3806,28 @@
         <v>20</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>61</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="I23" s="4">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -3788,28 +3835,28 @@
         <v>21</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>61</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="I24" s="4">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -3817,28 +3864,28 @@
         <v>22</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>61</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="I25" s="4">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -3846,28 +3893,28 @@
         <v>23</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>61</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="I26" s="4">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -3875,28 +3922,28 @@
         <v>24</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>61</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="I27" s="4">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -3904,28 +3951,28 @@
         <v>25</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>61</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="I28" s="4">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -3933,28 +3980,28 @@
         <v>26</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="I29" s="4">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -3962,28 +4009,28 @@
         <v>27</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>61</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="I30" s="4">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -3991,28 +4038,28 @@
         <v>28</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="I31" s="4">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -4020,28 +4067,28 @@
         <v>29</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="I32" s="4">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -4049,28 +4096,28 @@
         <v>30</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="I33" s="4">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -4078,28 +4125,28 @@
         <v>31</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="I34" s="4">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -4107,28 +4154,28 @@
         <v>32</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="I35" s="4">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -4136,28 +4183,28 @@
         <v>33</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="I36" s="4">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -4165,28 +4212,28 @@
         <v>34</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="I37" s="4">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -4194,28 +4241,28 @@
         <v>35</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="I38" s="4">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -4223,28 +4270,28 @@
         <v>36</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="I39" s="4">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -4252,28 +4299,28 @@
         <v>37</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="I40" s="4">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -4281,13 +4328,13 @@
         <v>38</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>54</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>85</v>
@@ -4296,13 +4343,13 @@
         <v>98</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="I41" s="4">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -4310,28 +4357,28 @@
         <v>39</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>68</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>95</v>
+        <v>303</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="I42" s="4">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -4339,28 +4386,28 @@
         <v>40</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>68</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="I43" s="4">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -4368,28 +4415,28 @@
         <v>41</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>68</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="I44" s="4">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -4397,28 +4444,28 @@
         <v>42</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>68</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="I45" s="4">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -4426,28 +4473,28 @@
         <v>43</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>68</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="I46" s="4">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -4455,28 +4502,28 @@
         <v>44</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>68</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F47" s="4" t="s">
         <v>123</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="I47" s="4">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -4484,28 +4531,28 @@
         <v>45</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>68</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="I48" s="4">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -4513,28 +4560,28 @@
         <v>46</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>68</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="I49" s="4">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -4542,28 +4589,28 @@
         <v>47</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>68</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="I50" s="4">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -4571,28 +4618,28 @@
         <v>48</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>68</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="I51" s="4">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -4600,28 +4647,28 @@
         <v>49</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>68</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="I52" s="4">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -4629,28 +4676,28 @@
         <v>50</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>68</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="I53" s="4">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -4658,28 +4705,28 @@
         <v>51</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>86</v>
+        <v>9</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="I54" s="4">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -4687,28 +4734,28 @@
         <v>52</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>68</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="I55" s="4">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -4716,28 +4763,28 @@
         <v>53</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="I56" s="4">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -4745,28 +4792,28 @@
         <v>54</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="I57" s="4">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -4774,28 +4821,28 @@
         <v>55</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="I58" s="4">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -4803,28 +4850,28 @@
         <v>56</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="I59" s="4">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -4832,28 +4879,28 @@
         <v>57</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="I60" s="4">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -4861,28 +4908,28 @@
         <v>58</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="I61" s="4">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -4890,28 +4937,28 @@
         <v>59</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="I62" s="4">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -4919,28 +4966,28 @@
         <v>60</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="I63" s="4">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -4948,28 +4995,28 @@
         <v>61</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="I64" s="4">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -4977,28 +5024,28 @@
         <v>62</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>300</v>
+        <v>87</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="I65" s="4">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -5006,28 +5053,28 @@
         <v>63</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="I66" s="4">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -5035,28 +5082,28 @@
         <v>64</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="I67" s="4">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -5064,28 +5111,28 @@
         <v>65</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="I68" s="4">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -5093,28 +5140,28 @@
         <v>66</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="I69" s="4">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -5122,28 +5169,28 @@
         <v>67</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="I70" s="4">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -5151,28 +5198,28 @@
         <v>68</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="I71" s="4">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -5180,28 +5227,28 @@
         <v>69</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="I72" s="4">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -5209,28 +5256,57 @@
         <v>70</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>334</v>
+        <v>359</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>210</v>
+        <v>454</v>
       </c>
       <c r="I73" s="4">
-        <v>341</v>
+        <v>340</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" s="4">
+        <v>71</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="H74" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="I74" s="4">
+        <v>340</v>
       </c>
     </row>
   </sheetData>

--- a/controle_contratos/Planilha_Completa.xlsx
+++ b/controle_contratos/Planilha_Completa.xlsx
@@ -15,38 +15,123 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2064" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2292" uniqueCount="376">
   <si>
     <t>Nº</t>
   </si>
   <si>
+    <t>Processo</t>
+  </si>
+  <si>
     <t>Contrato</t>
   </si>
   <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>Setor Demandante</t>
+  </si>
+  <si>
+    <t>Contratado</t>
+  </si>
+  <si>
     <t>Objeto</t>
   </si>
   <si>
-    <t>OM</t>
-  </si>
-  <si>
-    <t>Setor Demandante</t>
-  </si>
-  <si>
-    <t>Contratado</t>
-  </si>
-  <si>
     <t>Vig. Fim</t>
   </si>
   <si>
-    <t>Dias</t>
-  </si>
-  <si>
-    <t>Contrato Inicial</t>
+    <t>Dias p/
+Vencer</t>
+  </si>
+  <si>
+    <t>Portaria</t>
   </si>
   <si>
     <t>Termo Aditivo</t>
   </si>
   <si>
+    <t>PE 42/2023</t>
+  </si>
+  <si>
+    <t>PE 10/2020</t>
+  </si>
+  <si>
+    <t>PE 02/2021</t>
+  </si>
+  <si>
+    <t>PE 29/2019</t>
+  </si>
+  <si>
+    <t>PE 08/2022</t>
+  </si>
+  <si>
+    <t>PE 09/2021</t>
+  </si>
+  <si>
+    <t>PE 02/2018</t>
+  </si>
+  <si>
+    <t>PE 03/2022</t>
+  </si>
+  <si>
+    <t>TJIL 01/2016</t>
+  </si>
+  <si>
+    <t>PE 31/2023</t>
+  </si>
+  <si>
+    <t>PE 25/2021</t>
+  </si>
+  <si>
+    <t>PE 06/2023</t>
+  </si>
+  <si>
+    <t>PE 01/2023</t>
+  </si>
+  <si>
+    <t>PE 11/2022</t>
+  </si>
+  <si>
+    <t>PE 14/2022</t>
+  </si>
+  <si>
+    <t>PE 08/2023</t>
+  </si>
+  <si>
+    <t>PE 08/2020</t>
+  </si>
+  <si>
+    <t>PE 20/2021</t>
+  </si>
+  <si>
+    <t>TJDL 1002/2023</t>
+  </si>
+  <si>
+    <t>PE 19/2019</t>
+  </si>
+  <si>
+    <t>PE 01/2016</t>
+  </si>
+  <si>
+    <t>TJIL 1004/2023</t>
+  </si>
+  <si>
+    <t>DE 44/2023</t>
+  </si>
+  <si>
+    <t>TJDL 01/2019</t>
+  </si>
+  <si>
+    <t>PE 35/2022</t>
+  </si>
+  <si>
+    <t>PE 02/2022</t>
+  </si>
+  <si>
+    <t>TJIL 01/2017</t>
+  </si>
+  <si>
     <t>87000/23-104/00</t>
   </si>
   <si>
@@ -164,6 +249,171 @@
     <t>87000/18-100/00</t>
   </si>
   <si>
+    <t>GptFNB</t>
+  </si>
+  <si>
+    <t>Com7ºDN</t>
+  </si>
+  <si>
+    <t>CeIMBra</t>
+  </si>
+  <si>
+    <t>CFGO</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Divisão de Segurança da Informação e Comunicações</t>
+  </si>
+  <si>
+    <t>Divisão de Municiamento</t>
+  </si>
+  <si>
+    <t>Seção de Passagem e Bagagem</t>
+  </si>
+  <si>
+    <t>Divisão de Manutenção e Reparo de PNR</t>
+  </si>
+  <si>
+    <t>Divisão de Gerência dos Créditos</t>
+  </si>
+  <si>
+    <t>Divisão de Assistência Social</t>
+  </si>
+  <si>
+    <t>Divisão de Transporte</t>
+  </si>
+  <si>
+    <t>Divisão de Obras</t>
+  </si>
+  <si>
+    <t>Divisão de Serviços Gerais</t>
+  </si>
+  <si>
+    <t>Divisão de Conectividade de Sistemas de Informações</t>
+  </si>
+  <si>
+    <t>Divisão de Telefonia</t>
+  </si>
+  <si>
+    <t>Divisão de Obtenção</t>
+  </si>
+  <si>
+    <t>QUILHA NAUTICA LTDA</t>
+  </si>
+  <si>
+    <t>FORTT DO BRASIL LTDA</t>
+  </si>
+  <si>
+    <t>PLUS CONSTRUCOES E SERVICOS L</t>
+  </si>
+  <si>
+    <t>TOMASINI &amp; BUENO INDUSTRIA E</t>
+  </si>
+  <si>
+    <t>NORTFORT COMERCIO E SERVICOS</t>
+  </si>
+  <si>
+    <t>RS TURISMO E EVENTOS LTDA</t>
+  </si>
+  <si>
+    <t>ALFA E OMEGA  SERVICOS TERCEI</t>
+  </si>
+  <si>
+    <t>R MORAES AGENCIA DE TURISMO L</t>
+  </si>
+  <si>
+    <t>LUCIANO GONÇALVES BORBA ASSUNÇÃO</t>
+  </si>
+  <si>
+    <t>CIRURGICAS MULLET IMPORTADORA</t>
+  </si>
+  <si>
+    <t>INTEGRAR - INSTITUTO DE REABI</t>
+  </si>
+  <si>
+    <t>NP3 COMERCIO E SERVICOS LTDA</t>
+  </si>
+  <si>
+    <t>HEIMAR-CONSTRUCOES E SERVICOS</t>
+  </si>
+  <si>
+    <t>ADTEL FACILITIES LTDA</t>
+  </si>
+  <si>
+    <t>TECNICALL ENGENHARIA LTDA</t>
+  </si>
+  <si>
+    <t>NORESA NOVO RIO ENERGIA E SER</t>
+  </si>
+  <si>
+    <t>CLIAMA CLINICA DE ATENDIMENTO</t>
+  </si>
+  <si>
+    <t>VIVACE FISIOTERAPIA &amp; MEDICIN</t>
+  </si>
+  <si>
+    <t>I.S ENGECLIM SERVICOS DE ENGE</t>
+  </si>
+  <si>
+    <t>MCR SISTEMAS E CONSULTORIA LT</t>
+  </si>
+  <si>
+    <t>PRATICAR CENTRO DE TREINAMENT</t>
+  </si>
+  <si>
+    <t>ELP COMERCIO DE EQUIPAMENTOS</t>
+  </si>
+  <si>
+    <t>CLARO S.A.</t>
+  </si>
+  <si>
+    <t>STAR LOCACAO DE SERVICOS GERA</t>
+  </si>
+  <si>
+    <t>PALCO LOCACAO LTDA</t>
+  </si>
+  <si>
+    <t>MARCIO ANDERSON RODRIGUES COM</t>
+  </si>
+  <si>
+    <t>STAMM MUDANCAS E TRANSPORTES</t>
+  </si>
+  <si>
+    <t>BANCO BRADESCO S.A.</t>
+  </si>
+  <si>
+    <t>BANCO SANTANDER (BRASIL) S.A.</t>
+  </si>
+  <si>
+    <t>CAIXA ECONOMICA FEDERAL</t>
+  </si>
+  <si>
+    <t>UNICA SERVICOS EM SAUDE LTDA</t>
+  </si>
+  <si>
+    <t>ABRIGO DO MARINHEIRO</t>
+  </si>
+  <si>
+    <t>SEGUROS SURA S.A.</t>
+  </si>
+  <si>
+    <t>NEOENERGIA DISTRIBUICAO BRASI</t>
+  </si>
+  <si>
+    <t>OVER ELEVADORES LTDA</t>
+  </si>
+  <si>
+    <t>COPYUAI LOCACAO DE EQUIPAMENT</t>
+  </si>
+  <si>
+    <t>COPY LINE COMERCIO E SERVICOS</t>
+  </si>
+  <si>
+    <t>IMPRENSA NACIONAL</t>
+  </si>
+  <si>
     <t>Embarcações</t>
   </si>
   <si>
@@ -239,171 +489,6 @@
     <t>D.O.U</t>
   </si>
   <si>
-    <t>GptFNB</t>
-  </si>
-  <si>
-    <t>Com7ºDN</t>
-  </si>
-  <si>
-    <t>CeIMBra</t>
-  </si>
-  <si>
-    <t>CFGO</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Divisão de Segurança da Informação e Comunicações</t>
-  </si>
-  <si>
-    <t>Divisão de Municiamento</t>
-  </si>
-  <si>
-    <t>Seção de Passagem e Bagagem</t>
-  </si>
-  <si>
-    <t>Divisão de Manutenção e Reparo de PNR</t>
-  </si>
-  <si>
-    <t>Divisão de Gerência dos Créditos</t>
-  </si>
-  <si>
-    <t>Divisão de Assistência Social</t>
-  </si>
-  <si>
-    <t>Divisão de Transporte</t>
-  </si>
-  <si>
-    <t>Divisão de Obras</t>
-  </si>
-  <si>
-    <t>Divisão de Serviços Gerais</t>
-  </si>
-  <si>
-    <t>Divisão de Conectividade de Sistemas de Informações</t>
-  </si>
-  <si>
-    <t>Divisão de Telefonia</t>
-  </si>
-  <si>
-    <t>Divisão de Obtenção</t>
-  </si>
-  <si>
-    <t>QUILHA NAUTICA LTDA</t>
-  </si>
-  <si>
-    <t>FORTT DO BRASIL LTDA</t>
-  </si>
-  <si>
-    <t>PLUS CONSTRUCOES E SERVICOS L</t>
-  </si>
-  <si>
-    <t>TOMASINI &amp; BUENO INDUSTRIA E</t>
-  </si>
-  <si>
-    <t>NORTFORT COMERCIO E SERVICOS</t>
-  </si>
-  <si>
-    <t>RS TURISMO E EVENTOS LTDA</t>
-  </si>
-  <si>
-    <t>ALFA E OMEGA  SERVICOS TERCEI</t>
-  </si>
-  <si>
-    <t>R MORAES AGENCIA DE TURISMO L</t>
-  </si>
-  <si>
-    <t>LUCIANO GONÇALVES BORBA ASSUNÇÃO</t>
-  </si>
-  <si>
-    <t>CIRURGICAS MULLET IMPORTADORA</t>
-  </si>
-  <si>
-    <t>INTEGRAR - INSTITUTO DE REABI</t>
-  </si>
-  <si>
-    <t>NP3 COMERCIO E SERVICOS LTDA</t>
-  </si>
-  <si>
-    <t>HEIMAR-CONSTRUCOES E SERVICOS</t>
-  </si>
-  <si>
-    <t>ADTEL FACILITIES LTDA</t>
-  </si>
-  <si>
-    <t>TECNICALL ENGENHARIA LTDA</t>
-  </si>
-  <si>
-    <t>NORESA NOVO RIO ENERGIA E SER</t>
-  </si>
-  <si>
-    <t>CLIAMA CLINICA DE ATENDIMENTO</t>
-  </si>
-  <si>
-    <t>VIVACE FISIOTERAPIA &amp; MEDICIN</t>
-  </si>
-  <si>
-    <t>I.S ENGECLIM SERVICOS DE ENGE</t>
-  </si>
-  <si>
-    <t>MCR SISTEMAS E CONSULTORIA LT</t>
-  </si>
-  <si>
-    <t>PRATICAR CENTRO DE TREINAMENT</t>
-  </si>
-  <si>
-    <t>ELP COMERCIO DE EQUIPAMENTOS</t>
-  </si>
-  <si>
-    <t>CLARO S.A.</t>
-  </si>
-  <si>
-    <t>STAR LOCACAO DE SERVICOS GERA</t>
-  </si>
-  <si>
-    <t>PALCO LOCACAO LTDA</t>
-  </si>
-  <si>
-    <t>MARCIO ANDERSON RODRIGUES COM</t>
-  </si>
-  <si>
-    <t>STAMM MUDANCAS E TRANSPORTES</t>
-  </si>
-  <si>
-    <t>BANCO BRADESCO S.A.</t>
-  </si>
-  <si>
-    <t>BANCO SANTANDER (BRASIL) S.A.</t>
-  </si>
-  <si>
-    <t>CAIXA ECONOMICA FEDERAL</t>
-  </si>
-  <si>
-    <t>UNICA SERVICOS EM SAUDE LTDA</t>
-  </si>
-  <si>
-    <t>ABRIGO DO MARINHEIRO</t>
-  </si>
-  <si>
-    <t>SEGUROS SURA S.A.</t>
-  </si>
-  <si>
-    <t>NEOENERGIA DISTRIBUICAO BRASI</t>
-  </si>
-  <si>
-    <t>OVER ELEVADORES LTDA</t>
-  </si>
-  <si>
-    <t>COPYUAI LOCACAO DE EQUIPAMENT</t>
-  </si>
-  <si>
-    <t>COPY LINE COMERCIO E SERVICOS</t>
-  </si>
-  <si>
-    <t>IMPRENSA NACIONAL</t>
-  </si>
-  <si>
     <t>29/02/2024</t>
   </si>
   <si>
@@ -506,12 +591,42 @@
     <t>Controle de Contratos - 2024</t>
   </si>
   <si>
-    <t>Atualizado em: 06/03/2024</t>
+    <t>Atualizado em: 07/03/2024</t>
   </si>
   <si>
     <t>Ata</t>
   </si>
   <si>
+    <t>PE 01/2022</t>
+  </si>
+  <si>
+    <t>PE 20/2022</t>
+  </si>
+  <si>
+    <t>PE 20/2023</t>
+  </si>
+  <si>
+    <t>PE 02/2023</t>
+  </si>
+  <si>
+    <t>PE 03/2023</t>
+  </si>
+  <si>
+    <t>PE 15/2021</t>
+  </si>
+  <si>
+    <t>PE 26/2023</t>
+  </si>
+  <si>
+    <t>PE 52/2023</t>
+  </si>
+  <si>
+    <t>PE 05/2023</t>
+  </si>
+  <si>
+    <t>PE 22/2023</t>
+  </si>
+  <si>
     <t>87000/23-038/00</t>
   </si>
   <si>
@@ -731,6 +846,186 @@
     <t>87000/24-002/00</t>
   </si>
   <si>
+    <t>ERMB</t>
+  </si>
+  <si>
+    <t>Divisão de Controle Patrimonial</t>
+  </si>
+  <si>
+    <t>Seção de Tecnologia da Informação</t>
+  </si>
+  <si>
+    <t>W &amp; E SERVICOS TECNICOS LTDA</t>
+  </si>
+  <si>
+    <t>DEDETIZADORA FOLHA LTDA</t>
+  </si>
+  <si>
+    <t>ART PAPER INDUSTRIA E COMERCI</t>
+  </si>
+  <si>
+    <t>LAZARO BEZERRA SOARES</t>
+  </si>
+  <si>
+    <t>RAFA PAPER DISTRIBUIDORA LTDA</t>
+  </si>
+  <si>
+    <t>DM COMERCIAL IMPORTADORA E EX</t>
+  </si>
+  <si>
+    <t>VS - VIEIRA &amp; SANTOS COMERCIO</t>
+  </si>
+  <si>
+    <t>DAIANE DOS SANTOS MARTINS 133</t>
+  </si>
+  <si>
+    <t>THIAGO CAETANIO DA SILVA 0549</t>
+  </si>
+  <si>
+    <t>ALEGRENSE DISTRIBUIDORA E REP</t>
+  </si>
+  <si>
+    <t>AAZ COMERCIAL LTDA</t>
+  </si>
+  <si>
+    <t>SMART SOLUTIONS - SOLUCOES IN</t>
+  </si>
+  <si>
+    <t>LG COMERCIO E SERVICOS LTDA</t>
+  </si>
+  <si>
+    <t>LER - LIVRARIA E PAPELARIA LT</t>
+  </si>
+  <si>
+    <t>AMAZONAS COMERCIO DE ADESIVOS</t>
+  </si>
+  <si>
+    <t>MAQUITEC MAQUINAS E EQUIPAMEN</t>
+  </si>
+  <si>
+    <t>MARCOS RIBEIRO E CIA LTDA</t>
+  </si>
+  <si>
+    <t>DIRCEU LONGO &amp; CIA LTDA</t>
+  </si>
+  <si>
+    <t>REDNOV FERRAMENTAS LTDA.</t>
+  </si>
+  <si>
+    <t>LOCTRAD LOCACAO E COMERCIO DE</t>
+  </si>
+  <si>
+    <t>DARLU INDUSTRIA TEXTIL LTDA</t>
+  </si>
+  <si>
+    <t>GO VENDAS ELETRONICAS LTDA</t>
+  </si>
+  <si>
+    <t>SUPORTE COMERCIAL ATACADISTA</t>
+  </si>
+  <si>
+    <t>FM COZINHAS PROFISSIONAIS E C</t>
+  </si>
+  <si>
+    <t>RX PROMOCAO DE VENDAS E COMER</t>
+  </si>
+  <si>
+    <t>MAYAS COMERCIAL DE PRODUTOS E</t>
+  </si>
+  <si>
+    <t>N3 DISTRIBUICAO DE SUPRIMENTO</t>
+  </si>
+  <si>
+    <t>ANJ COMERCIO DE PRODUTOS ALIM</t>
+  </si>
+  <si>
+    <t>UEDAMA COMERCIO DE PRODUTOS A</t>
+  </si>
+  <si>
+    <t>YOUC DISTRIBUIDORA LTDA</t>
+  </si>
+  <si>
+    <t>J &amp; S ALIMENTOS LTDA</t>
+  </si>
+  <si>
+    <t>NOBORU HORTIFRUTI LTDA</t>
+  </si>
+  <si>
+    <t>JT&amp;A SOLUCOES LTDA</t>
+  </si>
+  <si>
+    <t>COMERCIAL MINAS BRASILIA LTDA</t>
+  </si>
+  <si>
+    <t>ANDRACON SERVICOS GERAIS LTDA</t>
+  </si>
+  <si>
+    <t>M&amp;M IMPORTACAO E ECOMMERCE DE</t>
+  </si>
+  <si>
+    <t>ARCANJO TELECOMUNICACOES E IN</t>
+  </si>
+  <si>
+    <t>NOVA ERA TECNOLOGIA LTDA</t>
+  </si>
+  <si>
+    <t>REPREMIG REPRESENTACAO E COME</t>
+  </si>
+  <si>
+    <t>C DO VALE LOPES</t>
+  </si>
+  <si>
+    <t>OKAY TECHNOLOGY COMERCIO DO B</t>
+  </si>
+  <si>
+    <t>BACKUP MANUTENCAO E DISTRIBUI</t>
+  </si>
+  <si>
+    <t>DANIEL TAVARES DE GOES</t>
+  </si>
+  <si>
+    <t>ALPHA ELETRONICOS DO BRASIL L</t>
+  </si>
+  <si>
+    <t>J L PEREIRA ARCHILLA</t>
+  </si>
+  <si>
+    <t>NOVA MIX LTDA</t>
+  </si>
+  <si>
+    <t>PROVISÃO DISTRIBUIDORA E COME</t>
+  </si>
+  <si>
+    <t>GLOBAL DISTRIBUICAO DE BENS D</t>
+  </si>
+  <si>
+    <t>FRIGORIFICO CALAFATE LTDA</t>
+  </si>
+  <si>
+    <t>JVC INDUSTRIA COMERCIO ATACAD</t>
+  </si>
+  <si>
+    <t>JCA COMERCIO DE ALIMENTOS LTD</t>
+  </si>
+  <si>
+    <t>MIRANDA COMERCIO DE ALIMENTOS</t>
+  </si>
+  <si>
+    <t>S J PARAISO CHARQUE LTDA</t>
+  </si>
+  <si>
+    <t>FONTE DE VIDA INDUSTRIA E COM</t>
+  </si>
+  <si>
+    <t>PEIXE DO CAIS COMERCIO DE PES</t>
+  </si>
+  <si>
+    <t>RPR REPRESENTACAO DE PRODUTOS</t>
+  </si>
+  <si>
+    <t>AMV FESTAS &amp; EVENTOS LTDA</t>
+  </si>
+  <si>
     <t>Desentupidora</t>
   </si>
   <si>
@@ -765,186 +1060,6 @@
   </si>
   <si>
     <t>Panificados</t>
-  </si>
-  <si>
-    <t>ERMB</t>
-  </si>
-  <si>
-    <t>Divisão de Controle Patrimonial</t>
-  </si>
-  <si>
-    <t>Seção de Tecnologia da Informação</t>
-  </si>
-  <si>
-    <t>W &amp; E SERVICOS TECNICOS LTDA</t>
-  </si>
-  <si>
-    <t>DEDETIZADORA FOLHA LTDA</t>
-  </si>
-  <si>
-    <t>ART PAPER INDUSTRIA E COMERCI</t>
-  </si>
-  <si>
-    <t>LAZARO BEZERRA SOARES</t>
-  </si>
-  <si>
-    <t>RAFA PAPER DISTRIBUIDORA LTDA</t>
-  </si>
-  <si>
-    <t>DM COMERCIAL IMPORTADORA E EX</t>
-  </si>
-  <si>
-    <t>VS - VIEIRA &amp; SANTOS COMERCIO</t>
-  </si>
-  <si>
-    <t>DAIANE DOS SANTOS MARTINS 133</t>
-  </si>
-  <si>
-    <t>THIAGO CAETANIO DA SILVA 0549</t>
-  </si>
-  <si>
-    <t>ALEGRENSE DISTRIBUIDORA E REP</t>
-  </si>
-  <si>
-    <t>AAZ COMERCIAL LTDA</t>
-  </si>
-  <si>
-    <t>SMART SOLUTIONS - SOLUCOES IN</t>
-  </si>
-  <si>
-    <t>LG COMERCIO E SERVICOS LTDA</t>
-  </si>
-  <si>
-    <t>LER - LIVRARIA E PAPELARIA LT</t>
-  </si>
-  <si>
-    <t>AMAZONAS COMERCIO DE ADESIVOS</t>
-  </si>
-  <si>
-    <t>MAQUITEC MAQUINAS E EQUIPAMEN</t>
-  </si>
-  <si>
-    <t>MARCOS RIBEIRO E CIA LTDA</t>
-  </si>
-  <si>
-    <t>DIRCEU LONGO &amp; CIA LTDA</t>
-  </si>
-  <si>
-    <t>REDNOV FERRAMENTAS LTDA.</t>
-  </si>
-  <si>
-    <t>LOCTRAD LOCACAO E COMERCIO DE</t>
-  </si>
-  <si>
-    <t>DARLU INDUSTRIA TEXTIL LTDA</t>
-  </si>
-  <si>
-    <t>GO VENDAS ELETRONICAS LTDA</t>
-  </si>
-  <si>
-    <t>SUPORTE COMERCIAL ATACADISTA</t>
-  </si>
-  <si>
-    <t>FM COZINHAS PROFISSIONAIS E C</t>
-  </si>
-  <si>
-    <t>RX PROMOCAO DE VENDAS E COMER</t>
-  </si>
-  <si>
-    <t>MAYAS COMERCIAL DE PRODUTOS E</t>
-  </si>
-  <si>
-    <t>N3 DISTRIBUICAO DE SUPRIMENTO</t>
-  </si>
-  <si>
-    <t>ANJ COMERCIO DE PRODUTOS ALIM</t>
-  </si>
-  <si>
-    <t>UEDAMA COMERCIO DE PRODUTOS A</t>
-  </si>
-  <si>
-    <t>YOUC DISTRIBUIDORA LTDA</t>
-  </si>
-  <si>
-    <t>J &amp; S ALIMENTOS LTDA</t>
-  </si>
-  <si>
-    <t>NOBORU HORTIFRUTI LTDA</t>
-  </si>
-  <si>
-    <t>JT&amp;A SOLUCOES LTDA</t>
-  </si>
-  <si>
-    <t>COMERCIAL MINAS BRASILIA LTDA</t>
-  </si>
-  <si>
-    <t>ANDRACON SERVICOS GERAIS LTDA</t>
-  </si>
-  <si>
-    <t>M&amp;M IMPORTACAO E ECOMMERCE DE</t>
-  </si>
-  <si>
-    <t>ARCANJO TELECOMUNICACOES E IN</t>
-  </si>
-  <si>
-    <t>NOVA ERA TECNOLOGIA LTDA</t>
-  </si>
-  <si>
-    <t>REPREMIG REPRESENTACAO E COME</t>
-  </si>
-  <si>
-    <t>C DO VALE LOPES</t>
-  </si>
-  <si>
-    <t>OKAY TECHNOLOGY COMERCIO DO B</t>
-  </si>
-  <si>
-    <t>BACKUP MANUTENCAO E DISTRIBUI</t>
-  </si>
-  <si>
-    <t>DANIEL TAVARES DE GOES</t>
-  </si>
-  <si>
-    <t>ALPHA ELETRONICOS DO BRASIL L</t>
-  </si>
-  <si>
-    <t>J L PEREIRA ARCHILLA</t>
-  </si>
-  <si>
-    <t>NOVA MIX LTDA</t>
-  </si>
-  <si>
-    <t>PROVISÃO DISTRIBUIDORA E COME</t>
-  </si>
-  <si>
-    <t>GLOBAL DISTRIBUICAO DE BENS D</t>
-  </si>
-  <si>
-    <t>FRIGORIFICO CALAFATE LTDA</t>
-  </si>
-  <si>
-    <t>JVC INDUSTRIA COMERCIO ATACAD</t>
-  </si>
-  <si>
-    <t>JCA COMERCIO DE ALIMENTOS LTD</t>
-  </si>
-  <si>
-    <t>MIRANDA COMERCIO DE ALIMENTOS</t>
-  </si>
-  <si>
-    <t>S J PARAISO CHARQUE LTDA</t>
-  </si>
-  <si>
-    <t>FONTE DE VIDA INDUSTRIA E COM</t>
-  </si>
-  <si>
-    <t>PEIXE DO CAIS COMERCIO DE PES</t>
-  </si>
-  <si>
-    <t>RPR REPRESENTACAO DE PRODUTOS</t>
-  </si>
-  <si>
-    <t>AMV FESTAS &amp; EVENTOS LTDA</t>
   </si>
   <si>
     <t>29/03/2024</t>
@@ -1068,6 +1183,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1075,12 +1191,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFADD8E6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -1118,7 +1240,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1421,25 +1543,27 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J44"/>
+  <dimension ref="A1:K44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
     <col min="4" max="4" width="9.7109375" customWidth="1"/>
-    <col min="5" max="6" width="30.7109375" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" customWidth="1"/>
-    <col min="8" max="8" width="5.7109375" customWidth="1"/>
-    <col min="9" max="10" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" customWidth="1"/>
+    <col min="6" max="6" width="30.7109375" customWidth="1"/>
+    <col min="7" max="7" width="25.7109375" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" customWidth="1"/>
+    <col min="9" max="9" width="7.7109375" customWidth="1"/>
+    <col min="10" max="11" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="20" customHeight="1">
+    <row r="1" spans="1:11" ht="20" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>160</v>
+        <v>188</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1450,10 +1574,11 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10" ht="30" customHeight="1">
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" spans="1:11" ht="30" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>161</v>
+        <v>189</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1464,10 +1589,11 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:10" ht="30" customHeight="1">
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" ht="30" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>162</v>
+        <v>190</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1478,10 +1604,11 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="2" t="s">
-        <v>163</v>
+        <v>191</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1492,8 +1619,9 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
@@ -1524,1341 +1652,1461 @@
       <c r="J5" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="K5" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="4">
         <v>1</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="H6" s="4">
-        <v>-7</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>159</v>
+        <v>132</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="I6" s="4">
+        <v>-8</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>187</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="4">
         <v>2</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="H7" s="4">
-        <v>-4</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>159</v>
+        <v>133</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="I7" s="4">
+        <v>-5</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>187</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="4">
         <v>3</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="H8" s="4">
-        <v>7</v>
-      </c>
-      <c r="I8" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="H8" s="4" t="s">
         <v>159</v>
       </c>
+      <c r="I8" s="4">
+        <v>6</v>
+      </c>
       <c r="J8" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>187</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="4">
         <v>4</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="H9" s="4">
-        <v>11</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>159</v>
+      <c r="H9" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="I9" s="4">
+        <v>10</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>187</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="4">
         <v>5</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="H10" s="4">
-        <v>23</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>159</v>
+        <v>134</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="I10" s="4">
+        <v>22</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>187</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="4">
         <v>6</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="H11" s="4">
-        <v>32</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>159</v>
+        <v>135</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="I11" s="4">
+        <v>31</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <v>187</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="4">
         <v>7</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="H12" s="4">
-        <v>48</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>159</v>
+        <v>136</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="I12" s="4">
+        <v>47</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>187</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="4">
         <v>8</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="H13" s="4">
-        <v>60</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>159</v>
+        <v>135</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="I13" s="4">
+        <v>59</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+        <v>187</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="4">
         <v>9</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="H14" s="4">
-        <v>79</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>159</v>
+      <c r="H14" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="I14" s="4">
+        <v>78</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+        <v>187</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="4">
         <v>10</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="H15" s="4">
-        <v>80</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>159</v>
+      <c r="H15" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="I15" s="4">
+        <v>79</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+        <v>187</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="4">
         <v>11</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="H16" s="4">
-        <v>136</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>159</v>
+      <c r="H16" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="I16" s="4">
+        <v>135</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
+        <v>187</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="4">
         <v>12</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="H17" s="4">
-        <v>136</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>159</v>
+        <v>140</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="I17" s="4">
+        <v>135</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
+        <v>187</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="4">
         <v>13</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="H18" s="4">
-        <v>147</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>159</v>
+        <v>141</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="I18" s="4">
+        <v>146</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
+        <v>187</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="4">
         <v>14</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="H19" s="4">
-        <v>147</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>159</v>
+        <v>141</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="I19" s="4">
+        <v>146</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
+        <v>187</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="4">
         <v>15</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="H20" s="4">
-        <v>147</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>159</v>
+        <v>141</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="I20" s="4">
+        <v>146</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
+        <v>187</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="4">
         <v>16</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="H21" s="4">
-        <v>157</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>159</v>
+        <v>142</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="I21" s="4">
+        <v>156</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
+        <v>187</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="4">
         <v>17</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="H22" s="4">
-        <v>162</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>159</v>
+        <v>139</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="I22" s="4">
+        <v>161</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
+        <v>187</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="4">
         <v>18</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="H23" s="4">
-        <v>172</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>159</v>
+        <v>139</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="I23" s="4">
+        <v>171</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
+        <v>187</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="4">
         <v>19</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="H24" s="4">
-        <v>178</v>
-      </c>
-      <c r="I24" s="4" t="s">
-        <v>159</v>
+        <v>143</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="I24" s="4">
+        <v>177</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
+        <v>187</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="4">
         <v>20</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="H25" s="4">
-        <v>224</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>159</v>
+        <v>144</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="I25" s="4">
+        <v>223</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
+        <v>187</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="4">
         <v>21</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="H26" s="4">
-        <v>225</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>159</v>
+        <v>139</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="I26" s="4">
+        <v>224</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
+        <v>187</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="4">
         <v>22</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="H27" s="4">
-        <v>251</v>
-      </c>
-      <c r="I27" s="4" t="s">
-        <v>159</v>
+        <v>145</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="I27" s="4">
+        <v>250</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
+        <v>187</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="4">
         <v>23</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="H28" s="4">
-        <v>258</v>
-      </c>
-      <c r="I28" s="4" t="s">
-        <v>159</v>
+        <v>146</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="I28" s="4">
+        <v>257</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
+        <v>187</v>
+      </c>
+      <c r="K28" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="4">
         <v>24</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="H29" s="4">
-        <v>267</v>
-      </c>
-      <c r="I29" s="4" t="s">
-        <v>159</v>
+        <v>147</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="I29" s="4">
+        <v>266</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
+        <v>187</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="4">
         <v>25</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="H30" s="4">
-        <v>267</v>
-      </c>
-      <c r="I30" s="4" t="s">
-        <v>159</v>
+        <v>147</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="I30" s="4">
+        <v>266</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
+        <v>187</v>
+      </c>
+      <c r="K30" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="4">
         <v>26</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="H31" s="4">
-        <v>273</v>
-      </c>
-      <c r="I31" s="4" t="s">
-        <v>159</v>
+        <v>148</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="I31" s="4">
+        <v>272</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
+        <v>187</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="4">
         <v>27</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="H32" s="4">
-        <v>275</v>
-      </c>
-      <c r="I32" s="4" t="s">
-        <v>159</v>
+        <v>149</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="I32" s="4">
+        <v>274</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
+        <v>187</v>
+      </c>
+      <c r="K32" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="4">
         <v>28</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="H33" s="4">
-        <v>277</v>
-      </c>
-      <c r="I33" s="4" t="s">
-        <v>159</v>
+        <v>150</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="I33" s="4">
+        <v>276</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10">
+        <v>187</v>
+      </c>
+      <c r="K33" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="4">
         <v>29</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="H34" s="4">
-        <v>277</v>
-      </c>
-      <c r="I34" s="4" t="s">
-        <v>159</v>
+        <v>150</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="I34" s="4">
+        <v>276</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10">
+        <v>187</v>
+      </c>
+      <c r="K34" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="4">
         <v>30</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>67</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="H35" s="4">
-        <v>277</v>
-      </c>
-      <c r="I35" s="4" t="s">
-        <v>159</v>
+        <v>150</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="I35" s="4">
+        <v>276</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10">
+        <v>187</v>
+      </c>
+      <c r="K35" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="4">
         <v>31</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="H36" s="4">
-        <v>277</v>
-      </c>
-      <c r="I36" s="4" t="s">
-        <v>159</v>
+        <v>139</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="I36" s="4">
+        <v>276</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10">
+        <v>187</v>
+      </c>
+      <c r="K36" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="4">
         <v>32</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="H37" s="4">
-        <v>280</v>
-      </c>
-      <c r="I37" s="4" t="s">
-        <v>159</v>
+        <v>151</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="I37" s="4">
+        <v>279</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10">
+        <v>187</v>
+      </c>
+      <c r="K37" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="4">
         <v>33</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="H38" s="4">
-        <v>288</v>
-      </c>
-      <c r="I38" s="4" t="s">
-        <v>159</v>
+        <v>152</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="I38" s="4">
+        <v>287</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10">
+        <v>187</v>
+      </c>
+      <c r="K38" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="4">
         <v>34</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="H39" s="4">
-        <v>348</v>
-      </c>
-      <c r="I39" s="4" t="s">
-        <v>159</v>
+        <v>153</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="I39" s="4">
+        <v>347</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10">
+        <v>187</v>
+      </c>
+      <c r="K39" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="4">
         <v>35</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="H40" s="4">
-        <v>348</v>
-      </c>
-      <c r="I40" s="4" t="s">
-        <v>159</v>
+        <v>153</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="I40" s="4">
+        <v>347</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10">
+        <v>187</v>
+      </c>
+      <c r="K40" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="4">
         <v>36</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="H41" s="4">
-        <v>622</v>
-      </c>
-      <c r="I41" s="4" t="s">
-        <v>159</v>
+        <v>154</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="I41" s="4">
+        <v>621</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10">
+        <v>187</v>
+      </c>
+      <c r="K41" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="4">
         <v>37</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="H42" s="4">
-        <v>746</v>
-      </c>
-      <c r="I42" s="4" t="s">
-        <v>159</v>
+        <v>155</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="I42" s="4">
+        <v>745</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10">
+        <v>187</v>
+      </c>
+      <c r="K42" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="4">
         <v>38</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="H43" s="4">
-        <v>746</v>
-      </c>
-      <c r="I43" s="4" t="s">
-        <v>159</v>
+        <v>155</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="I43" s="4">
+        <v>745</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10">
+        <v>187</v>
+      </c>
+      <c r="K43" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="4">
         <v>39</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="H44" s="4">
-        <v>1439</v>
-      </c>
-      <c r="I44" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="I44" s="4">
+        <v>1438</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>159</v>
+        <v>187</v>
+      </c>
+      <c r="K44" s="4" t="s">
+        <v>187</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="I6" r:id="rId1"/>
-    <hyperlink ref="J6" r:id="rId2"/>
-    <hyperlink ref="I7" r:id="rId3"/>
-    <hyperlink ref="J7" r:id="rId4"/>
-    <hyperlink ref="I8" r:id="rId5"/>
-    <hyperlink ref="J8" r:id="rId6"/>
-    <hyperlink ref="I9" r:id="rId7"/>
-    <hyperlink ref="J9" r:id="rId8"/>
-    <hyperlink ref="I10" r:id="rId9"/>
-    <hyperlink ref="J10" r:id="rId10"/>
-    <hyperlink ref="I11" r:id="rId11"/>
-    <hyperlink ref="J11" r:id="rId12"/>
-    <hyperlink ref="I12" r:id="rId13"/>
-    <hyperlink ref="J12" r:id="rId14"/>
-    <hyperlink ref="I13" r:id="rId15"/>
-    <hyperlink ref="J13" r:id="rId16"/>
-    <hyperlink ref="I14" r:id="rId17"/>
-    <hyperlink ref="J14" r:id="rId18"/>
-    <hyperlink ref="I15" r:id="rId19"/>
-    <hyperlink ref="J15" r:id="rId20"/>
-    <hyperlink ref="I16" r:id="rId21"/>
-    <hyperlink ref="J16" r:id="rId22"/>
-    <hyperlink ref="I17" r:id="rId23"/>
-    <hyperlink ref="J17" r:id="rId24"/>
-    <hyperlink ref="I18" r:id="rId25"/>
-    <hyperlink ref="J18" r:id="rId26"/>
-    <hyperlink ref="I19" r:id="rId27"/>
-    <hyperlink ref="J19" r:id="rId28"/>
-    <hyperlink ref="I20" r:id="rId29"/>
-    <hyperlink ref="J20" r:id="rId30"/>
-    <hyperlink ref="I21" r:id="rId31"/>
-    <hyperlink ref="J21" r:id="rId32"/>
-    <hyperlink ref="I22" r:id="rId33"/>
-    <hyperlink ref="J22" r:id="rId34"/>
-    <hyperlink ref="I23" r:id="rId35"/>
-    <hyperlink ref="J23" r:id="rId36"/>
-    <hyperlink ref="I24" r:id="rId37"/>
-    <hyperlink ref="J24" r:id="rId38"/>
-    <hyperlink ref="I25" r:id="rId39"/>
-    <hyperlink ref="J25" r:id="rId40"/>
-    <hyperlink ref="I26" r:id="rId41"/>
-    <hyperlink ref="J26" r:id="rId42"/>
-    <hyperlink ref="I27" r:id="rId43"/>
-    <hyperlink ref="J27" r:id="rId44"/>
-    <hyperlink ref="I28" r:id="rId45"/>
-    <hyperlink ref="J28" r:id="rId46"/>
-    <hyperlink ref="I29" r:id="rId47"/>
-    <hyperlink ref="J29" r:id="rId48"/>
-    <hyperlink ref="I30" r:id="rId49"/>
-    <hyperlink ref="J30" r:id="rId50"/>
-    <hyperlink ref="I31" r:id="rId51"/>
-    <hyperlink ref="J31" r:id="rId52"/>
-    <hyperlink ref="I32" r:id="rId53"/>
-    <hyperlink ref="J32" r:id="rId54"/>
-    <hyperlink ref="I33" r:id="rId55"/>
-    <hyperlink ref="J33" r:id="rId56"/>
-    <hyperlink ref="I34" r:id="rId57"/>
-    <hyperlink ref="J34" r:id="rId58"/>
-    <hyperlink ref="I35" r:id="rId59"/>
-    <hyperlink ref="J35" r:id="rId60"/>
-    <hyperlink ref="I36" r:id="rId61"/>
-    <hyperlink ref="J36" r:id="rId62"/>
-    <hyperlink ref="I37" r:id="rId63"/>
-    <hyperlink ref="J37" r:id="rId64"/>
-    <hyperlink ref="I38" r:id="rId65"/>
-    <hyperlink ref="J38" r:id="rId66"/>
-    <hyperlink ref="I39" r:id="rId67"/>
-    <hyperlink ref="J39" r:id="rId68"/>
-    <hyperlink ref="I40" r:id="rId69"/>
-    <hyperlink ref="J40" r:id="rId70"/>
-    <hyperlink ref="I41" r:id="rId71"/>
-    <hyperlink ref="J41" r:id="rId72"/>
-    <hyperlink ref="I42" r:id="rId73"/>
-    <hyperlink ref="J42" r:id="rId74"/>
-    <hyperlink ref="I43" r:id="rId75"/>
-    <hyperlink ref="J43" r:id="rId76"/>
-    <hyperlink ref="I44" r:id="rId77"/>
-    <hyperlink ref="J44" r:id="rId78"/>
+    <hyperlink ref="J6" r:id="rId1"/>
+    <hyperlink ref="K6" r:id="rId2"/>
+    <hyperlink ref="J7" r:id="rId3"/>
+    <hyperlink ref="K7" r:id="rId4"/>
+    <hyperlink ref="J8" r:id="rId5"/>
+    <hyperlink ref="K8" r:id="rId6"/>
+    <hyperlink ref="J9" r:id="rId7"/>
+    <hyperlink ref="K9" r:id="rId8"/>
+    <hyperlink ref="J10" r:id="rId9"/>
+    <hyperlink ref="K10" r:id="rId10"/>
+    <hyperlink ref="J11" r:id="rId11"/>
+    <hyperlink ref="K11" r:id="rId12"/>
+    <hyperlink ref="J12" r:id="rId13"/>
+    <hyperlink ref="K12" r:id="rId14"/>
+    <hyperlink ref="J13" r:id="rId15"/>
+    <hyperlink ref="K13" r:id="rId16"/>
+    <hyperlink ref="J14" r:id="rId17"/>
+    <hyperlink ref="K14" r:id="rId18"/>
+    <hyperlink ref="J15" r:id="rId19"/>
+    <hyperlink ref="K15" r:id="rId20"/>
+    <hyperlink ref="J16" r:id="rId21"/>
+    <hyperlink ref="K16" r:id="rId22"/>
+    <hyperlink ref="J17" r:id="rId23"/>
+    <hyperlink ref="K17" r:id="rId24"/>
+    <hyperlink ref="J18" r:id="rId25"/>
+    <hyperlink ref="K18" r:id="rId26"/>
+    <hyperlink ref="J19" r:id="rId27"/>
+    <hyperlink ref="K19" r:id="rId28"/>
+    <hyperlink ref="J20" r:id="rId29"/>
+    <hyperlink ref="K20" r:id="rId30"/>
+    <hyperlink ref="J21" r:id="rId31"/>
+    <hyperlink ref="K21" r:id="rId32"/>
+    <hyperlink ref="J22" r:id="rId33"/>
+    <hyperlink ref="K22" r:id="rId34"/>
+    <hyperlink ref="J23" r:id="rId35"/>
+    <hyperlink ref="K23" r:id="rId36"/>
+    <hyperlink ref="J24" r:id="rId37"/>
+    <hyperlink ref="K24" r:id="rId38"/>
+    <hyperlink ref="J25" r:id="rId39"/>
+    <hyperlink ref="K25" r:id="rId40"/>
+    <hyperlink ref="J26" r:id="rId41"/>
+    <hyperlink ref="K26" r:id="rId42"/>
+    <hyperlink ref="J27" r:id="rId43"/>
+    <hyperlink ref="K27" r:id="rId44"/>
+    <hyperlink ref="J28" r:id="rId45"/>
+    <hyperlink ref="K28" r:id="rId46"/>
+    <hyperlink ref="J29" r:id="rId47"/>
+    <hyperlink ref="K29" r:id="rId48"/>
+    <hyperlink ref="J30" r:id="rId49"/>
+    <hyperlink ref="K30" r:id="rId50"/>
+    <hyperlink ref="J31" r:id="rId51"/>
+    <hyperlink ref="K31" r:id="rId52"/>
+    <hyperlink ref="J32" r:id="rId53"/>
+    <hyperlink ref="K32" r:id="rId54"/>
+    <hyperlink ref="J33" r:id="rId55"/>
+    <hyperlink ref="K33" r:id="rId56"/>
+    <hyperlink ref="J34" r:id="rId57"/>
+    <hyperlink ref="K34" r:id="rId58"/>
+    <hyperlink ref="J35" r:id="rId59"/>
+    <hyperlink ref="K35" r:id="rId60"/>
+    <hyperlink ref="J36" r:id="rId61"/>
+    <hyperlink ref="K36" r:id="rId62"/>
+    <hyperlink ref="J37" r:id="rId63"/>
+    <hyperlink ref="K37" r:id="rId64"/>
+    <hyperlink ref="J38" r:id="rId65"/>
+    <hyperlink ref="K38" r:id="rId66"/>
+    <hyperlink ref="J39" r:id="rId67"/>
+    <hyperlink ref="K39" r:id="rId68"/>
+    <hyperlink ref="J40" r:id="rId69"/>
+    <hyperlink ref="K40" r:id="rId70"/>
+    <hyperlink ref="J41" r:id="rId71"/>
+    <hyperlink ref="K41" r:id="rId72"/>
+    <hyperlink ref="J42" r:id="rId73"/>
+    <hyperlink ref="K42" r:id="rId74"/>
+    <hyperlink ref="J43" r:id="rId75"/>
+    <hyperlink ref="K43" r:id="rId76"/>
+    <hyperlink ref="J44" r:id="rId77"/>
+    <hyperlink ref="K44" r:id="rId78"/>
   </hyperlinks>
   <pageMargins left="0" right="0" top="0" bottom="0.7" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape"/>
@@ -2870,25 +3118,27 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J78"/>
+  <dimension ref="A1:K78"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
     <col min="4" max="4" width="9.7109375" customWidth="1"/>
-    <col min="5" max="6" width="30.7109375" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" customWidth="1"/>
-    <col min="8" max="8" width="5.7109375" customWidth="1"/>
-    <col min="9" max="10" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" customWidth="1"/>
+    <col min="6" max="6" width="30.7109375" customWidth="1"/>
+    <col min="7" max="7" width="25.7109375" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" customWidth="1"/>
+    <col min="9" max="9" width="7.7109375" customWidth="1"/>
+    <col min="10" max="11" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="20" customHeight="1">
+    <row r="1" spans="1:11" ht="20" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>160</v>
+        <v>188</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2899,10 +3149,11 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10" ht="30" customHeight="1">
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" spans="1:11" ht="30" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>161</v>
+        <v>189</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -2913,10 +3164,11 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:10" ht="30" customHeight="1">
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" ht="30" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>337</v>
+        <v>375</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2927,10 +3179,11 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="2" t="s">
-        <v>163</v>
+        <v>191</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -2941,16 +3194,17 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>164</v>
+        <v>1</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>2</v>
+        <v>192</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>3</v>
@@ -2973,1000 +3227,1096 @@
       <c r="J5" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="K5" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="4">
         <v>1</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>165</v>
+        <v>193</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>238</v>
+        <v>203</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>253</v>
+        <v>279</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="H6" s="4">
-        <v>22</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>159</v>
+        <v>336</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="I6" s="4">
+        <v>21</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>187</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="4">
         <v>2</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>239</v>
+        <v>204</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>254</v>
+        <v>280</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="H7" s="4">
-        <v>22</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>159</v>
+        <v>337</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="I7" s="4">
+        <v>21</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>187</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="4">
         <v>3</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>167</v>
+        <v>194</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>240</v>
+        <v>205</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>255</v>
+        <v>281</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="H8" s="4">
-        <v>35</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>159</v>
+        <v>338</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="I8" s="4">
+        <v>34</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>187</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="4">
         <v>4</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>168</v>
+        <v>194</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>240</v>
+        <v>206</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>256</v>
+        <v>282</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="H9" s="4">
-        <v>69</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>159</v>
+        <v>338</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="I9" s="4">
+        <v>68</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>187</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="4">
         <v>5</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>240</v>
+        <v>207</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>257</v>
+        <v>283</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="H10" s="4">
-        <v>69</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>159</v>
+        <v>338</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="I10" s="4">
+        <v>68</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>187</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="4">
         <v>6</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>240</v>
+        <v>208</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>258</v>
+        <v>284</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="H11" s="4">
-        <v>69</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>159</v>
+        <v>338</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="I11" s="4">
+        <v>68</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <v>187</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="4">
         <v>7</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>240</v>
+        <v>209</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>259</v>
+        <v>285</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="H12" s="4">
-        <v>69</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>159</v>
+        <v>338</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="I12" s="4">
+        <v>68</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>187</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="4">
         <v>8</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>172</v>
+        <v>194</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>240</v>
+        <v>210</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>260</v>
+        <v>286</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="H13" s="4">
-        <v>69</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>159</v>
+        <v>338</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="I13" s="4">
+        <v>68</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+        <v>187</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="4">
         <v>9</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>173</v>
+        <v>194</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>240</v>
+        <v>211</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>261</v>
+        <v>287</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="H14" s="4">
-        <v>69</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>159</v>
+        <v>338</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="I14" s="4">
+        <v>68</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+        <v>187</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="4">
         <v>10</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>240</v>
+        <v>212</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>262</v>
+        <v>288</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="H15" s="4">
-        <v>69</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>159</v>
+        <v>338</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="I15" s="4">
+        <v>68</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+        <v>187</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="4">
         <v>11</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>240</v>
+        <v>213</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>263</v>
+        <v>289</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="H16" s="4">
-        <v>69</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>159</v>
+        <v>338</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="I16" s="4">
+        <v>68</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
+        <v>187</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="4">
         <v>12</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>240</v>
+        <v>214</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>264</v>
+        <v>290</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="H17" s="4">
-        <v>69</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>159</v>
+        <v>338</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="I17" s="4">
+        <v>68</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
+        <v>187</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="4">
         <v>13</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>240</v>
+        <v>215</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>265</v>
+        <v>291</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="H18" s="4">
-        <v>70</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>159</v>
+        <v>338</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="I18" s="4">
+        <v>69</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
+        <v>187</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="4">
         <v>14</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>240</v>
+        <v>216</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>266</v>
+        <v>292</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="H19" s="4">
-        <v>70</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>159</v>
+        <v>338</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="I19" s="4">
+        <v>69</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
+        <v>187</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="4">
         <v>15</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>240</v>
+        <v>217</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>267</v>
+        <v>293</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="H20" s="4">
-        <v>71</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>159</v>
+        <v>338</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="I20" s="4">
+        <v>70</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
+        <v>187</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="4">
         <v>16</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>180</v>
+        <v>18</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>55</v>
+        <v>218</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>268</v>
+        <v>294</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="H21" s="4">
-        <v>76</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>159</v>
+        <v>138</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="I21" s="4">
+        <v>75</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
+        <v>187</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="4">
         <v>17</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>181</v>
+        <v>35</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="H22" s="4">
-        <v>80</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>159</v>
+        <v>339</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="I22" s="4">
+        <v>79</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
+        <v>187</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="4">
         <v>18</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>182</v>
+        <v>18</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>55</v>
+        <v>220</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>269</v>
+        <v>295</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="H23" s="4">
-        <v>92</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>159</v>
+        <v>138</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="I23" s="4">
+        <v>91</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
+        <v>187</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="4">
         <v>19</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>183</v>
+        <v>18</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>55</v>
+        <v>221</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>270</v>
+        <v>296</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="H24" s="4">
-        <v>92</v>
-      </c>
-      <c r="I24" s="4" t="s">
-        <v>159</v>
+        <v>138</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="I24" s="4">
+        <v>91</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
+        <v>187</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="4">
         <v>20</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>184</v>
+        <v>18</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>55</v>
+        <v>222</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>271</v>
+        <v>297</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="H25" s="4">
-        <v>92</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>159</v>
+        <v>138</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="I25" s="4">
+        <v>91</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
+        <v>187</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="4">
         <v>21</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>185</v>
+        <v>18</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>55</v>
+        <v>223</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>272</v>
+        <v>298</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="H26" s="4">
-        <v>92</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>159</v>
+        <v>138</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="I26" s="4">
+        <v>91</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
+        <v>187</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="4">
         <v>22</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>186</v>
+        <v>18</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>55</v>
+        <v>224</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>273</v>
+        <v>299</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="H27" s="4">
-        <v>92</v>
-      </c>
-      <c r="I27" s="4" t="s">
-        <v>159</v>
+        <v>138</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="I27" s="4">
+        <v>91</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
+        <v>187</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="4">
         <v>23</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>187</v>
+        <v>18</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>55</v>
+        <v>225</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>274</v>
+        <v>300</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="H28" s="4">
-        <v>92</v>
-      </c>
-      <c r="I28" s="4" t="s">
-        <v>159</v>
+        <v>138</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="I28" s="4">
+        <v>91</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
+        <v>187</v>
+      </c>
+      <c r="K28" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="4">
         <v>24</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>188</v>
+        <v>18</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>55</v>
+        <v>226</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>275</v>
+        <v>301</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="H29" s="4">
-        <v>92</v>
-      </c>
-      <c r="I29" s="4" t="s">
-        <v>159</v>
+        <v>138</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="I29" s="4">
+        <v>91</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
+        <v>187</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="4">
         <v>25</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>189</v>
+        <v>18</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>55</v>
+        <v>227</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>276</v>
+        <v>302</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="H30" s="4">
-        <v>92</v>
-      </c>
-      <c r="I30" s="4" t="s">
-        <v>159</v>
+        <v>138</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="I30" s="4">
+        <v>91</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
+        <v>187</v>
+      </c>
+      <c r="K30" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="4">
         <v>26</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="H31" s="4">
-        <v>97</v>
-      </c>
-      <c r="I31" s="4" t="s">
-        <v>159</v>
+        <v>338</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="I31" s="4">
+        <v>96</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
+        <v>187</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="4">
         <v>27</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>55</v>
+        <v>229</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>278</v>
+        <v>304</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="H32" s="4">
-        <v>100</v>
-      </c>
-      <c r="I32" s="4" t="s">
-        <v>159</v>
+        <v>138</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="I32" s="4">
+        <v>99</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
+        <v>187</v>
+      </c>
+      <c r="K32" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="4">
         <v>28</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>279</v>
+        <v>305</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="H33" s="4">
-        <v>107</v>
-      </c>
-      <c r="I33" s="4" t="s">
-        <v>159</v>
+        <v>340</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="I33" s="4">
+        <v>106</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10">
+        <v>187</v>
+      </c>
+      <c r="K33" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="4">
         <v>29</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>280</v>
+        <v>306</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="H34" s="4">
-        <v>107</v>
-      </c>
-      <c r="I34" s="4" t="s">
-        <v>159</v>
+        <v>340</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="I34" s="4">
+        <v>106</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10">
+        <v>187</v>
+      </c>
+      <c r="K34" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="4">
         <v>30</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>281</v>
+        <v>307</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="H35" s="4">
-        <v>107</v>
-      </c>
-      <c r="I35" s="4" t="s">
-        <v>159</v>
+        <v>340</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="I35" s="4">
+        <v>106</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10">
+        <v>187</v>
+      </c>
+      <c r="K35" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="4">
         <v>31</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>282</v>
+        <v>308</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="H36" s="4">
-        <v>107</v>
-      </c>
-      <c r="I36" s="4" t="s">
-        <v>159</v>
+        <v>340</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="I36" s="4">
+        <v>106</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10">
+        <v>187</v>
+      </c>
+      <c r="K36" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="4">
         <v>32</v>
       </c>
@@ -3974,1496 +4324,1622 @@
         <v>196</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>283</v>
+        <v>309</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="H37" s="4">
-        <v>126</v>
-      </c>
-      <c r="I37" s="4" t="s">
-        <v>159</v>
+        <v>341</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="I37" s="4">
+        <v>125</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10">
+        <v>187</v>
+      </c>
+      <c r="K37" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="4">
         <v>33</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>284</v>
+        <v>310</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="H38" s="4">
-        <v>126</v>
-      </c>
-      <c r="I38" s="4" t="s">
-        <v>159</v>
+        <v>341</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="I38" s="4">
+        <v>125</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10">
+        <v>187</v>
+      </c>
+      <c r="K38" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="4">
         <v>34</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>285</v>
+        <v>311</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="H39" s="4">
-        <v>126</v>
-      </c>
-      <c r="I39" s="4" t="s">
-        <v>159</v>
+        <v>341</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="I39" s="4">
+        <v>125</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10">
+        <v>187</v>
+      </c>
+      <c r="K39" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="4">
         <v>35</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>286</v>
+        <v>312</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="H40" s="4">
-        <v>126</v>
-      </c>
-      <c r="I40" s="4" t="s">
-        <v>159</v>
+        <v>341</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="I40" s="4">
+        <v>125</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10">
+        <v>187</v>
+      </c>
+      <c r="K40" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="4">
         <v>36</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>278</v>
+        <v>304</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="H41" s="4">
-        <v>135</v>
-      </c>
-      <c r="I41" s="4" t="s">
-        <v>159</v>
+        <v>341</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="I41" s="4">
+        <v>134</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10">
+        <v>187</v>
+      </c>
+      <c r="K41" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="4">
         <v>37</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>281</v>
+        <v>307</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="H42" s="4">
-        <v>135</v>
-      </c>
-      <c r="I42" s="4" t="s">
-        <v>159</v>
+        <v>341</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="I42" s="4">
+        <v>134</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10">
+        <v>187</v>
+      </c>
+      <c r="K42" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="4">
         <v>38</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>287</v>
+        <v>313</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="H43" s="4">
-        <v>150</v>
-      </c>
-      <c r="I43" s="4" t="s">
-        <v>159</v>
+        <v>342</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="I43" s="4">
+        <v>149</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10">
+        <v>187</v>
+      </c>
+      <c r="K43" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="4">
         <v>39</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>203</v>
+        <v>22</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>59</v>
+        <v>241</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="H44" s="4">
-        <v>157</v>
-      </c>
-      <c r="I44" s="4" t="s">
-        <v>159</v>
+        <v>142</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="I44" s="4">
+        <v>156</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10">
+        <v>187</v>
+      </c>
+      <c r="K44" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="4">
         <v>40</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>204</v>
+        <v>25</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>62</v>
+        <v>242</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>288</v>
+        <v>314</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="H45" s="4">
-        <v>174</v>
-      </c>
-      <c r="I45" s="4" t="s">
-        <v>159</v>
+        <v>145</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="I45" s="4">
+        <v>173</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10">
+        <v>187</v>
+      </c>
+      <c r="K45" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="4">
         <v>41</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>205</v>
+        <v>25</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>62</v>
+        <v>243</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>289</v>
+        <v>315</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="H46" s="4">
-        <v>174</v>
-      </c>
-      <c r="I46" s="4" t="s">
-        <v>159</v>
+        <v>145</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="I46" s="4">
+        <v>173</v>
       </c>
       <c r="J46" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10">
+        <v>187</v>
+      </c>
+      <c r="K46" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="4">
         <v>42</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>206</v>
+        <v>25</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>62</v>
+        <v>244</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>290</v>
+        <v>316</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="H47" s="4">
-        <v>174</v>
-      </c>
-      <c r="I47" s="4" t="s">
-        <v>159</v>
+        <v>145</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="I47" s="4">
+        <v>173</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10">
+        <v>187</v>
+      </c>
+      <c r="K47" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="4">
         <v>43</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>207</v>
+        <v>25</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>62</v>
+        <v>245</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="H48" s="4">
-        <v>174</v>
-      </c>
-      <c r="I48" s="4" t="s">
-        <v>159</v>
+        <v>145</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="I48" s="4">
+        <v>173</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10">
+        <v>187</v>
+      </c>
+      <c r="K48" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="4">
         <v>44</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>208</v>
+        <v>25</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>62</v>
+        <v>246</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>252</v>
+        <v>278</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>292</v>
+        <v>318</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="H49" s="4">
-        <v>174</v>
-      </c>
-      <c r="I49" s="4" t="s">
-        <v>159</v>
+        <v>145</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="I49" s="4">
+        <v>173</v>
       </c>
       <c r="J49" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10">
+        <v>187</v>
+      </c>
+      <c r="K49" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="4">
         <v>45</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>209</v>
+        <v>25</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>62</v>
+        <v>247</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="H50" s="4">
-        <v>188</v>
-      </c>
-      <c r="I50" s="4" t="s">
-        <v>159</v>
+        <v>145</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="I50" s="4">
+        <v>187</v>
       </c>
       <c r="J50" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10">
+        <v>187</v>
+      </c>
+      <c r="K50" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="4">
         <v>46</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>210</v>
+        <v>25</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>62</v>
+        <v>248</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>293</v>
+        <v>319</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="H51" s="4">
-        <v>190</v>
-      </c>
-      <c r="I51" s="4" t="s">
-        <v>159</v>
+        <v>145</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="I51" s="4">
+        <v>189</v>
       </c>
       <c r="J51" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10">
+        <v>187</v>
+      </c>
+      <c r="K51" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="4">
         <v>47</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>211</v>
+        <v>25</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>62</v>
+        <v>249</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>294</v>
+        <v>320</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="H52" s="4">
-        <v>190</v>
-      </c>
-      <c r="I52" s="4" t="s">
-        <v>159</v>
+        <v>145</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="I52" s="4">
+        <v>189</v>
       </c>
       <c r="J52" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10">
+        <v>187</v>
+      </c>
+      <c r="K52" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="4">
         <v>48</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>212</v>
+        <v>25</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>62</v>
+        <v>250</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>295</v>
+        <v>321</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="H53" s="4">
-        <v>192</v>
-      </c>
-      <c r="I53" s="4" t="s">
-        <v>159</v>
+        <v>145</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="I53" s="4">
+        <v>191</v>
       </c>
       <c r="J53" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10">
+        <v>187</v>
+      </c>
+      <c r="K53" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="4">
         <v>49</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>213</v>
+        <v>25</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>62</v>
+        <v>251</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>296</v>
+        <v>322</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="H54" s="4">
-        <v>192</v>
-      </c>
-      <c r="I54" s="4" t="s">
-        <v>159</v>
+        <v>145</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="I54" s="4">
+        <v>191</v>
       </c>
       <c r="J54" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10">
+        <v>187</v>
+      </c>
+      <c r="K54" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="4">
         <v>50</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>214</v>
+        <v>25</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>62</v>
+        <v>252</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>297</v>
+        <v>323</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="H55" s="4">
-        <v>192</v>
-      </c>
-      <c r="I55" s="4" t="s">
-        <v>159</v>
+        <v>145</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="I55" s="4">
+        <v>191</v>
       </c>
       <c r="J55" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10">
+        <v>187</v>
+      </c>
+      <c r="K55" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="4">
         <v>51</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>215</v>
+        <v>25</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>62</v>
+        <v>253</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>298</v>
+        <v>324</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="H56" s="4">
-        <v>196</v>
-      </c>
-      <c r="I56" s="4" t="s">
-        <v>159</v>
+        <v>145</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="I56" s="4">
+        <v>195</v>
       </c>
       <c r="J56" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10">
+        <v>187</v>
+      </c>
+      <c r="K56" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="4">
         <v>52</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>250</v>
+        <v>276</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>299</v>
+        <v>325</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="H57" s="4">
-        <v>248</v>
-      </c>
-      <c r="I57" s="4" t="s">
-        <v>159</v>
+        <v>343</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="I57" s="4">
+        <v>247</v>
       </c>
       <c r="J57" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10">
+        <v>187</v>
+      </c>
+      <c r="K57" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="4">
         <v>53</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>62</v>
+        <v>255</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>300</v>
+        <v>326</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="H58" s="4">
-        <v>252</v>
-      </c>
-      <c r="I58" s="4" t="s">
-        <v>159</v>
+        <v>145</v>
+      </c>
+      <c r="H58" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="I58" s="4">
+        <v>251</v>
       </c>
       <c r="J58" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10">
+        <v>187</v>
+      </c>
+      <c r="K58" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="4">
         <v>54</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>301</v>
+        <v>327</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="H59" s="4">
-        <v>265</v>
-      </c>
-      <c r="I59" s="4" t="s">
-        <v>159</v>
+        <v>344</v>
+      </c>
+      <c r="H59" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="I59" s="4">
+        <v>264</v>
       </c>
       <c r="J59" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10">
+        <v>187</v>
+      </c>
+      <c r="K59" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="4">
         <v>55</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>302</v>
+        <v>328</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="H60" s="4">
-        <v>265</v>
-      </c>
-      <c r="I60" s="4" t="s">
-        <v>159</v>
+        <v>344</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="I60" s="4">
+        <v>264</v>
       </c>
       <c r="J60" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10">
+        <v>187</v>
+      </c>
+      <c r="K60" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="4">
         <v>56</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>303</v>
+        <v>329</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="H61" s="4">
-        <v>265</v>
-      </c>
-      <c r="I61" s="4" t="s">
-        <v>159</v>
+        <v>344</v>
+      </c>
+      <c r="H61" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="I61" s="4">
+        <v>264</v>
       </c>
       <c r="J61" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10">
+        <v>187</v>
+      </c>
+      <c r="K61" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="4">
         <v>57</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>221</v>
+        <v>201</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>304</v>
+        <v>330</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="H62" s="4">
-        <v>265</v>
-      </c>
-      <c r="I62" s="4" t="s">
-        <v>159</v>
+        <v>344</v>
+      </c>
+      <c r="H62" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="I62" s="4">
+        <v>264</v>
       </c>
       <c r="J62" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10">
+        <v>187</v>
+      </c>
+      <c r="K62" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="4">
         <v>58</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>222</v>
+        <v>201</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>305</v>
+        <v>331</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="H63" s="4">
-        <v>265</v>
-      </c>
-      <c r="I63" s="4" t="s">
-        <v>159</v>
+        <v>344</v>
+      </c>
+      <c r="H63" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="I63" s="4">
+        <v>264</v>
       </c>
       <c r="J63" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10">
+        <v>187</v>
+      </c>
+      <c r="K63" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="4">
         <v>59</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>306</v>
+        <v>332</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="H64" s="4">
-        <v>265</v>
-      </c>
-      <c r="I64" s="4" t="s">
-        <v>159</v>
+        <v>344</v>
+      </c>
+      <c r="H64" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="I64" s="4">
+        <v>264</v>
       </c>
       <c r="J64" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10">
+        <v>187</v>
+      </c>
+      <c r="K64" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="4">
         <v>60</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>224</v>
+        <v>201</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>307</v>
+        <v>333</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="H65" s="4">
-        <v>265</v>
-      </c>
-      <c r="I65" s="4" t="s">
-        <v>159</v>
+        <v>344</v>
+      </c>
+      <c r="H65" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="I65" s="4">
+        <v>264</v>
       </c>
       <c r="J65" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10">
+        <v>187</v>
+      </c>
+      <c r="K65" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="4">
         <v>61</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>225</v>
+        <v>201</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>246</v>
+        <v>263</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>279</v>
+        <v>305</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="H66" s="4">
-        <v>268</v>
-      </c>
-      <c r="I66" s="4" t="s">
-        <v>159</v>
+        <v>344</v>
+      </c>
+      <c r="H66" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="I66" s="4">
+        <v>267</v>
       </c>
       <c r="J66" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10">
+        <v>187</v>
+      </c>
+      <c r="K66" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="4">
         <v>62</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>226</v>
+        <v>201</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>246</v>
+        <v>264</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>303</v>
+        <v>329</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="H67" s="4">
-        <v>268</v>
-      </c>
-      <c r="I67" s="4" t="s">
-        <v>159</v>
+        <v>344</v>
+      </c>
+      <c r="H67" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="I67" s="4">
+        <v>267</v>
       </c>
       <c r="J67" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10">
+        <v>187</v>
+      </c>
+      <c r="K67" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="4">
         <v>63</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>227</v>
+        <v>201</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>246</v>
+        <v>265</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>286</v>
+        <v>312</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="H68" s="4">
-        <v>268</v>
-      </c>
-      <c r="I68" s="4" t="s">
-        <v>159</v>
+        <v>344</v>
+      </c>
+      <c r="H68" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="I68" s="4">
+        <v>267</v>
       </c>
       <c r="J68" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10">
+        <v>187</v>
+      </c>
+      <c r="K68" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="4">
         <v>64</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>228</v>
+        <v>201</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>246</v>
+        <v>266</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>302</v>
+        <v>328</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="H69" s="4">
-        <v>268</v>
-      </c>
-      <c r="I69" s="4" t="s">
-        <v>159</v>
+        <v>344</v>
+      </c>
+      <c r="H69" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="I69" s="4">
+        <v>267</v>
       </c>
       <c r="J69" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10">
+        <v>187</v>
+      </c>
+      <c r="K69" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="4">
         <v>65</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>229</v>
+        <v>201</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>247</v>
+        <v>267</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>282</v>
+        <v>308</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="H70" s="4">
-        <v>275</v>
-      </c>
-      <c r="I70" s="4" t="s">
-        <v>159</v>
+        <v>345</v>
+      </c>
+      <c r="H70" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="I70" s="4">
+        <v>274</v>
       </c>
       <c r="J70" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10">
+        <v>187</v>
+      </c>
+      <c r="K70" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="4">
         <v>66</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>230</v>
+        <v>201</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>246</v>
+        <v>268</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>303</v>
+        <v>329</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="H71" s="4">
-        <v>282</v>
-      </c>
-      <c r="I71" s="4" t="s">
-        <v>159</v>
+        <v>344</v>
+      </c>
+      <c r="H71" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="I71" s="4">
+        <v>281</v>
       </c>
       <c r="J71" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10">
+        <v>187</v>
+      </c>
+      <c r="K71" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="4">
         <v>67</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>231</v>
+        <v>201</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>246</v>
+        <v>269</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>301</v>
+        <v>327</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="H72" s="4">
-        <v>282</v>
-      </c>
-      <c r="I72" s="4" t="s">
-        <v>159</v>
+        <v>344</v>
+      </c>
+      <c r="H72" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="I72" s="4">
+        <v>281</v>
       </c>
       <c r="J72" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10">
+        <v>187</v>
+      </c>
+      <c r="K72" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="4">
         <v>68</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>232</v>
+        <v>201</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>246</v>
+        <v>270</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>286</v>
+        <v>312</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="H73" s="4">
-        <v>282</v>
-      </c>
-      <c r="I73" s="4" t="s">
-        <v>159</v>
+        <v>344</v>
+      </c>
+      <c r="H73" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="I73" s="4">
+        <v>281</v>
       </c>
       <c r="J73" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10">
+        <v>187</v>
+      </c>
+      <c r="K73" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="4">
         <v>69</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>233</v>
+        <v>201</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>246</v>
+        <v>271</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>307</v>
+        <v>333</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="H74" s="4">
-        <v>286</v>
-      </c>
-      <c r="I74" s="4" t="s">
-        <v>159</v>
+        <v>344</v>
+      </c>
+      <c r="H74" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="I74" s="4">
+        <v>285</v>
       </c>
       <c r="J74" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10">
+        <v>187</v>
+      </c>
+      <c r="K74" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="4">
         <v>70</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>234</v>
+        <v>201</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>246</v>
+        <v>272</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>308</v>
+        <v>334</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="H75" s="4">
-        <v>287</v>
-      </c>
-      <c r="I75" s="4" t="s">
-        <v>159</v>
+        <v>344</v>
+      </c>
+      <c r="H75" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="I75" s="4">
+        <v>286</v>
       </c>
       <c r="J75" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10">
+        <v>187</v>
+      </c>
+      <c r="K75" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="4">
         <v>71</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>235</v>
+        <v>202</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>248</v>
+        <v>273</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>309</v>
+        <v>335</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="H76" s="4">
-        <v>325</v>
-      </c>
-      <c r="I76" s="4" t="s">
-        <v>159</v>
+        <v>346</v>
+      </c>
+      <c r="H76" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="I76" s="4">
+        <v>324</v>
       </c>
       <c r="J76" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10">
+        <v>187</v>
+      </c>
+      <c r="K76" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="4">
         <v>72</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>236</v>
+        <v>26</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>249</v>
+        <v>274</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>286</v>
+        <v>312</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="H77" s="4">
-        <v>325</v>
-      </c>
-      <c r="I77" s="4" t="s">
-        <v>159</v>
+        <v>347</v>
+      </c>
+      <c r="H77" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="I77" s="4">
+        <v>324</v>
       </c>
       <c r="J77" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10">
+        <v>187</v>
+      </c>
+      <c r="K77" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="4">
         <v>73</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>237</v>
+        <v>26</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>249</v>
+        <v>275</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>281</v>
+        <v>307</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="H78" s="4">
-        <v>353</v>
-      </c>
-      <c r="I78" s="4" t="s">
-        <v>159</v>
+        <v>347</v>
+      </c>
+      <c r="H78" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="I78" s="4">
+        <v>352</v>
       </c>
       <c r="J78" s="4" t="s">
-        <v>159</v>
+        <v>187</v>
+      </c>
+      <c r="K78" s="4" t="s">
+        <v>187</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="I6" r:id="rId1"/>
-    <hyperlink ref="J6" r:id="rId2"/>
-    <hyperlink ref="I7" r:id="rId3"/>
-    <hyperlink ref="J7" r:id="rId4"/>
-    <hyperlink ref="I8" r:id="rId5"/>
-    <hyperlink ref="J8" r:id="rId6"/>
-    <hyperlink ref="I9" r:id="rId7"/>
-    <hyperlink ref="J9" r:id="rId8"/>
-    <hyperlink ref="I10" r:id="rId9"/>
-    <hyperlink ref="J10" r:id="rId10"/>
-    <hyperlink ref="I11" r:id="rId11"/>
-    <hyperlink ref="J11" r:id="rId12"/>
-    <hyperlink ref="I12" r:id="rId13"/>
-    <hyperlink ref="J12" r:id="rId14"/>
-    <hyperlink ref="I13" r:id="rId15"/>
-    <hyperlink ref="J13" r:id="rId16"/>
-    <hyperlink ref="I14" r:id="rId17"/>
-    <hyperlink ref="J14" r:id="rId18"/>
-    <hyperlink ref="I15" r:id="rId19"/>
-    <hyperlink ref="J15" r:id="rId20"/>
-    <hyperlink ref="I16" r:id="rId21"/>
-    <hyperlink ref="J16" r:id="rId22"/>
-    <hyperlink ref="I17" r:id="rId23"/>
-    <hyperlink ref="J17" r:id="rId24"/>
-    <hyperlink ref="I18" r:id="rId25"/>
-    <hyperlink ref="J18" r:id="rId26"/>
-    <hyperlink ref="I19" r:id="rId27"/>
-    <hyperlink ref="J19" r:id="rId28"/>
-    <hyperlink ref="I20" r:id="rId29"/>
-    <hyperlink ref="J20" r:id="rId30"/>
-    <hyperlink ref="I21" r:id="rId31"/>
-    <hyperlink ref="J21" r:id="rId32"/>
-    <hyperlink ref="I22" r:id="rId33"/>
-    <hyperlink ref="J22" r:id="rId34"/>
-    <hyperlink ref="I23" r:id="rId35"/>
-    <hyperlink ref="J23" r:id="rId36"/>
-    <hyperlink ref="I24" r:id="rId37"/>
-    <hyperlink ref="J24" r:id="rId38"/>
-    <hyperlink ref="I25" r:id="rId39"/>
-    <hyperlink ref="J25" r:id="rId40"/>
-    <hyperlink ref="I26" r:id="rId41"/>
-    <hyperlink ref="J26" r:id="rId42"/>
-    <hyperlink ref="I27" r:id="rId43"/>
-    <hyperlink ref="J27" r:id="rId44"/>
-    <hyperlink ref="I28" r:id="rId45"/>
-    <hyperlink ref="J28" r:id="rId46"/>
-    <hyperlink ref="I29" r:id="rId47"/>
-    <hyperlink ref="J29" r:id="rId48"/>
-    <hyperlink ref="I30" r:id="rId49"/>
-    <hyperlink ref="J30" r:id="rId50"/>
-    <hyperlink ref="I31" r:id="rId51"/>
-    <hyperlink ref="J31" r:id="rId52"/>
-    <hyperlink ref="I32" r:id="rId53"/>
-    <hyperlink ref="J32" r:id="rId54"/>
-    <hyperlink ref="I33" r:id="rId55"/>
-    <hyperlink ref="J33" r:id="rId56"/>
-    <hyperlink ref="I34" r:id="rId57"/>
-    <hyperlink ref="J34" r:id="rId58"/>
-    <hyperlink ref="I35" r:id="rId59"/>
-    <hyperlink ref="J35" r:id="rId60"/>
-    <hyperlink ref="I36" r:id="rId61"/>
-    <hyperlink ref="J36" r:id="rId62"/>
-    <hyperlink ref="I37" r:id="rId63"/>
-    <hyperlink ref="J37" r:id="rId64"/>
-    <hyperlink ref="I38" r:id="rId65"/>
-    <hyperlink ref="J38" r:id="rId66"/>
-    <hyperlink ref="I39" r:id="rId67"/>
-    <hyperlink ref="J39" r:id="rId68"/>
-    <hyperlink ref="I40" r:id="rId69"/>
-    <hyperlink ref="J40" r:id="rId70"/>
-    <hyperlink ref="I41" r:id="rId71"/>
-    <hyperlink ref="J41" r:id="rId72"/>
-    <hyperlink ref="I42" r:id="rId73"/>
-    <hyperlink ref="J42" r:id="rId74"/>
-    <hyperlink ref="I43" r:id="rId75"/>
-    <hyperlink ref="J43" r:id="rId76"/>
-    <hyperlink ref="I44" r:id="rId77"/>
-    <hyperlink ref="J44" r:id="rId78"/>
-    <hyperlink ref="I45" r:id="rId79"/>
-    <hyperlink ref="J45" r:id="rId80"/>
-    <hyperlink ref="I46" r:id="rId81"/>
-    <hyperlink ref="J46" r:id="rId82"/>
-    <hyperlink ref="I47" r:id="rId83"/>
-    <hyperlink ref="J47" r:id="rId84"/>
-    <hyperlink ref="I48" r:id="rId85"/>
-    <hyperlink ref="J48" r:id="rId86"/>
-    <hyperlink ref="I49" r:id="rId87"/>
-    <hyperlink ref="J49" r:id="rId88"/>
-    <hyperlink ref="I50" r:id="rId89"/>
-    <hyperlink ref="J50" r:id="rId90"/>
-    <hyperlink ref="I51" r:id="rId91"/>
-    <hyperlink ref="J51" r:id="rId92"/>
-    <hyperlink ref="I52" r:id="rId93"/>
-    <hyperlink ref="J52" r:id="rId94"/>
-    <hyperlink ref="I53" r:id="rId95"/>
-    <hyperlink ref="J53" r:id="rId96"/>
-    <hyperlink ref="I54" r:id="rId97"/>
-    <hyperlink ref="J54" r:id="rId98"/>
-    <hyperlink ref="I55" r:id="rId99"/>
-    <hyperlink ref="J55" r:id="rId100"/>
-    <hyperlink ref="I56" r:id="rId101"/>
-    <hyperlink ref="J56" r:id="rId102"/>
-    <hyperlink ref="I57" r:id="rId103"/>
-    <hyperlink ref="J57" r:id="rId104"/>
-    <hyperlink ref="I58" r:id="rId105"/>
-    <hyperlink ref="J58" r:id="rId106"/>
-    <hyperlink ref="I59" r:id="rId107"/>
-    <hyperlink ref="J59" r:id="rId108"/>
-    <hyperlink ref="I60" r:id="rId109"/>
-    <hyperlink ref="J60" r:id="rId110"/>
-    <hyperlink ref="I61" r:id="rId111"/>
-    <hyperlink ref="J61" r:id="rId112"/>
-    <hyperlink ref="I62" r:id="rId113"/>
-    <hyperlink ref="J62" r:id="rId114"/>
-    <hyperlink ref="I63" r:id="rId115"/>
-    <hyperlink ref="J63" r:id="rId116"/>
-    <hyperlink ref="I64" r:id="rId117"/>
-    <hyperlink ref="J64" r:id="rId118"/>
-    <hyperlink ref="I65" r:id="rId119"/>
-    <hyperlink ref="J65" r:id="rId120"/>
-    <hyperlink ref="I66" r:id="rId121"/>
-    <hyperlink ref="J66" r:id="rId122"/>
-    <hyperlink ref="I67" r:id="rId123"/>
-    <hyperlink ref="J67" r:id="rId124"/>
-    <hyperlink ref="I68" r:id="rId125"/>
-    <hyperlink ref="J68" r:id="rId126"/>
-    <hyperlink ref="I69" r:id="rId127"/>
-    <hyperlink ref="J69" r:id="rId128"/>
-    <hyperlink ref="I70" r:id="rId129"/>
-    <hyperlink ref="J70" r:id="rId130"/>
-    <hyperlink ref="I71" r:id="rId131"/>
-    <hyperlink ref="J71" r:id="rId132"/>
-    <hyperlink ref="I72" r:id="rId133"/>
-    <hyperlink ref="J72" r:id="rId134"/>
-    <hyperlink ref="I73" r:id="rId135"/>
-    <hyperlink ref="J73" r:id="rId136"/>
-    <hyperlink ref="I74" r:id="rId137"/>
-    <hyperlink ref="J74" r:id="rId138"/>
-    <hyperlink ref="I75" r:id="rId139"/>
-    <hyperlink ref="J75" r:id="rId140"/>
-    <hyperlink ref="I76" r:id="rId141"/>
-    <hyperlink ref="J76" r:id="rId142"/>
-    <hyperlink ref="I77" r:id="rId143"/>
-    <hyperlink ref="J77" r:id="rId144"/>
-    <hyperlink ref="I78" r:id="rId145"/>
-    <hyperlink ref="J78" r:id="rId146"/>
+    <hyperlink ref="J6" r:id="rId1"/>
+    <hyperlink ref="K6" r:id="rId2"/>
+    <hyperlink ref="J7" r:id="rId3"/>
+    <hyperlink ref="K7" r:id="rId4"/>
+    <hyperlink ref="J8" r:id="rId5"/>
+    <hyperlink ref="K8" r:id="rId6"/>
+    <hyperlink ref="J9" r:id="rId7"/>
+    <hyperlink ref="K9" r:id="rId8"/>
+    <hyperlink ref="J10" r:id="rId9"/>
+    <hyperlink ref="K10" r:id="rId10"/>
+    <hyperlink ref="J11" r:id="rId11"/>
+    <hyperlink ref="K11" r:id="rId12"/>
+    <hyperlink ref="J12" r:id="rId13"/>
+    <hyperlink ref="K12" r:id="rId14"/>
+    <hyperlink ref="J13" r:id="rId15"/>
+    <hyperlink ref="K13" r:id="rId16"/>
+    <hyperlink ref="J14" r:id="rId17"/>
+    <hyperlink ref="K14" r:id="rId18"/>
+    <hyperlink ref="J15" r:id="rId19"/>
+    <hyperlink ref="K15" r:id="rId20"/>
+    <hyperlink ref="J16" r:id="rId21"/>
+    <hyperlink ref="K16" r:id="rId22"/>
+    <hyperlink ref="J17" r:id="rId23"/>
+    <hyperlink ref="K17" r:id="rId24"/>
+    <hyperlink ref="J18" r:id="rId25"/>
+    <hyperlink ref="K18" r:id="rId26"/>
+    <hyperlink ref="J19" r:id="rId27"/>
+    <hyperlink ref="K19" r:id="rId28"/>
+    <hyperlink ref="J20" r:id="rId29"/>
+    <hyperlink ref="K20" r:id="rId30"/>
+    <hyperlink ref="J21" r:id="rId31"/>
+    <hyperlink ref="K21" r:id="rId32"/>
+    <hyperlink ref="J22" r:id="rId33"/>
+    <hyperlink ref="K22" r:id="rId34"/>
+    <hyperlink ref="J23" r:id="rId35"/>
+    <hyperlink ref="K23" r:id="rId36"/>
+    <hyperlink ref="J24" r:id="rId37"/>
+    <hyperlink ref="K24" r:id="rId38"/>
+    <hyperlink ref="J25" r:id="rId39"/>
+    <hyperlink ref="K25" r:id="rId40"/>
+    <hyperlink ref="J26" r:id="rId41"/>
+    <hyperlink ref="K26" r:id="rId42"/>
+    <hyperlink ref="J27" r:id="rId43"/>
+    <hyperlink ref="K27" r:id="rId44"/>
+    <hyperlink ref="J28" r:id="rId45"/>
+    <hyperlink ref="K28" r:id="rId46"/>
+    <hyperlink ref="J29" r:id="rId47"/>
+    <hyperlink ref="K29" r:id="rId48"/>
+    <hyperlink ref="J30" r:id="rId49"/>
+    <hyperlink ref="K30" r:id="rId50"/>
+    <hyperlink ref="J31" r:id="rId51"/>
+    <hyperlink ref="K31" r:id="rId52"/>
+    <hyperlink ref="J32" r:id="rId53"/>
+    <hyperlink ref="K32" r:id="rId54"/>
+    <hyperlink ref="J33" r:id="rId55"/>
+    <hyperlink ref="K33" r:id="rId56"/>
+    <hyperlink ref="J34" r:id="rId57"/>
+    <hyperlink ref="K34" r:id="rId58"/>
+    <hyperlink ref="J35" r:id="rId59"/>
+    <hyperlink ref="K35" r:id="rId60"/>
+    <hyperlink ref="J36" r:id="rId61"/>
+    <hyperlink ref="K36" r:id="rId62"/>
+    <hyperlink ref="J37" r:id="rId63"/>
+    <hyperlink ref="K37" r:id="rId64"/>
+    <hyperlink ref="J38" r:id="rId65"/>
+    <hyperlink ref="K38" r:id="rId66"/>
+    <hyperlink ref="J39" r:id="rId67"/>
+    <hyperlink ref="K39" r:id="rId68"/>
+    <hyperlink ref="J40" r:id="rId69"/>
+    <hyperlink ref="K40" r:id="rId70"/>
+    <hyperlink ref="J41" r:id="rId71"/>
+    <hyperlink ref="K41" r:id="rId72"/>
+    <hyperlink ref="J42" r:id="rId73"/>
+    <hyperlink ref="K42" r:id="rId74"/>
+    <hyperlink ref="J43" r:id="rId75"/>
+    <hyperlink ref="K43" r:id="rId76"/>
+    <hyperlink ref="J44" r:id="rId77"/>
+    <hyperlink ref="K44" r:id="rId78"/>
+    <hyperlink ref="J45" r:id="rId79"/>
+    <hyperlink ref="K45" r:id="rId80"/>
+    <hyperlink ref="J46" r:id="rId81"/>
+    <hyperlink ref="K46" r:id="rId82"/>
+    <hyperlink ref="J47" r:id="rId83"/>
+    <hyperlink ref="K47" r:id="rId84"/>
+    <hyperlink ref="J48" r:id="rId85"/>
+    <hyperlink ref="K48" r:id="rId86"/>
+    <hyperlink ref="J49" r:id="rId87"/>
+    <hyperlink ref="K49" r:id="rId88"/>
+    <hyperlink ref="J50" r:id="rId89"/>
+    <hyperlink ref="K50" r:id="rId90"/>
+    <hyperlink ref="J51" r:id="rId91"/>
+    <hyperlink ref="K51" r:id="rId92"/>
+    <hyperlink ref="J52" r:id="rId93"/>
+    <hyperlink ref="K52" r:id="rId94"/>
+    <hyperlink ref="J53" r:id="rId95"/>
+    <hyperlink ref="K53" r:id="rId96"/>
+    <hyperlink ref="J54" r:id="rId97"/>
+    <hyperlink ref="K54" r:id="rId98"/>
+    <hyperlink ref="J55" r:id="rId99"/>
+    <hyperlink ref="K55" r:id="rId100"/>
+    <hyperlink ref="J56" r:id="rId101"/>
+    <hyperlink ref="K56" r:id="rId102"/>
+    <hyperlink ref="J57" r:id="rId103"/>
+    <hyperlink ref="K57" r:id="rId104"/>
+    <hyperlink ref="J58" r:id="rId105"/>
+    <hyperlink ref="K58" r:id="rId106"/>
+    <hyperlink ref="J59" r:id="rId107"/>
+    <hyperlink ref="K59" r:id="rId108"/>
+    <hyperlink ref="J60" r:id="rId109"/>
+    <hyperlink ref="K60" r:id="rId110"/>
+    <hyperlink ref="J61" r:id="rId111"/>
+    <hyperlink ref="K61" r:id="rId112"/>
+    <hyperlink ref="J62" r:id="rId113"/>
+    <hyperlink ref="K62" r:id="rId114"/>
+    <hyperlink ref="J63" r:id="rId115"/>
+    <hyperlink ref="K63" r:id="rId116"/>
+    <hyperlink ref="J64" r:id="rId117"/>
+    <hyperlink ref="K64" r:id="rId118"/>
+    <hyperlink ref="J65" r:id="rId119"/>
+    <hyperlink ref="K65" r:id="rId120"/>
+    <hyperlink ref="J66" r:id="rId121"/>
+    <hyperlink ref="K66" r:id="rId122"/>
+    <hyperlink ref="J67" r:id="rId123"/>
+    <hyperlink ref="K67" r:id="rId124"/>
+    <hyperlink ref="J68" r:id="rId125"/>
+    <hyperlink ref="K68" r:id="rId126"/>
+    <hyperlink ref="J69" r:id="rId127"/>
+    <hyperlink ref="K69" r:id="rId128"/>
+    <hyperlink ref="J70" r:id="rId129"/>
+    <hyperlink ref="K70" r:id="rId130"/>
+    <hyperlink ref="J71" r:id="rId131"/>
+    <hyperlink ref="K71" r:id="rId132"/>
+    <hyperlink ref="J72" r:id="rId133"/>
+    <hyperlink ref="K72" r:id="rId134"/>
+    <hyperlink ref="J73" r:id="rId135"/>
+    <hyperlink ref="K73" r:id="rId136"/>
+    <hyperlink ref="J74" r:id="rId137"/>
+    <hyperlink ref="K74" r:id="rId138"/>
+    <hyperlink ref="J75" r:id="rId139"/>
+    <hyperlink ref="K75" r:id="rId140"/>
+    <hyperlink ref="J76" r:id="rId141"/>
+    <hyperlink ref="K76" r:id="rId142"/>
+    <hyperlink ref="J77" r:id="rId143"/>
+    <hyperlink ref="K77" r:id="rId144"/>
+    <hyperlink ref="J78" r:id="rId145"/>
+    <hyperlink ref="K78" r:id="rId146"/>
   </hyperlinks>
   <pageMargins left="0" right="0" top="0" bottom="0.7" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape"/>

--- a/controle_contratos/Planilha_Completa.xlsx
+++ b/controle_contratos/Planilha_Completa.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2292" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2180" uniqueCount="525">
   <si>
     <t>Nº</t>
   </si>
@@ -45,10 +45,10 @@
 Vencer</t>
   </si>
   <si>
-    <t>Portaria</t>
-  </si>
-  <si>
-    <t>Termo Aditivo</t>
+    <t>Processo Formatado</t>
+  </si>
+  <si>
+    <t>Contrato Link</t>
   </si>
   <si>
     <t>PE 42/2023</t>
@@ -579,7 +579,202 @@
     <t>14/02/2028</t>
   </si>
   <si>
-    <t>Link</t>
+    <t>PE_42-2023</t>
+  </si>
+  <si>
+    <t>PE_10-2020</t>
+  </si>
+  <si>
+    <t>PE_02-2021</t>
+  </si>
+  <si>
+    <t>PE_29-2019</t>
+  </si>
+  <si>
+    <t>PE_08-2022</t>
+  </si>
+  <si>
+    <t>PE_09-2021</t>
+  </si>
+  <si>
+    <t>PE_02-2018</t>
+  </si>
+  <si>
+    <t>PE_03-2022</t>
+  </si>
+  <si>
+    <t>TJIL_01-2016</t>
+  </si>
+  <si>
+    <t>PE_31-2023</t>
+  </si>
+  <si>
+    <t>PE_25-2021</t>
+  </si>
+  <si>
+    <t>PE_06-2023</t>
+  </si>
+  <si>
+    <t>PE_01-2023</t>
+  </si>
+  <si>
+    <t>PE_11-2022</t>
+  </si>
+  <si>
+    <t>PE_14-2022</t>
+  </si>
+  <si>
+    <t>PE_08-2023</t>
+  </si>
+  <si>
+    <t>PE_08-2020</t>
+  </si>
+  <si>
+    <t>PE_20-2021</t>
+  </si>
+  <si>
+    <t>TJDL_1002-2023</t>
+  </si>
+  <si>
+    <t>PE_19-2019</t>
+  </si>
+  <si>
+    <t>PE_01-2016</t>
+  </si>
+  <si>
+    <t>TJIL_1004-2023</t>
+  </si>
+  <si>
+    <t>DE_44-2023</t>
+  </si>
+  <si>
+    <t>TJDL_01-2019</t>
+  </si>
+  <si>
+    <t>PE_35-2022</t>
+  </si>
+  <si>
+    <t>PE_02-2022</t>
+  </si>
+  <si>
+    <t>TJIL_01-2017</t>
+  </si>
+  <si>
+    <t>87000_23-104_00</t>
+  </si>
+  <si>
+    <t>87000_21-005_00</t>
+  </si>
+  <si>
+    <t>87000_23-102_00</t>
+  </si>
+  <si>
+    <t>87000_23-106_00</t>
+  </si>
+  <si>
+    <t>87000_22-008_00</t>
+  </si>
+  <si>
+    <t>87000_20-044_00</t>
+  </si>
+  <si>
+    <t>87000_22-009_00</t>
+  </si>
+  <si>
+    <t>87000_21-062_00</t>
+  </si>
+  <si>
+    <t>87000_19-033_00</t>
+  </si>
+  <si>
+    <t>87000_23-051_00</t>
+  </si>
+  <si>
+    <t>87000_21-080_00</t>
+  </si>
+  <si>
+    <t>87000_22-032_00</t>
+  </si>
+  <si>
+    <t>87000_21-085_00</t>
+  </si>
+  <si>
+    <t>87000_21-084_00</t>
+  </si>
+  <si>
+    <t>87000_21-086_00</t>
+  </si>
+  <si>
+    <t>87000_23-073_00</t>
+  </si>
+  <si>
+    <t>87000_21-120_00</t>
+  </si>
+  <si>
+    <t>87000_21-135_00</t>
+  </si>
+  <si>
+    <t>87000_23-083_00</t>
+  </si>
+  <si>
+    <t>87000_23-087_00</t>
+  </si>
+  <si>
+    <t>87000_21-140_00</t>
+  </si>
+  <si>
+    <t>87000_23-099_00</t>
+  </si>
+  <si>
+    <t>87000_23-088_00</t>
+  </si>
+  <si>
+    <t>87000_20-082_00</t>
+  </si>
+  <si>
+    <t>87000_20-080_00</t>
+  </si>
+  <si>
+    <t>87000_21-154_00</t>
+  </si>
+  <si>
+    <t>87000_23-071_00</t>
+  </si>
+  <si>
+    <t>87000_19-057_00</t>
+  </si>
+  <si>
+    <t>87000_19-059_00</t>
+  </si>
+  <si>
+    <t>87000_19-058_00</t>
+  </si>
+  <si>
+    <t>87000_21-156_00</t>
+  </si>
+  <si>
+    <t>87000_23-121_00</t>
+  </si>
+  <si>
+    <t>87000_23-115_00</t>
+  </si>
+  <si>
+    <t>87000_17-1532_00</t>
+  </si>
+  <si>
+    <t>87000_17-1531_00</t>
+  </si>
+  <si>
+    <t>87000_23-108_00</t>
+  </si>
+  <si>
+    <t>87000_22-099_00</t>
+  </si>
+  <si>
+    <t>87000_22-007_00</t>
+  </si>
+  <si>
+    <t>87000_18-100_00</t>
   </si>
   <si>
     <t>Centro de Intendência da Marinha em Brasília</t>
@@ -591,12 +786,15 @@
     <t>Controle de Contratos - 2024</t>
   </si>
   <si>
-    <t>Atualizado em: 07/03/2024</t>
+    <t>Atualizado em: 08/03/2024</t>
   </si>
   <si>
     <t>Ata</t>
   </si>
   <si>
+    <t>Ata Link</t>
+  </si>
+  <si>
     <t>PE 01/2022</t>
   </si>
   <si>
@@ -1141,6 +1339,255 @@
   </si>
   <si>
     <t>23/02/2025</t>
+  </si>
+  <si>
+    <t>PE_01-2022</t>
+  </si>
+  <si>
+    <t>PE_20-2022</t>
+  </si>
+  <si>
+    <t>PE_20-2023</t>
+  </si>
+  <si>
+    <t>PE_02-2023</t>
+  </si>
+  <si>
+    <t>PE_03-2023</t>
+  </si>
+  <si>
+    <t>PE_15-2021</t>
+  </si>
+  <si>
+    <t>PE_26-2023</t>
+  </si>
+  <si>
+    <t>PE_52-2023</t>
+  </si>
+  <si>
+    <t>PE_05-2023</t>
+  </si>
+  <si>
+    <t>PE_22-2023</t>
+  </si>
+  <si>
+    <t>87000_23-038_00</t>
+  </si>
+  <si>
+    <t>87000_23-039_00</t>
+  </si>
+  <si>
+    <t>87000_23-046_00</t>
+  </si>
+  <si>
+    <t>87000_23-031_00</t>
+  </si>
+  <si>
+    <t>87000_23-040_00</t>
+  </si>
+  <si>
+    <t>87000_23-041_00</t>
+  </si>
+  <si>
+    <t>87000_23-035_00</t>
+  </si>
+  <si>
+    <t>87000_23-045_00</t>
+  </si>
+  <si>
+    <t>87000_23-044_00</t>
+  </si>
+  <si>
+    <t>87000_23-043_00</t>
+  </si>
+  <si>
+    <t>87000_23-034_00</t>
+  </si>
+  <si>
+    <t>87000_23-042_00</t>
+  </si>
+  <si>
+    <t>87000_23-036_00</t>
+  </si>
+  <si>
+    <t>87000_23-032_00</t>
+  </si>
+  <si>
+    <t>87000_23-033_00</t>
+  </si>
+  <si>
+    <t>87000_23-019_00</t>
+  </si>
+  <si>
+    <t>87000_23-048_00</t>
+  </si>
+  <si>
+    <t>87000_23-056_00</t>
+  </si>
+  <si>
+    <t>87000_23-057_00</t>
+  </si>
+  <si>
+    <t>87000_23-055_00</t>
+  </si>
+  <si>
+    <t>87000_23-049_00</t>
+  </si>
+  <si>
+    <t>87000_23-053_00</t>
+  </si>
+  <si>
+    <t>87000_23-052_00</t>
+  </si>
+  <si>
+    <t>87000_23-022_00</t>
+  </si>
+  <si>
+    <t>87000_23-054_00</t>
+  </si>
+  <si>
+    <t>87000_23-037_00</t>
+  </si>
+  <si>
+    <t>87000_23-050_00</t>
+  </si>
+  <si>
+    <t>87000_23-062_00</t>
+  </si>
+  <si>
+    <t>87000_23-064_00</t>
+  </si>
+  <si>
+    <t>87000_23-061_00</t>
+  </si>
+  <si>
+    <t>87000_23-063_00</t>
+  </si>
+  <si>
+    <t>87000_23-069_00</t>
+  </si>
+  <si>
+    <t>87000_23-066_00</t>
+  </si>
+  <si>
+    <t>87000_23-068_00</t>
+  </si>
+  <si>
+    <t>87000_23-070_00</t>
+  </si>
+  <si>
+    <t>87000_23-067_00</t>
+  </si>
+  <si>
+    <t>87000_23-065_00</t>
+  </si>
+  <si>
+    <t>87000_21-109_00</t>
+  </si>
+  <si>
+    <t>87000_23-072_00</t>
+  </si>
+  <si>
+    <t>87000_23-076_00</t>
+  </si>
+  <si>
+    <t>87000_23-074_00</t>
+  </si>
+  <si>
+    <t>87000_23-082_00</t>
+  </si>
+  <si>
+    <t>87000_23-081_00</t>
+  </si>
+  <si>
+    <t>87000_23-077_00</t>
+  </si>
+  <si>
+    <t>87000_23-079_00</t>
+  </si>
+  <si>
+    <t>87000_23-075_00</t>
+  </si>
+  <si>
+    <t>87000_23-078_00</t>
+  </si>
+  <si>
+    <t>87000_23-084_00</t>
+  </si>
+  <si>
+    <t>87000_23-085_00</t>
+  </si>
+  <si>
+    <t>87000_23-086_00</t>
+  </si>
+  <si>
+    <t>87000_23-080_00</t>
+  </si>
+  <si>
+    <t>87000_23-091_00</t>
+  </si>
+  <si>
+    <t>87000_23-098_00</t>
+  </si>
+  <si>
+    <t>87000_23-096_00</t>
+  </si>
+  <si>
+    <t>87000_23-095_00</t>
+  </si>
+  <si>
+    <t>87000_23-092_00</t>
+  </si>
+  <si>
+    <t>87000_23-093_00</t>
+  </si>
+  <si>
+    <t>87000_23-090_00</t>
+  </si>
+  <si>
+    <t>87000_23-089_00</t>
+  </si>
+  <si>
+    <t>87000_23-094_00</t>
+  </si>
+  <si>
+    <t>87000_23-109_00</t>
+  </si>
+  <si>
+    <t>87000_23-111_00</t>
+  </si>
+  <si>
+    <t>87000_23-112_00</t>
+  </si>
+  <si>
+    <t>87000_23-110_00</t>
+  </si>
+  <si>
+    <t>87000_23-113_00</t>
+  </si>
+  <si>
+    <t>87000_23-119_00</t>
+  </si>
+  <si>
+    <t>87000_23-118_00</t>
+  </si>
+  <si>
+    <t>87000_23-120_00</t>
+  </si>
+  <si>
+    <t>87000_23-116_00</t>
+  </si>
+  <si>
+    <t>87000_23-117_00</t>
+  </si>
+  <si>
+    <t>87000_23-122_00</t>
+  </si>
+  <si>
+    <t>87000_24-003_00</t>
+  </si>
+  <si>
+    <t>87000_24-002_00</t>
   </si>
   <si>
     <t>Controle de Atas de Registro de Preços - 2024</t>
@@ -1150,7 +1597,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1189,6 +1636,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1229,10 +1683,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1246,8 +1704,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1543,7 +2003,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K44"/>
+  <dimension ref="A1:K116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1563,7 +2023,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="20" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>188</v>
+        <v>253</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1578,7 +2038,7 @@
     </row>
     <row r="2" spans="1:11" ht="30" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>189</v>
+        <v>254</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1593,7 +2053,7 @@
     </row>
     <row r="3" spans="1:11" ht="30" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>190</v>
+        <v>255</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1608,7 +2068,7 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="2" t="s">
-        <v>191</v>
+        <v>256</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1682,13 +2142,13 @@
         <v>157</v>
       </c>
       <c r="I6" s="4">
-        <v>-8</v>
+        <v>-9</v>
       </c>
       <c r="J6" s="4" t="s">
         <v>187</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>187</v>
+        <v>214</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1698,8 +2158,8 @@
       <c r="B7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>39</v>
+      <c r="C7" s="5" t="s">
+        <v>71</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>78</v>
@@ -1717,13 +2177,13 @@
         <v>158</v>
       </c>
       <c r="I7" s="4">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>187</v>
+        <v>215</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1733,8 +2193,8 @@
       <c r="B8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>40</v>
+      <c r="C8" s="5" t="s">
+        <v>72</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>77</v>
@@ -1752,13 +2212,13 @@
         <v>159</v>
       </c>
       <c r="I8" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J8" s="4" t="s">
         <v>187</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>187</v>
+        <v>216</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1768,8 +2228,8 @@
       <c r="B9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>41</v>
+      <c r="C9" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>77</v>
@@ -1787,13 +2247,13 @@
         <v>160</v>
       </c>
       <c r="I9" s="4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J9" s="4" t="s">
         <v>187</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>187</v>
+        <v>217</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1822,13 +2282,13 @@
         <v>161</v>
       </c>
       <c r="I10" s="4">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>187</v>
+        <v>218</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1857,13 +2317,13 @@
         <v>162</v>
       </c>
       <c r="I11" s="4">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>187</v>
+        <v>219</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1873,8 +2333,8 @@
       <c r="B12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>44</v>
+      <c r="C12" s="5" t="s">
+        <v>69</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>78</v>
@@ -1892,13 +2352,13 @@
         <v>163</v>
       </c>
       <c r="I12" s="4">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>187</v>
+        <v>220</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1908,8 +2368,8 @@
       <c r="B13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>45</v>
+      <c r="C13" s="5" t="s">
+        <v>70</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>79</v>
@@ -1927,13 +2387,13 @@
         <v>164</v>
       </c>
       <c r="I13" s="4">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>187</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1962,13 +2422,13 @@
         <v>165</v>
       </c>
       <c r="I14" s="4">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>187</v>
+        <v>222</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1997,13 +2457,13 @@
         <v>166</v>
       </c>
       <c r="I15" s="4">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>187</v>
+        <v>223</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -2013,8 +2473,8 @@
       <c r="B16" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>48</v>
+      <c r="C16" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>78</v>
@@ -2032,13 +2492,13 @@
         <v>167</v>
       </c>
       <c r="I16" s="4">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>187</v>
+        <v>224</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -2067,13 +2527,13 @@
         <v>167</v>
       </c>
       <c r="I17" s="4">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>187</v>
+        <v>225</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -2102,13 +2562,13 @@
         <v>168</v>
       </c>
       <c r="I18" s="4">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>187</v>
+        <v>226</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -2137,13 +2597,13 @@
         <v>168</v>
       </c>
       <c r="I19" s="4">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>187</v>
+        <v>227</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -2153,8 +2613,8 @@
       <c r="B20" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>52</v>
+      <c r="C20" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>78</v>
@@ -2172,13 +2632,13 @@
         <v>168</v>
       </c>
       <c r="I20" s="4">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>187</v>
+        <v>228</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -2188,8 +2648,8 @@
       <c r="B21" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>53</v>
+      <c r="C21" s="5" t="s">
+        <v>68</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>78</v>
@@ -2207,13 +2667,13 @@
         <v>169</v>
       </c>
       <c r="I21" s="4">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>187</v>
+        <v>229</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -2223,8 +2683,8 @@
       <c r="B22" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>54</v>
+      <c r="C22" s="5" t="s">
+        <v>67</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>78</v>
@@ -2242,13 +2702,13 @@
         <v>170</v>
       </c>
       <c r="I22" s="4">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>187</v>
+        <v>230</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -2277,13 +2737,13 @@
         <v>171</v>
       </c>
       <c r="I23" s="4">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>187</v>
+        <v>231</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -2312,13 +2772,13 @@
         <v>172</v>
       </c>
       <c r="I24" s="4">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>187</v>
+        <v>232</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -2328,8 +2788,8 @@
       <c r="B25" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>57</v>
+      <c r="C25" s="5" t="s">
+        <v>66</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>78</v>
@@ -2347,13 +2807,13 @@
         <v>173</v>
       </c>
       <c r="I25" s="4">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>187</v>
+        <v>233</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -2363,8 +2823,8 @@
       <c r="B26" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>58</v>
+      <c r="C26" s="5" t="s">
+        <v>65</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>78</v>
@@ -2382,13 +2842,13 @@
         <v>174</v>
       </c>
       <c r="I26" s="4">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>187</v>
+        <v>234</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -2398,8 +2858,8 @@
       <c r="B27" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="4" t="s">
-        <v>59</v>
+      <c r="C27" s="5" t="s">
+        <v>64</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>78</v>
@@ -2417,13 +2877,13 @@
         <v>175</v>
       </c>
       <c r="I27" s="4">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>187</v>
+        <v>235</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -2433,8 +2893,8 @@
       <c r="B28" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>60</v>
+      <c r="C28" s="5" t="s">
+        <v>63</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>78</v>
@@ -2452,13 +2912,13 @@
         <v>176</v>
       </c>
       <c r="I28" s="4">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>187</v>
+        <v>236</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -2468,8 +2928,8 @@
       <c r="B29" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="4" t="s">
-        <v>61</v>
+      <c r="C29" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>78</v>
@@ -2487,13 +2947,13 @@
         <v>177</v>
       </c>
       <c r="I29" s="4">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>187</v>
+        <v>237</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -2522,13 +2982,13 @@
         <v>177</v>
       </c>
       <c r="I30" s="4">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>187</v>
+        <v>238</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -2557,13 +3017,13 @@
         <v>178</v>
       </c>
       <c r="I31" s="4">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>187</v>
+        <v>239</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -2592,13 +3052,13 @@
         <v>179</v>
       </c>
       <c r="I32" s="4">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="K32" s="4" t="s">
-        <v>187</v>
+        <v>240</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -2608,8 +3068,8 @@
       <c r="B33" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C33" s="4" t="s">
-        <v>65</v>
+      <c r="C33" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>78</v>
@@ -2627,13 +3087,13 @@
         <v>180</v>
       </c>
       <c r="I33" s="4">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="K33" s="4" t="s">
-        <v>187</v>
+        <v>241</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -2643,8 +3103,8 @@
       <c r="B34" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C34" s="4" t="s">
-        <v>66</v>
+      <c r="C34" s="5" t="s">
+        <v>61</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>78</v>
@@ -2662,13 +3122,13 @@
         <v>180</v>
       </c>
       <c r="I34" s="4">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="K34" s="4" t="s">
-        <v>187</v>
+        <v>242</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -2678,8 +3138,8 @@
       <c r="B35" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C35" s="4" t="s">
-        <v>67</v>
+      <c r="C35" s="5" t="s">
+        <v>62</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>78</v>
@@ -2697,13 +3157,13 @@
         <v>180</v>
       </c>
       <c r="I35" s="4">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>187</v>
+        <v>243</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -2732,13 +3192,13 @@
         <v>180</v>
       </c>
       <c r="I36" s="4">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="K36" s="4" t="s">
-        <v>187</v>
+        <v>244</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -2767,13 +3227,13 @@
         <v>181</v>
       </c>
       <c r="I37" s="4">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="K37" s="4" t="s">
-        <v>187</v>
+        <v>245</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -2802,13 +3262,13 @@
         <v>182</v>
       </c>
       <c r="I38" s="4">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>187</v>
+        <v>209</v>
       </c>
       <c r="K38" s="4" t="s">
-        <v>187</v>
+        <v>246</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -2837,13 +3297,13 @@
         <v>183</v>
       </c>
       <c r="I39" s="4">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>187</v>
+        <v>210</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>187</v>
+        <v>247</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -2872,13 +3332,13 @@
         <v>183</v>
       </c>
       <c r="I40" s="4">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>187</v>
+        <v>210</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>187</v>
+        <v>248</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -2907,13 +3367,13 @@
         <v>184</v>
       </c>
       <c r="I41" s="4">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>187</v>
+        <v>211</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>187</v>
+        <v>249</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -2942,13 +3402,13 @@
         <v>185</v>
       </c>
       <c r="I42" s="4">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="K42" s="4" t="s">
-        <v>187</v>
+        <v>250</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -2958,8 +3418,8 @@
       <c r="B43" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C43" s="4" t="s">
-        <v>75</v>
+      <c r="C43" s="5" t="s">
+        <v>60</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>78</v>
@@ -2977,13 +3437,13 @@
         <v>185</v>
       </c>
       <c r="I43" s="4">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="K43" s="4" t="s">
-        <v>187</v>
+        <v>251</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -3012,13 +3472,118 @@
         <v>186</v>
       </c>
       <c r="I44" s="4">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>187</v>
+        <v>213</v>
       </c>
       <c r="K44" s="4" t="s">
-        <v>187</v>
+        <v>252</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="C45" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="C47" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="C48" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3">
+      <c r="C49" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="57" spans="3:3">
+      <c r="C57" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="3:3">
+      <c r="C58" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="59" spans="3:3">
+      <c r="C59" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="65" spans="3:3">
+      <c r="C65" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="66" spans="3:3">
+      <c r="C66" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="70" spans="3:3">
+      <c r="C70" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="71" spans="3:3">
+      <c r="C71" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="72" spans="3:3">
+      <c r="C72" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="78" spans="3:3">
+      <c r="C78" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="80" spans="3:3">
+      <c r="C80" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="83" spans="3:3">
+      <c r="C83" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="95" spans="3:3">
+      <c r="C95" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="97" spans="3:3">
+      <c r="C97" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="99" spans="3:3">
+      <c r="C99" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="112" spans="3:3">
+      <c r="C112" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="115" spans="3:3">
+      <c r="C115" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="116" spans="3:3">
+      <c r="C116" s="5" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -3029,84 +3594,45 @@
     <mergeCell ref="A4:K4"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="J6" r:id="rId1"/>
-    <hyperlink ref="K6" r:id="rId2"/>
-    <hyperlink ref="J7" r:id="rId3"/>
-    <hyperlink ref="K7" r:id="rId4"/>
-    <hyperlink ref="J8" r:id="rId5"/>
-    <hyperlink ref="K8" r:id="rId6"/>
-    <hyperlink ref="J9" r:id="rId7"/>
-    <hyperlink ref="K9" r:id="rId8"/>
-    <hyperlink ref="J10" r:id="rId9"/>
-    <hyperlink ref="K10" r:id="rId10"/>
-    <hyperlink ref="J11" r:id="rId11"/>
-    <hyperlink ref="K11" r:id="rId12"/>
-    <hyperlink ref="J12" r:id="rId13"/>
-    <hyperlink ref="K12" r:id="rId14"/>
-    <hyperlink ref="J13" r:id="rId15"/>
-    <hyperlink ref="K13" r:id="rId16"/>
-    <hyperlink ref="J14" r:id="rId17"/>
-    <hyperlink ref="K14" r:id="rId18"/>
-    <hyperlink ref="J15" r:id="rId19"/>
-    <hyperlink ref="K15" r:id="rId20"/>
-    <hyperlink ref="J16" r:id="rId21"/>
-    <hyperlink ref="K16" r:id="rId22"/>
-    <hyperlink ref="J17" r:id="rId23"/>
-    <hyperlink ref="K17" r:id="rId24"/>
-    <hyperlink ref="J18" r:id="rId25"/>
-    <hyperlink ref="K18" r:id="rId26"/>
-    <hyperlink ref="J19" r:id="rId27"/>
-    <hyperlink ref="K19" r:id="rId28"/>
-    <hyperlink ref="J20" r:id="rId29"/>
-    <hyperlink ref="K20" r:id="rId30"/>
-    <hyperlink ref="J21" r:id="rId31"/>
-    <hyperlink ref="K21" r:id="rId32"/>
-    <hyperlink ref="J22" r:id="rId33"/>
-    <hyperlink ref="K22" r:id="rId34"/>
-    <hyperlink ref="J23" r:id="rId35"/>
-    <hyperlink ref="K23" r:id="rId36"/>
-    <hyperlink ref="J24" r:id="rId37"/>
-    <hyperlink ref="K24" r:id="rId38"/>
-    <hyperlink ref="J25" r:id="rId39"/>
-    <hyperlink ref="K25" r:id="rId40"/>
-    <hyperlink ref="J26" r:id="rId41"/>
-    <hyperlink ref="K26" r:id="rId42"/>
-    <hyperlink ref="J27" r:id="rId43"/>
-    <hyperlink ref="K27" r:id="rId44"/>
-    <hyperlink ref="J28" r:id="rId45"/>
-    <hyperlink ref="K28" r:id="rId46"/>
-    <hyperlink ref="J29" r:id="rId47"/>
-    <hyperlink ref="K29" r:id="rId48"/>
-    <hyperlink ref="J30" r:id="rId49"/>
-    <hyperlink ref="K30" r:id="rId50"/>
-    <hyperlink ref="J31" r:id="rId51"/>
-    <hyperlink ref="K31" r:id="rId52"/>
-    <hyperlink ref="J32" r:id="rId53"/>
-    <hyperlink ref="K32" r:id="rId54"/>
-    <hyperlink ref="J33" r:id="rId55"/>
-    <hyperlink ref="K33" r:id="rId56"/>
-    <hyperlink ref="J34" r:id="rId57"/>
-    <hyperlink ref="K34" r:id="rId58"/>
-    <hyperlink ref="J35" r:id="rId59"/>
-    <hyperlink ref="K35" r:id="rId60"/>
-    <hyperlink ref="J36" r:id="rId61"/>
-    <hyperlink ref="K36" r:id="rId62"/>
-    <hyperlink ref="J37" r:id="rId63"/>
-    <hyperlink ref="K37" r:id="rId64"/>
-    <hyperlink ref="J38" r:id="rId65"/>
-    <hyperlink ref="K38" r:id="rId66"/>
-    <hyperlink ref="J39" r:id="rId67"/>
-    <hyperlink ref="K39" r:id="rId68"/>
-    <hyperlink ref="J40" r:id="rId69"/>
-    <hyperlink ref="K40" r:id="rId70"/>
-    <hyperlink ref="J41" r:id="rId71"/>
-    <hyperlink ref="K41" r:id="rId72"/>
-    <hyperlink ref="J42" r:id="rId73"/>
-    <hyperlink ref="K42" r:id="rId74"/>
-    <hyperlink ref="J43" r:id="rId75"/>
-    <hyperlink ref="K43" r:id="rId76"/>
-    <hyperlink ref="J44" r:id="rId77"/>
-    <hyperlink ref="K44" r:id="rId78"/>
+    <hyperlink ref="C7" r:id="rId1"/>
+    <hyperlink ref="C8" r:id="rId2"/>
+    <hyperlink ref="C9" r:id="rId3"/>
+    <hyperlink ref="C12" r:id="rId4"/>
+    <hyperlink ref="C13" r:id="rId5"/>
+    <hyperlink ref="C16" r:id="rId6"/>
+    <hyperlink ref="C20" r:id="rId7"/>
+    <hyperlink ref="C21" r:id="rId8"/>
+    <hyperlink ref="C22" r:id="rId9"/>
+    <hyperlink ref="C25" r:id="rId10"/>
+    <hyperlink ref="C26" r:id="rId11"/>
+    <hyperlink ref="C27" r:id="rId12"/>
+    <hyperlink ref="C28" r:id="rId13"/>
+    <hyperlink ref="C29" r:id="rId14"/>
+    <hyperlink ref="C33" r:id="rId15"/>
+    <hyperlink ref="C34" r:id="rId16"/>
+    <hyperlink ref="C35" r:id="rId17"/>
+    <hyperlink ref="C43" r:id="rId18"/>
+    <hyperlink ref="C45" r:id="rId19"/>
+    <hyperlink ref="C47" r:id="rId20"/>
+    <hyperlink ref="C48" r:id="rId21"/>
+    <hyperlink ref="C49" r:id="rId22"/>
+    <hyperlink ref="C57" r:id="rId23"/>
+    <hyperlink ref="C58" r:id="rId24"/>
+    <hyperlink ref="C59" r:id="rId25"/>
+    <hyperlink ref="C65" r:id="rId26"/>
+    <hyperlink ref="C66" r:id="rId27"/>
+    <hyperlink ref="C70" r:id="rId28"/>
+    <hyperlink ref="C71" r:id="rId29"/>
+    <hyperlink ref="C72" r:id="rId30"/>
+    <hyperlink ref="C78" r:id="rId31"/>
+    <hyperlink ref="C80" r:id="rId32"/>
+    <hyperlink ref="C83" r:id="rId33"/>
+    <hyperlink ref="C95" r:id="rId34"/>
+    <hyperlink ref="C97" r:id="rId35"/>
+    <hyperlink ref="C99" r:id="rId36"/>
+    <hyperlink ref="C112" r:id="rId37"/>
+    <hyperlink ref="C115" r:id="rId38"/>
+    <hyperlink ref="C116" r:id="rId39"/>
   </hyperlinks>
   <pageMargins left="0" right="0" top="0" bottom="0.7" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape"/>
@@ -3118,7 +3644,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K78"/>
+  <dimension ref="A1:K114"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3138,7 +3664,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="20" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>188</v>
+        <v>253</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3153,7 +3679,7 @@
     </row>
     <row r="2" spans="1:11" ht="30" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>189</v>
+        <v>254</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -3168,7 +3694,7 @@
     </row>
     <row r="3" spans="1:11" ht="30" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>375</v>
+        <v>524</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -3183,7 +3709,7 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="2" t="s">
-        <v>191</v>
+        <v>256</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -3203,8 +3729,8 @@
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>192</v>
+      <c r="C5" s="5" t="s">
+        <v>341</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>3</v>
@@ -3228,7 +3754,7 @@
         <v>9</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>10</v>
+        <v>258</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -3236,10 +3762,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>203</v>
+        <v>259</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>306</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>79</v>
@@ -3248,22 +3774,22 @@
         <v>83</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>279</v>
+        <v>345</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>336</v>
+        <v>402</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>348</v>
+        <v>414</v>
       </c>
       <c r="I6" s="4">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>187</v>
+        <v>441</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>187</v>
+        <v>451</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -3271,10 +3797,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>193</v>
+        <v>259</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>204</v>
+        <v>270</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>79</v>
@@ -3283,22 +3809,22 @@
         <v>83</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>280</v>
+        <v>346</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>337</v>
+        <v>403</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>348</v>
+        <v>414</v>
       </c>
       <c r="I7" s="4">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>187</v>
+        <v>441</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>187</v>
+        <v>452</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -3306,34 +3832,34 @@
         <v>3</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>194</v>
+        <v>260</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>205</v>
+        <v>271</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>78</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>277</v>
+        <v>343</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>281</v>
+        <v>347</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>338</v>
+        <v>404</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>349</v>
+        <v>415</v>
       </c>
       <c r="I8" s="4">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>187</v>
+        <v>442</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>187</v>
+        <v>453</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -3341,34 +3867,34 @@
         <v>4</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>194</v>
+        <v>260</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>206</v>
+        <v>272</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>78</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>277</v>
+        <v>343</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>282</v>
+        <v>348</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>338</v>
+        <v>404</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>350</v>
+        <v>416</v>
       </c>
       <c r="I9" s="4">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>187</v>
+        <v>442</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>187</v>
+        <v>454</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -3376,34 +3902,34 @@
         <v>5</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>207</v>
+        <v>260</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>340</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>78</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>277</v>
+        <v>343</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>283</v>
+        <v>349</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>338</v>
+        <v>404</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>350</v>
+        <v>416</v>
       </c>
       <c r="I10" s="4">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>187</v>
+        <v>442</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>187</v>
+        <v>455</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -3411,34 +3937,34 @@
         <v>6</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>208</v>
+        <v>260</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>339</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>78</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>277</v>
+        <v>343</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>284</v>
+        <v>350</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>338</v>
+        <v>404</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>350</v>
+        <v>416</v>
       </c>
       <c r="I11" s="4">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>187</v>
+        <v>442</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>187</v>
+        <v>456</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -3446,34 +3972,34 @@
         <v>7</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>194</v>
+        <v>260</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>209</v>
+        <v>275</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>78</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>277</v>
+        <v>343</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>285</v>
+        <v>351</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>338</v>
+        <v>404</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>350</v>
+        <v>416</v>
       </c>
       <c r="I12" s="4">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>187</v>
+        <v>442</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>187</v>
+        <v>457</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -3481,34 +4007,34 @@
         <v>8</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>194</v>
+        <v>260</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>210</v>
+        <v>276</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>78</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>277</v>
+        <v>343</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>286</v>
+        <v>352</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>338</v>
+        <v>404</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>350</v>
+        <v>416</v>
       </c>
       <c r="I13" s="4">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>187</v>
+        <v>442</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>187</v>
+        <v>458</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -3516,34 +4042,34 @@
         <v>9</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>211</v>
+        <v>260</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>338</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>78</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>277</v>
+        <v>343</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>287</v>
+        <v>353</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>338</v>
+        <v>404</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>350</v>
+        <v>416</v>
       </c>
       <c r="I14" s="4">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>187</v>
+        <v>442</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>187</v>
+        <v>459</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -3551,34 +4077,34 @@
         <v>10</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>212</v>
+        <v>260</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>337</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>78</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>277</v>
+        <v>343</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>288</v>
+        <v>354</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>338</v>
+        <v>404</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>350</v>
+        <v>416</v>
       </c>
       <c r="I15" s="4">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>187</v>
+        <v>442</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>187</v>
+        <v>460</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -3586,34 +4112,34 @@
         <v>11</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>194</v>
+        <v>260</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>213</v>
+        <v>279</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>78</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>277</v>
+        <v>343</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>289</v>
+        <v>355</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>338</v>
+        <v>404</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>350</v>
+        <v>416</v>
       </c>
       <c r="I16" s="4">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>187</v>
+        <v>442</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>187</v>
+        <v>461</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -3621,34 +4147,34 @@
         <v>12</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>214</v>
+        <v>260</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>336</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>78</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>277</v>
+        <v>343</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>290</v>
+        <v>356</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>338</v>
+        <v>404</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>350</v>
+        <v>416</v>
       </c>
       <c r="I17" s="4">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>187</v>
+        <v>442</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>187</v>
+        <v>462</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -3656,34 +4182,34 @@
         <v>13</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>215</v>
+        <v>260</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>334</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>78</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>277</v>
+        <v>343</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>291</v>
+        <v>357</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>338</v>
+        <v>404</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>351</v>
+        <v>417</v>
       </c>
       <c r="I18" s="4">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>187</v>
+        <v>442</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>187</v>
+        <v>463</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -3691,34 +4217,34 @@
         <v>14</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>216</v>
+        <v>260</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>335</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>78</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>277</v>
+        <v>343</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>292</v>
+        <v>358</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>338</v>
+        <v>404</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>351</v>
+        <v>417</v>
       </c>
       <c r="I19" s="4">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>187</v>
+        <v>442</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>187</v>
+        <v>464</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -3726,34 +4252,34 @@
         <v>15</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>194</v>
+        <v>260</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>217</v>
+        <v>283</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>78</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>277</v>
+        <v>343</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>293</v>
+        <v>359</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>338</v>
+        <v>404</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>352</v>
+        <v>418</v>
       </c>
       <c r="I20" s="4">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>187</v>
+        <v>442</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>187</v>
+        <v>465</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -3764,7 +4290,7 @@
         <v>18</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>218</v>
+        <v>284</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>79</v>
@@ -3773,22 +4299,22 @@
         <v>83</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>294</v>
+        <v>360</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>138</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>353</v>
+        <v>419</v>
       </c>
       <c r="I21" s="4">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>187</v>
+        <v>466</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -3799,7 +4325,7 @@
         <v>35</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>219</v>
+        <v>285</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>78</v>
@@ -3811,19 +4337,19 @@
         <v>128</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>339</v>
+        <v>405</v>
       </c>
       <c r="H22" s="4" t="s">
         <v>166</v>
       </c>
       <c r="I22" s="4">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>187</v>
+        <v>211</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>187</v>
+        <v>467</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -3833,8 +4359,8 @@
       <c r="B23" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>220</v>
+      <c r="C23" s="5" t="s">
+        <v>332</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>79</v>
@@ -3843,22 +4369,22 @@
         <v>83</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>295</v>
+        <v>361</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>138</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>354</v>
+        <v>420</v>
       </c>
       <c r="I23" s="4">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>187</v>
+        <v>468</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -3868,8 +4394,8 @@
       <c r="B24" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>221</v>
+      <c r="C24" s="5" t="s">
+        <v>333</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>79</v>
@@ -3878,22 +4404,22 @@
         <v>83</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>296</v>
+        <v>362</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>138</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>354</v>
+        <v>420</v>
       </c>
       <c r="I24" s="4">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>187</v>
+        <v>469</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -3904,7 +4430,7 @@
         <v>18</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>222</v>
+        <v>288</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>79</v>
@@ -3913,22 +4439,22 @@
         <v>83</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>297</v>
+        <v>363</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>138</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>354</v>
+        <v>420</v>
       </c>
       <c r="I25" s="4">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>187</v>
+        <v>470</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -3939,7 +4465,7 @@
         <v>18</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>223</v>
+        <v>289</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>79</v>
@@ -3948,22 +4474,22 @@
         <v>83</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>298</v>
+        <v>364</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>138</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>354</v>
+        <v>420</v>
       </c>
       <c r="I26" s="4">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>187</v>
+        <v>471</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -3974,7 +4500,7 @@
         <v>18</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>224</v>
+        <v>290</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>79</v>
@@ -3983,22 +4509,22 @@
         <v>83</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>299</v>
+        <v>365</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>138</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>354</v>
+        <v>420</v>
       </c>
       <c r="I27" s="4">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>187</v>
+        <v>472</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -4009,7 +4535,7 @@
         <v>18</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>225</v>
+        <v>291</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>79</v>
@@ -4018,22 +4544,22 @@
         <v>83</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>300</v>
+        <v>366</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>138</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>354</v>
+        <v>420</v>
       </c>
       <c r="I28" s="4">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>187</v>
+        <v>473</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -4044,7 +4570,7 @@
         <v>18</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>226</v>
+        <v>292</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>79</v>
@@ -4053,22 +4579,22 @@
         <v>83</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>301</v>
+        <v>367</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>138</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>354</v>
+        <v>420</v>
       </c>
       <c r="I29" s="4">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>187</v>
+        <v>474</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -4078,8 +4604,8 @@
       <c r="B30" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C30" s="4" t="s">
-        <v>227</v>
+      <c r="C30" s="5" t="s">
+        <v>331</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>79</v>
@@ -4088,22 +4614,22 @@
         <v>83</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>302</v>
+        <v>368</v>
       </c>
       <c r="G30" s="4" t="s">
         <v>138</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>354</v>
+        <v>420</v>
       </c>
       <c r="I30" s="4">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>187</v>
+        <v>475</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -4111,34 +4637,34 @@
         <v>26</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>228</v>
+        <v>261</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>330</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>78</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>277</v>
+        <v>343</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>303</v>
+        <v>369</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>338</v>
+        <v>404</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>355</v>
+        <v>421</v>
       </c>
       <c r="I31" s="4">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>187</v>
+        <v>443</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>187</v>
+        <v>476</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -4146,10 +4672,10 @@
         <v>27</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>229</v>
+        <v>262</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>329</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>79</v>
@@ -4158,22 +4684,22 @@
         <v>83</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>304</v>
+        <v>370</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>138</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>356</v>
+        <v>422</v>
       </c>
       <c r="I32" s="4">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>187</v>
+        <v>444</v>
       </c>
       <c r="K32" s="4" t="s">
-        <v>187</v>
+        <v>477</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -4181,10 +4707,10 @@
         <v>28</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>197</v>
+        <v>263</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>230</v>
+        <v>296</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>79</v>
@@ -4193,22 +4719,22 @@
         <v>83</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>305</v>
+        <v>371</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>340</v>
+        <v>406</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>357</v>
+        <v>423</v>
       </c>
       <c r="I33" s="4">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>187</v>
+        <v>445</v>
       </c>
       <c r="K33" s="4" t="s">
-        <v>187</v>
+        <v>478</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -4216,10 +4742,10 @@
         <v>29</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>197</v>
+        <v>263</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>231</v>
+        <v>297</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>79</v>
@@ -4228,22 +4754,22 @@
         <v>83</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>306</v>
+        <v>372</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>340</v>
+        <v>406</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>357</v>
+        <v>423</v>
       </c>
       <c r="I34" s="4">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>187</v>
+        <v>445</v>
       </c>
       <c r="K34" s="4" t="s">
-        <v>187</v>
+        <v>479</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -4251,10 +4777,10 @@
         <v>30</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>197</v>
+        <v>263</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>232</v>
+        <v>298</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>79</v>
@@ -4263,22 +4789,22 @@
         <v>83</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>307</v>
+        <v>373</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>340</v>
+        <v>406</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>357</v>
+        <v>423</v>
       </c>
       <c r="I35" s="4">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>187</v>
+        <v>445</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>187</v>
+        <v>480</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -4286,10 +4812,10 @@
         <v>31</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>233</v>
+        <v>263</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>322</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>79</v>
@@ -4298,22 +4824,22 @@
         <v>83</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>308</v>
+        <v>374</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>340</v>
+        <v>406</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>357</v>
+        <v>423</v>
       </c>
       <c r="I36" s="4">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>187</v>
+        <v>445</v>
       </c>
       <c r="K36" s="4" t="s">
-        <v>187</v>
+        <v>481</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -4321,10 +4847,10 @@
         <v>32</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>234</v>
+        <v>262</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>323</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>79</v>
@@ -4333,22 +4859,22 @@
         <v>83</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>309</v>
+        <v>375</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>341</v>
+        <v>407</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>358</v>
+        <v>424</v>
       </c>
       <c r="I37" s="4">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>187</v>
+        <v>444</v>
       </c>
       <c r="K37" s="4" t="s">
-        <v>187</v>
+        <v>482</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -4356,10 +4882,10 @@
         <v>33</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>235</v>
+        <v>262</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>328</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>79</v>
@@ -4368,22 +4894,22 @@
         <v>83</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>310</v>
+        <v>376</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>341</v>
+        <v>407</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>358</v>
+        <v>424</v>
       </c>
       <c r="I38" s="4">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>187</v>
+        <v>444</v>
       </c>
       <c r="K38" s="4" t="s">
-        <v>187</v>
+        <v>483</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -4391,10 +4917,10 @@
         <v>34</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>236</v>
+        <v>262</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>325</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>79</v>
@@ -4403,22 +4929,22 @@
         <v>83</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>311</v>
+        <v>377</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>341</v>
+        <v>407</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>358</v>
+        <v>424</v>
       </c>
       <c r="I39" s="4">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>187</v>
+        <v>444</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>187</v>
+        <v>484</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -4426,10 +4952,10 @@
         <v>35</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>237</v>
+        <v>262</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>324</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>79</v>
@@ -4438,22 +4964,22 @@
         <v>83</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>312</v>
+        <v>378</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>341</v>
+        <v>407</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>358</v>
+        <v>424</v>
       </c>
       <c r="I40" s="4">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>187</v>
+        <v>444</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>187</v>
+        <v>485</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -4461,10 +4987,10 @@
         <v>36</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>238</v>
+        <v>262</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>326</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>79</v>
@@ -4473,22 +4999,22 @@
         <v>83</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>304</v>
+        <v>370</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>341</v>
+        <v>407</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>359</v>
+        <v>425</v>
       </c>
       <c r="I41" s="4">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>187</v>
+        <v>444</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>187</v>
+        <v>486</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -4496,10 +5022,10 @@
         <v>37</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>239</v>
+        <v>262</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>327</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>79</v>
@@ -4508,22 +5034,22 @@
         <v>83</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>307</v>
+        <v>373</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>341</v>
+        <v>407</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>359</v>
+        <v>425</v>
       </c>
       <c r="I42" s="4">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>187</v>
+        <v>444</v>
       </c>
       <c r="K42" s="4" t="s">
-        <v>187</v>
+        <v>487</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -4531,10 +5057,10 @@
         <v>38</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>198</v>
+        <v>264</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>240</v>
+        <v>306</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>78</v>
@@ -4543,22 +5069,22 @@
         <v>90</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>313</v>
+        <v>379</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>342</v>
+        <v>408</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>360</v>
+        <v>426</v>
       </c>
       <c r="I43" s="4">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>187</v>
+        <v>446</v>
       </c>
       <c r="K43" s="4" t="s">
-        <v>187</v>
+        <v>488</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -4568,8 +5094,8 @@
       <c r="B44" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C44" s="4" t="s">
-        <v>241</v>
+      <c r="C44" s="5" t="s">
+        <v>320</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>78</v>
@@ -4587,13 +5113,13 @@
         <v>169</v>
       </c>
       <c r="I44" s="4">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="K44" s="4" t="s">
-        <v>187</v>
+        <v>489</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -4604,7 +5130,7 @@
         <v>25</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>242</v>
+        <v>308</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>78</v>
@@ -4613,22 +5139,22 @@
         <v>91</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>314</v>
+        <v>380</v>
       </c>
       <c r="G45" s="4" t="s">
         <v>145</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>361</v>
+        <v>427</v>
       </c>
       <c r="I45" s="4">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="K45" s="4" t="s">
-        <v>187</v>
+        <v>490</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -4638,8 +5164,8 @@
       <c r="B46" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C46" s="4" t="s">
-        <v>243</v>
+      <c r="C46" s="5" t="s">
+        <v>321</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>78</v>
@@ -4648,22 +5174,22 @@
         <v>91</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>315</v>
+        <v>381</v>
       </c>
       <c r="G46" s="4" t="s">
         <v>145</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>361</v>
+        <v>427</v>
       </c>
       <c r="I46" s="4">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J46" s="4" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="K46" s="4" t="s">
-        <v>187</v>
+        <v>491</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -4674,7 +5200,7 @@
         <v>25</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>244</v>
+        <v>310</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>78</v>
@@ -4683,22 +5209,22 @@
         <v>91</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>316</v>
+        <v>382</v>
       </c>
       <c r="G47" s="4" t="s">
         <v>145</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>361</v>
+        <v>427</v>
       </c>
       <c r="I47" s="4">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="K47" s="4" t="s">
-        <v>187</v>
+        <v>492</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -4709,7 +5235,7 @@
         <v>25</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>245</v>
+        <v>311</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>78</v>
@@ -4718,22 +5244,22 @@
         <v>91</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>317</v>
+        <v>383</v>
       </c>
       <c r="G48" s="4" t="s">
         <v>145</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>361</v>
+        <v>427</v>
       </c>
       <c r="I48" s="4">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="K48" s="4" t="s">
-        <v>187</v>
+        <v>493</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -4744,31 +5270,31 @@
         <v>25</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>246</v>
+        <v>312</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>79</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>278</v>
+        <v>344</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>318</v>
+        <v>384</v>
       </c>
       <c r="G49" s="4" t="s">
         <v>145</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>361</v>
+        <v>427</v>
       </c>
       <c r="I49" s="4">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J49" s="4" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="K49" s="4" t="s">
-        <v>187</v>
+        <v>494</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -4778,8 +5304,8 @@
       <c r="B50" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C50" s="4" t="s">
-        <v>247</v>
+      <c r="C50" s="5" t="s">
+        <v>318</v>
       </c>
       <c r="D50" s="4" t="s">
         <v>78</v>
@@ -4794,16 +5320,16 @@
         <v>145</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>362</v>
+        <v>428</v>
       </c>
       <c r="I50" s="4">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J50" s="4" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="K50" s="4" t="s">
-        <v>187</v>
+        <v>495</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -4813,8 +5339,8 @@
       <c r="B51" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C51" s="4" t="s">
-        <v>248</v>
+      <c r="C51" s="5" t="s">
+        <v>317</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>78</v>
@@ -4823,22 +5349,22 @@
         <v>91</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>319</v>
+        <v>385</v>
       </c>
       <c r="G51" s="4" t="s">
         <v>145</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>363</v>
+        <v>429</v>
       </c>
       <c r="I51" s="4">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J51" s="4" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="K51" s="4" t="s">
-        <v>187</v>
+        <v>496</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -4848,8 +5374,8 @@
       <c r="B52" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C52" s="4" t="s">
-        <v>249</v>
+      <c r="C52" s="5" t="s">
+        <v>316</v>
       </c>
       <c r="D52" s="4" t="s">
         <v>78</v>
@@ -4858,22 +5384,22 @@
         <v>91</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>320</v>
+        <v>386</v>
       </c>
       <c r="G52" s="4" t="s">
         <v>145</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>363</v>
+        <v>429</v>
       </c>
       <c r="I52" s="4">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J52" s="4" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="K52" s="4" t="s">
-        <v>187</v>
+        <v>497</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -4883,8 +5409,8 @@
       <c r="B53" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C53" s="4" t="s">
-        <v>250</v>
+      <c r="C53" s="5" t="s">
+        <v>319</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>78</v>
@@ -4893,22 +5419,22 @@
         <v>91</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>321</v>
+        <v>387</v>
       </c>
       <c r="G53" s="4" t="s">
         <v>145</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>364</v>
+        <v>430</v>
       </c>
       <c r="I53" s="4">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J53" s="4" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="K53" s="4" t="s">
-        <v>187</v>
+        <v>498</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -4918,8 +5444,8 @@
       <c r="B54" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C54" s="4" t="s">
-        <v>251</v>
+      <c r="C54" s="5" t="s">
+        <v>313</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>78</v>
@@ -4928,22 +5454,22 @@
         <v>91</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>322</v>
+        <v>388</v>
       </c>
       <c r="G54" s="4" t="s">
         <v>145</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>364</v>
+        <v>430</v>
       </c>
       <c r="I54" s="4">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J54" s="4" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="K54" s="4" t="s">
-        <v>187</v>
+        <v>499</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -4953,8 +5479,8 @@
       <c r="B55" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C55" s="4" t="s">
-        <v>252</v>
+      <c r="C55" s="5" t="s">
+        <v>315</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>78</v>
@@ -4963,22 +5489,22 @@
         <v>91</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>323</v>
+        <v>389</v>
       </c>
       <c r="G55" s="4" t="s">
         <v>145</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>364</v>
+        <v>430</v>
       </c>
       <c r="I55" s="4">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J55" s="4" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="K55" s="4" t="s">
-        <v>187</v>
+        <v>500</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -4988,8 +5514,8 @@
       <c r="B56" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C56" s="4" t="s">
-        <v>253</v>
+      <c r="C56" s="5" t="s">
+        <v>314</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>78</v>
@@ -4998,22 +5524,22 @@
         <v>91</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>324</v>
+        <v>390</v>
       </c>
       <c r="G56" s="4" t="s">
         <v>145</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>365</v>
+        <v>431</v>
       </c>
       <c r="I56" s="4">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J56" s="4" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="K56" s="4" t="s">
-        <v>187</v>
+        <v>501</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -5021,34 +5547,34 @@
         <v>52</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>199</v>
+        <v>265</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>254</v>
+        <v>320</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>276</v>
+        <v>342</v>
       </c>
       <c r="E57" s="4" t="s">
         <v>81</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>325</v>
+        <v>391</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>343</v>
+        <v>409</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>366</v>
+        <v>432</v>
       </c>
       <c r="I57" s="4">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J57" s="4" t="s">
-        <v>187</v>
+        <v>447</v>
       </c>
       <c r="K57" s="4" t="s">
-        <v>187</v>
+        <v>502</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -5056,10 +5582,10 @@
         <v>53</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>200</v>
+        <v>266</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>255</v>
+        <v>321</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>78</v>
@@ -5068,22 +5594,22 @@
         <v>92</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>326</v>
+        <v>392</v>
       </c>
       <c r="G58" s="4" t="s">
         <v>145</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>367</v>
+        <v>433</v>
       </c>
       <c r="I58" s="4">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J58" s="4" t="s">
-        <v>187</v>
+        <v>448</v>
       </c>
       <c r="K58" s="4" t="s">
-        <v>187</v>
+        <v>503</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -5091,10 +5617,10 @@
         <v>54</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>201</v>
+        <v>267</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>256</v>
+        <v>322</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>79</v>
@@ -5103,22 +5629,22 @@
         <v>83</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>327</v>
+        <v>393</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>344</v>
+        <v>410</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>368</v>
+        <v>434</v>
       </c>
       <c r="I59" s="4">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J59" s="4" t="s">
-        <v>187</v>
+        <v>449</v>
       </c>
       <c r="K59" s="4" t="s">
-        <v>187</v>
+        <v>504</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -5126,10 +5652,10 @@
         <v>55</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>257</v>
+        <v>267</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>311</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>79</v>
@@ -5138,22 +5664,22 @@
         <v>83</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>328</v>
+        <v>394</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>344</v>
+        <v>410</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>368</v>
+        <v>434</v>
       </c>
       <c r="I60" s="4">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J60" s="4" t="s">
-        <v>187</v>
+        <v>449</v>
       </c>
       <c r="K60" s="4" t="s">
-        <v>187</v>
+        <v>505</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -5161,10 +5687,10 @@
         <v>56</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>258</v>
+        <v>267</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>310</v>
       </c>
       <c r="D61" s="4" t="s">
         <v>79</v>
@@ -5173,22 +5699,22 @@
         <v>83</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>329</v>
+        <v>395</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>344</v>
+        <v>410</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>368</v>
+        <v>434</v>
       </c>
       <c r="I61" s="4">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J61" s="4" t="s">
-        <v>187</v>
+        <v>449</v>
       </c>
       <c r="K61" s="4" t="s">
-        <v>187</v>
+        <v>506</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -5196,10 +5722,10 @@
         <v>57</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>259</v>
+        <v>267</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>309</v>
       </c>
       <c r="D62" s="4" t="s">
         <v>79</v>
@@ -5208,22 +5734,22 @@
         <v>83</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>330</v>
+        <v>396</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>344</v>
+        <v>410</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>368</v>
+        <v>434</v>
       </c>
       <c r="I62" s="4">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J62" s="4" t="s">
-        <v>187</v>
+        <v>449</v>
       </c>
       <c r="K62" s="4" t="s">
-        <v>187</v>
+        <v>507</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -5231,10 +5757,10 @@
         <v>58</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>260</v>
+        <v>267</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>308</v>
       </c>
       <c r="D63" s="4" t="s">
         <v>79</v>
@@ -5243,22 +5769,22 @@
         <v>83</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>331</v>
+        <v>397</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>344</v>
+        <v>410</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>368</v>
+        <v>434</v>
       </c>
       <c r="I63" s="4">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J63" s="4" t="s">
-        <v>187</v>
+        <v>449</v>
       </c>
       <c r="K63" s="4" t="s">
-        <v>187</v>
+        <v>508</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -5266,10 +5792,10 @@
         <v>59</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>261</v>
+        <v>267</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>312</v>
       </c>
       <c r="D64" s="4" t="s">
         <v>79</v>
@@ -5278,22 +5804,22 @@
         <v>83</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>332</v>
+        <v>398</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>344</v>
+        <v>410</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>368</v>
+        <v>434</v>
       </c>
       <c r="I64" s="4">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J64" s="4" t="s">
-        <v>187</v>
+        <v>449</v>
       </c>
       <c r="K64" s="4" t="s">
-        <v>187</v>
+        <v>509</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -5301,10 +5827,10 @@
         <v>60</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>201</v>
+        <v>267</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>262</v>
+        <v>328</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>79</v>
@@ -5313,22 +5839,22 @@
         <v>83</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>333</v>
+        <v>399</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>344</v>
+        <v>410</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>368</v>
+        <v>434</v>
       </c>
       <c r="I65" s="4">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J65" s="4" t="s">
-        <v>187</v>
+        <v>449</v>
       </c>
       <c r="K65" s="4" t="s">
-        <v>187</v>
+        <v>510</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -5336,10 +5862,10 @@
         <v>61</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>201</v>
+        <v>267</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>263</v>
+        <v>329</v>
       </c>
       <c r="D66" s="4" t="s">
         <v>79</v>
@@ -5348,22 +5874,22 @@
         <v>83</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>305</v>
+        <v>371</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>344</v>
+        <v>410</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>369</v>
+        <v>435</v>
       </c>
       <c r="I66" s="4">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="J66" s="4" t="s">
-        <v>187</v>
+        <v>449</v>
       </c>
       <c r="K66" s="4" t="s">
-        <v>187</v>
+        <v>511</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -5371,10 +5897,10 @@
         <v>62</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>264</v>
+        <v>267</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>307</v>
       </c>
       <c r="D67" s="4" t="s">
         <v>79</v>
@@ -5383,22 +5909,22 @@
         <v>83</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>329</v>
+        <v>395</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>344</v>
+        <v>410</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>369</v>
+        <v>435</v>
       </c>
       <c r="I67" s="4">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="J67" s="4" t="s">
-        <v>187</v>
+        <v>449</v>
       </c>
       <c r="K67" s="4" t="s">
-        <v>187</v>
+        <v>512</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -5406,10 +5932,10 @@
         <v>63</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>265</v>
+        <v>267</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>303</v>
       </c>
       <c r="D68" s="4" t="s">
         <v>79</v>
@@ -5418,22 +5944,22 @@
         <v>83</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>312</v>
+        <v>378</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>344</v>
+        <v>410</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>369</v>
+        <v>435</v>
       </c>
       <c r="I68" s="4">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="J68" s="4" t="s">
-        <v>187</v>
+        <v>449</v>
       </c>
       <c r="K68" s="4" t="s">
-        <v>187</v>
+        <v>513</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -5441,10 +5967,10 @@
         <v>64</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>266</v>
+        <v>267</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>300</v>
       </c>
       <c r="D69" s="4" t="s">
         <v>79</v>
@@ -5453,22 +5979,22 @@
         <v>83</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>328</v>
+        <v>394</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>344</v>
+        <v>410</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>369</v>
+        <v>435</v>
       </c>
       <c r="I69" s="4">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="J69" s="4" t="s">
-        <v>187</v>
+        <v>449</v>
       </c>
       <c r="K69" s="4" t="s">
-        <v>187</v>
+        <v>514</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -5476,10 +6002,10 @@
         <v>65</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>201</v>
+        <v>267</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>267</v>
+        <v>333</v>
       </c>
       <c r="D70" s="4" t="s">
         <v>79</v>
@@ -5488,22 +6014,22 @@
         <v>83</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>308</v>
+        <v>374</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>345</v>
+        <v>411</v>
       </c>
       <c r="H70" s="4" t="s">
         <v>179</v>
       </c>
       <c r="I70" s="4">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J70" s="4" t="s">
-        <v>187</v>
+        <v>449</v>
       </c>
       <c r="K70" s="4" t="s">
-        <v>187</v>
+        <v>515</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -5511,10 +6037,10 @@
         <v>66</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>201</v>
+        <v>267</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>268</v>
+        <v>334</v>
       </c>
       <c r="D71" s="4" t="s">
         <v>79</v>
@@ -5523,22 +6049,22 @@
         <v>83</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>329</v>
+        <v>395</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>344</v>
+        <v>410</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>370</v>
+        <v>436</v>
       </c>
       <c r="I71" s="4">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="J71" s="4" t="s">
-        <v>187</v>
+        <v>449</v>
       </c>
       <c r="K71" s="4" t="s">
-        <v>187</v>
+        <v>516</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -5546,10 +6072,10 @@
         <v>67</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>201</v>
+        <v>267</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>269</v>
+        <v>335</v>
       </c>
       <c r="D72" s="4" t="s">
         <v>79</v>
@@ -5558,22 +6084,22 @@
         <v>83</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>327</v>
+        <v>393</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>344</v>
+        <v>410</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>370</v>
+        <v>436</v>
       </c>
       <c r="I72" s="4">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="J72" s="4" t="s">
-        <v>187</v>
+        <v>449</v>
       </c>
       <c r="K72" s="4" t="s">
-        <v>187</v>
+        <v>517</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -5581,10 +6107,10 @@
         <v>68</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>270</v>
+        <v>267</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>304</v>
       </c>
       <c r="D73" s="4" t="s">
         <v>79</v>
@@ -5593,22 +6119,22 @@
         <v>83</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>312</v>
+        <v>378</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>344</v>
+        <v>410</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>370</v>
+        <v>436</v>
       </c>
       <c r="I73" s="4">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="J73" s="4" t="s">
-        <v>187</v>
+        <v>449</v>
       </c>
       <c r="K73" s="4" t="s">
-        <v>187</v>
+        <v>518</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -5616,10 +6142,10 @@
         <v>69</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>271</v>
+        <v>267</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>305</v>
       </c>
       <c r="D74" s="4" t="s">
         <v>79</v>
@@ -5628,22 +6154,22 @@
         <v>83</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>333</v>
+        <v>399</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>344</v>
+        <v>410</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>371</v>
+        <v>437</v>
       </c>
       <c r="I74" s="4">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J74" s="4" t="s">
-        <v>187</v>
+        <v>449</v>
       </c>
       <c r="K74" s="4" t="s">
-        <v>187</v>
+        <v>519</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -5651,10 +6177,10 @@
         <v>70</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>272</v>
+        <v>267</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>302</v>
       </c>
       <c r="D75" s="4" t="s">
         <v>79</v>
@@ -5663,22 +6189,22 @@
         <v>83</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>334</v>
+        <v>400</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>344</v>
+        <v>410</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>372</v>
+        <v>438</v>
       </c>
       <c r="I75" s="4">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="J75" s="4" t="s">
-        <v>187</v>
+        <v>449</v>
       </c>
       <c r="K75" s="4" t="s">
-        <v>187</v>
+        <v>520</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -5686,10 +6212,10 @@
         <v>71</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>273</v>
+        <v>268</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>301</v>
       </c>
       <c r="D76" s="4" t="s">
         <v>79</v>
@@ -5698,22 +6224,22 @@
         <v>83</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>335</v>
+        <v>401</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>346</v>
+        <v>412</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>373</v>
+        <v>439</v>
       </c>
       <c r="I76" s="4">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J76" s="4" t="s">
-        <v>187</v>
+        <v>450</v>
       </c>
       <c r="K76" s="4" t="s">
-        <v>187</v>
+        <v>521</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -5723,8 +6249,8 @@
       <c r="B77" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C77" s="4" t="s">
-        <v>274</v>
+      <c r="C77" s="5" t="s">
+        <v>299</v>
       </c>
       <c r="D77" s="4" t="s">
         <v>78</v>
@@ -5733,22 +6259,22 @@
         <v>85</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>312</v>
+        <v>378</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>347</v>
+        <v>413</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>373</v>
+        <v>439</v>
       </c>
       <c r="I77" s="4">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J77" s="4" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="K77" s="4" t="s">
-        <v>187</v>
+        <v>522</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -5759,7 +6285,7 @@
         <v>26</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>275</v>
+        <v>341</v>
       </c>
       <c r="D78" s="4" t="s">
         <v>79</v>
@@ -5768,22 +6294,172 @@
         <v>93</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>307</v>
+        <v>373</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>347</v>
+        <v>413</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>374</v>
+        <v>440</v>
       </c>
       <c r="I78" s="4">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="J78" s="4" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="K78" s="4" t="s">
-        <v>187</v>
+        <v>523</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
+      <c r="C79" s="5" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="81" spans="3:3">
+      <c r="C81" s="5" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="82" spans="3:3">
+      <c r="C82" s="5" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="84" spans="3:3">
+      <c r="C84" s="5" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="85" spans="3:3">
+      <c r="C85" s="5" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="86" spans="3:3">
+      <c r="C86" s="5" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="87" spans="3:3">
+      <c r="C87" s="5" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="88" spans="3:3">
+      <c r="C88" s="5" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="89" spans="3:3">
+      <c r="C89" s="5" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="90" spans="3:3">
+      <c r="C90" s="5" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="91" spans="3:3">
+      <c r="C91" s="5" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="92" spans="3:3">
+      <c r="C92" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="93" spans="3:3">
+      <c r="C93" s="5" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="94" spans="3:3">
+      <c r="C94" s="5" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="96" spans="3:3">
+      <c r="C96" s="5" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="98" spans="3:3">
+      <c r="C98" s="5" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="100" spans="3:3">
+      <c r="C100" s="5" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="101" spans="3:3">
+      <c r="C101" s="5" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="102" spans="3:3">
+      <c r="C102" s="5" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="103" spans="3:3">
+      <c r="C103" s="5" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="104" spans="3:3">
+      <c r="C104" s="5" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="105" spans="3:3">
+      <c r="C105" s="5" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="106" spans="3:3">
+      <c r="C106" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="107" spans="3:3">
+      <c r="C107" s="5" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="108" spans="3:3">
+      <c r="C108" s="5" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="109" spans="3:3">
+      <c r="C109" s="5" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="110" spans="3:3">
+      <c r="C110" s="5" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="111" spans="3:3">
+      <c r="C111" s="5" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="113" spans="3:3">
+      <c r="C113" s="5" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="114" spans="3:3">
+      <c r="C114" s="5" t="s">
+        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -5794,152 +6470,79 @@
     <mergeCell ref="A4:K4"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="J6" r:id="rId1"/>
-    <hyperlink ref="K6" r:id="rId2"/>
-    <hyperlink ref="J7" r:id="rId3"/>
-    <hyperlink ref="K7" r:id="rId4"/>
-    <hyperlink ref="J8" r:id="rId5"/>
-    <hyperlink ref="K8" r:id="rId6"/>
-    <hyperlink ref="J9" r:id="rId7"/>
-    <hyperlink ref="K9" r:id="rId8"/>
-    <hyperlink ref="J10" r:id="rId9"/>
-    <hyperlink ref="K10" r:id="rId10"/>
-    <hyperlink ref="J11" r:id="rId11"/>
-    <hyperlink ref="K11" r:id="rId12"/>
-    <hyperlink ref="J12" r:id="rId13"/>
-    <hyperlink ref="K12" r:id="rId14"/>
-    <hyperlink ref="J13" r:id="rId15"/>
-    <hyperlink ref="K13" r:id="rId16"/>
-    <hyperlink ref="J14" r:id="rId17"/>
-    <hyperlink ref="K14" r:id="rId18"/>
-    <hyperlink ref="J15" r:id="rId19"/>
-    <hyperlink ref="K15" r:id="rId20"/>
-    <hyperlink ref="J16" r:id="rId21"/>
-    <hyperlink ref="K16" r:id="rId22"/>
-    <hyperlink ref="J17" r:id="rId23"/>
-    <hyperlink ref="K17" r:id="rId24"/>
-    <hyperlink ref="J18" r:id="rId25"/>
-    <hyperlink ref="K18" r:id="rId26"/>
-    <hyperlink ref="J19" r:id="rId27"/>
-    <hyperlink ref="K19" r:id="rId28"/>
-    <hyperlink ref="J20" r:id="rId29"/>
-    <hyperlink ref="K20" r:id="rId30"/>
-    <hyperlink ref="J21" r:id="rId31"/>
-    <hyperlink ref="K21" r:id="rId32"/>
-    <hyperlink ref="J22" r:id="rId33"/>
-    <hyperlink ref="K22" r:id="rId34"/>
-    <hyperlink ref="J23" r:id="rId35"/>
-    <hyperlink ref="K23" r:id="rId36"/>
-    <hyperlink ref="J24" r:id="rId37"/>
-    <hyperlink ref="K24" r:id="rId38"/>
-    <hyperlink ref="J25" r:id="rId39"/>
-    <hyperlink ref="K25" r:id="rId40"/>
-    <hyperlink ref="J26" r:id="rId41"/>
-    <hyperlink ref="K26" r:id="rId42"/>
-    <hyperlink ref="J27" r:id="rId43"/>
-    <hyperlink ref="K27" r:id="rId44"/>
-    <hyperlink ref="J28" r:id="rId45"/>
-    <hyperlink ref="K28" r:id="rId46"/>
-    <hyperlink ref="J29" r:id="rId47"/>
-    <hyperlink ref="K29" r:id="rId48"/>
-    <hyperlink ref="J30" r:id="rId49"/>
-    <hyperlink ref="K30" r:id="rId50"/>
-    <hyperlink ref="J31" r:id="rId51"/>
-    <hyperlink ref="K31" r:id="rId52"/>
-    <hyperlink ref="J32" r:id="rId53"/>
-    <hyperlink ref="K32" r:id="rId54"/>
-    <hyperlink ref="J33" r:id="rId55"/>
-    <hyperlink ref="K33" r:id="rId56"/>
-    <hyperlink ref="J34" r:id="rId57"/>
-    <hyperlink ref="K34" r:id="rId58"/>
-    <hyperlink ref="J35" r:id="rId59"/>
-    <hyperlink ref="K35" r:id="rId60"/>
-    <hyperlink ref="J36" r:id="rId61"/>
-    <hyperlink ref="K36" r:id="rId62"/>
-    <hyperlink ref="J37" r:id="rId63"/>
-    <hyperlink ref="K37" r:id="rId64"/>
-    <hyperlink ref="J38" r:id="rId65"/>
-    <hyperlink ref="K38" r:id="rId66"/>
-    <hyperlink ref="J39" r:id="rId67"/>
-    <hyperlink ref="K39" r:id="rId68"/>
-    <hyperlink ref="J40" r:id="rId69"/>
-    <hyperlink ref="K40" r:id="rId70"/>
-    <hyperlink ref="J41" r:id="rId71"/>
-    <hyperlink ref="K41" r:id="rId72"/>
-    <hyperlink ref="J42" r:id="rId73"/>
-    <hyperlink ref="K42" r:id="rId74"/>
-    <hyperlink ref="J43" r:id="rId75"/>
-    <hyperlink ref="K43" r:id="rId76"/>
-    <hyperlink ref="J44" r:id="rId77"/>
-    <hyperlink ref="K44" r:id="rId78"/>
-    <hyperlink ref="J45" r:id="rId79"/>
-    <hyperlink ref="K45" r:id="rId80"/>
-    <hyperlink ref="J46" r:id="rId81"/>
-    <hyperlink ref="K46" r:id="rId82"/>
-    <hyperlink ref="J47" r:id="rId83"/>
-    <hyperlink ref="K47" r:id="rId84"/>
-    <hyperlink ref="J48" r:id="rId85"/>
-    <hyperlink ref="K48" r:id="rId86"/>
-    <hyperlink ref="J49" r:id="rId87"/>
-    <hyperlink ref="K49" r:id="rId88"/>
-    <hyperlink ref="J50" r:id="rId89"/>
-    <hyperlink ref="K50" r:id="rId90"/>
-    <hyperlink ref="J51" r:id="rId91"/>
-    <hyperlink ref="K51" r:id="rId92"/>
-    <hyperlink ref="J52" r:id="rId93"/>
-    <hyperlink ref="K52" r:id="rId94"/>
-    <hyperlink ref="J53" r:id="rId95"/>
-    <hyperlink ref="K53" r:id="rId96"/>
-    <hyperlink ref="J54" r:id="rId97"/>
-    <hyperlink ref="K54" r:id="rId98"/>
-    <hyperlink ref="J55" r:id="rId99"/>
-    <hyperlink ref="K55" r:id="rId100"/>
-    <hyperlink ref="J56" r:id="rId101"/>
-    <hyperlink ref="K56" r:id="rId102"/>
-    <hyperlink ref="J57" r:id="rId103"/>
-    <hyperlink ref="K57" r:id="rId104"/>
-    <hyperlink ref="J58" r:id="rId105"/>
-    <hyperlink ref="K58" r:id="rId106"/>
-    <hyperlink ref="J59" r:id="rId107"/>
-    <hyperlink ref="K59" r:id="rId108"/>
-    <hyperlink ref="J60" r:id="rId109"/>
-    <hyperlink ref="K60" r:id="rId110"/>
-    <hyperlink ref="J61" r:id="rId111"/>
-    <hyperlink ref="K61" r:id="rId112"/>
-    <hyperlink ref="J62" r:id="rId113"/>
-    <hyperlink ref="K62" r:id="rId114"/>
-    <hyperlink ref="J63" r:id="rId115"/>
-    <hyperlink ref="K63" r:id="rId116"/>
-    <hyperlink ref="J64" r:id="rId117"/>
-    <hyperlink ref="K64" r:id="rId118"/>
-    <hyperlink ref="J65" r:id="rId119"/>
-    <hyperlink ref="K65" r:id="rId120"/>
-    <hyperlink ref="J66" r:id="rId121"/>
-    <hyperlink ref="K66" r:id="rId122"/>
-    <hyperlink ref="J67" r:id="rId123"/>
-    <hyperlink ref="K67" r:id="rId124"/>
-    <hyperlink ref="J68" r:id="rId125"/>
-    <hyperlink ref="K68" r:id="rId126"/>
-    <hyperlink ref="J69" r:id="rId127"/>
-    <hyperlink ref="K69" r:id="rId128"/>
-    <hyperlink ref="J70" r:id="rId129"/>
-    <hyperlink ref="K70" r:id="rId130"/>
-    <hyperlink ref="J71" r:id="rId131"/>
-    <hyperlink ref="K71" r:id="rId132"/>
-    <hyperlink ref="J72" r:id="rId133"/>
-    <hyperlink ref="K72" r:id="rId134"/>
-    <hyperlink ref="J73" r:id="rId135"/>
-    <hyperlink ref="K73" r:id="rId136"/>
-    <hyperlink ref="J74" r:id="rId137"/>
-    <hyperlink ref="K74" r:id="rId138"/>
-    <hyperlink ref="J75" r:id="rId139"/>
-    <hyperlink ref="K75" r:id="rId140"/>
-    <hyperlink ref="J76" r:id="rId141"/>
-    <hyperlink ref="K76" r:id="rId142"/>
-    <hyperlink ref="J77" r:id="rId143"/>
-    <hyperlink ref="K77" r:id="rId144"/>
-    <hyperlink ref="J78" r:id="rId145"/>
-    <hyperlink ref="K78" r:id="rId146"/>
+    <hyperlink ref="C5" r:id="rId1"/>
+    <hyperlink ref="C6" r:id="rId2"/>
+    <hyperlink ref="C10" r:id="rId3"/>
+    <hyperlink ref="C11" r:id="rId4"/>
+    <hyperlink ref="C14" r:id="rId5"/>
+    <hyperlink ref="C15" r:id="rId6"/>
+    <hyperlink ref="C17" r:id="rId7"/>
+    <hyperlink ref="C18" r:id="rId8"/>
+    <hyperlink ref="C19" r:id="rId9"/>
+    <hyperlink ref="C23" r:id="rId10"/>
+    <hyperlink ref="C24" r:id="rId11"/>
+    <hyperlink ref="C30" r:id="rId12"/>
+    <hyperlink ref="C31" r:id="rId13"/>
+    <hyperlink ref="C32" r:id="rId14"/>
+    <hyperlink ref="C36" r:id="rId15"/>
+    <hyperlink ref="C37" r:id="rId16"/>
+    <hyperlink ref="C38" r:id="rId17"/>
+    <hyperlink ref="C39" r:id="rId18"/>
+    <hyperlink ref="C40" r:id="rId19"/>
+    <hyperlink ref="C41" r:id="rId20"/>
+    <hyperlink ref="C42" r:id="rId21"/>
+    <hyperlink ref="C44" r:id="rId22"/>
+    <hyperlink ref="C46" r:id="rId23"/>
+    <hyperlink ref="C50" r:id="rId24"/>
+    <hyperlink ref="C51" r:id="rId25"/>
+    <hyperlink ref="C52" r:id="rId26"/>
+    <hyperlink ref="C53" r:id="rId27"/>
+    <hyperlink ref="C54" r:id="rId28"/>
+    <hyperlink ref="C55" r:id="rId29"/>
+    <hyperlink ref="C56" r:id="rId30"/>
+    <hyperlink ref="C60" r:id="rId31"/>
+    <hyperlink ref="C61" r:id="rId32"/>
+    <hyperlink ref="C62" r:id="rId33"/>
+    <hyperlink ref="C63" r:id="rId34"/>
+    <hyperlink ref="C64" r:id="rId35"/>
+    <hyperlink ref="C67" r:id="rId36"/>
+    <hyperlink ref="C68" r:id="rId37"/>
+    <hyperlink ref="C69" r:id="rId38"/>
+    <hyperlink ref="C73" r:id="rId39"/>
+    <hyperlink ref="C74" r:id="rId40"/>
+    <hyperlink ref="C75" r:id="rId41"/>
+    <hyperlink ref="C76" r:id="rId42"/>
+    <hyperlink ref="C77" r:id="rId43"/>
+    <hyperlink ref="C79" r:id="rId44"/>
+    <hyperlink ref="C81" r:id="rId45"/>
+    <hyperlink ref="C82" r:id="rId46"/>
+    <hyperlink ref="C84" r:id="rId47"/>
+    <hyperlink ref="C85" r:id="rId48"/>
+    <hyperlink ref="C86" r:id="rId49"/>
+    <hyperlink ref="C87" r:id="rId50"/>
+    <hyperlink ref="C88" r:id="rId51"/>
+    <hyperlink ref="C89" r:id="rId52"/>
+    <hyperlink ref="C90" r:id="rId53"/>
+    <hyperlink ref="C91" r:id="rId54"/>
+    <hyperlink ref="C92" r:id="rId55"/>
+    <hyperlink ref="C93" r:id="rId56"/>
+    <hyperlink ref="C94" r:id="rId57"/>
+    <hyperlink ref="C96" r:id="rId58"/>
+    <hyperlink ref="C98" r:id="rId59"/>
+    <hyperlink ref="C100" r:id="rId60"/>
+    <hyperlink ref="C101" r:id="rId61"/>
+    <hyperlink ref="C102" r:id="rId62"/>
+    <hyperlink ref="C103" r:id="rId63"/>
+    <hyperlink ref="C104" r:id="rId64"/>
+    <hyperlink ref="C105" r:id="rId65"/>
+    <hyperlink ref="C106" r:id="rId66"/>
+    <hyperlink ref="C107" r:id="rId67"/>
+    <hyperlink ref="C108" r:id="rId68"/>
+    <hyperlink ref="C109" r:id="rId69"/>
+    <hyperlink ref="C110" r:id="rId70"/>
+    <hyperlink ref="C111" r:id="rId71"/>
+    <hyperlink ref="C113" r:id="rId72"/>
+    <hyperlink ref="C114" r:id="rId73"/>
   </hyperlinks>
   <pageMargins left="0" right="0" top="0" bottom="0.7" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape"/>

--- a/controle_contratos/Planilha_Completa.xlsx
+++ b/controle_contratos/Planilha_Completa.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2180" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1612" uniqueCount="373">
   <si>
     <t>Nº</t>
   </si>
@@ -45,12 +45,6 @@
 Vencer</t>
   </si>
   <si>
-    <t>Processo Formatado</t>
-  </si>
-  <si>
-    <t>Contrato Link</t>
-  </si>
-  <si>
     <t>PE 42/2023</t>
   </si>
   <si>
@@ -579,204 +573,6 @@
     <t>14/02/2028</t>
   </si>
   <si>
-    <t>PE_42-2023</t>
-  </si>
-  <si>
-    <t>PE_10-2020</t>
-  </si>
-  <si>
-    <t>PE_02-2021</t>
-  </si>
-  <si>
-    <t>PE_29-2019</t>
-  </si>
-  <si>
-    <t>PE_08-2022</t>
-  </si>
-  <si>
-    <t>PE_09-2021</t>
-  </si>
-  <si>
-    <t>PE_02-2018</t>
-  </si>
-  <si>
-    <t>PE_03-2022</t>
-  </si>
-  <si>
-    <t>TJIL_01-2016</t>
-  </si>
-  <si>
-    <t>PE_31-2023</t>
-  </si>
-  <si>
-    <t>PE_25-2021</t>
-  </si>
-  <si>
-    <t>PE_06-2023</t>
-  </si>
-  <si>
-    <t>PE_01-2023</t>
-  </si>
-  <si>
-    <t>PE_11-2022</t>
-  </si>
-  <si>
-    <t>PE_14-2022</t>
-  </si>
-  <si>
-    <t>PE_08-2023</t>
-  </si>
-  <si>
-    <t>PE_08-2020</t>
-  </si>
-  <si>
-    <t>PE_20-2021</t>
-  </si>
-  <si>
-    <t>TJDL_1002-2023</t>
-  </si>
-  <si>
-    <t>PE_19-2019</t>
-  </si>
-  <si>
-    <t>PE_01-2016</t>
-  </si>
-  <si>
-    <t>TJIL_1004-2023</t>
-  </si>
-  <si>
-    <t>DE_44-2023</t>
-  </si>
-  <si>
-    <t>TJDL_01-2019</t>
-  </si>
-  <si>
-    <t>PE_35-2022</t>
-  </si>
-  <si>
-    <t>PE_02-2022</t>
-  </si>
-  <si>
-    <t>TJIL_01-2017</t>
-  </si>
-  <si>
-    <t>87000_23-104_00</t>
-  </si>
-  <si>
-    <t>87000_21-005_00</t>
-  </si>
-  <si>
-    <t>87000_23-102_00</t>
-  </si>
-  <si>
-    <t>87000_23-106_00</t>
-  </si>
-  <si>
-    <t>87000_22-008_00</t>
-  </si>
-  <si>
-    <t>87000_20-044_00</t>
-  </si>
-  <si>
-    <t>87000_22-009_00</t>
-  </si>
-  <si>
-    <t>87000_21-062_00</t>
-  </si>
-  <si>
-    <t>87000_19-033_00</t>
-  </si>
-  <si>
-    <t>87000_23-051_00</t>
-  </si>
-  <si>
-    <t>87000_21-080_00</t>
-  </si>
-  <si>
-    <t>87000_22-032_00</t>
-  </si>
-  <si>
-    <t>87000_21-085_00</t>
-  </si>
-  <si>
-    <t>87000_21-084_00</t>
-  </si>
-  <si>
-    <t>87000_21-086_00</t>
-  </si>
-  <si>
-    <t>87000_23-073_00</t>
-  </si>
-  <si>
-    <t>87000_21-120_00</t>
-  </si>
-  <si>
-    <t>87000_21-135_00</t>
-  </si>
-  <si>
-    <t>87000_23-083_00</t>
-  </si>
-  <si>
-    <t>87000_23-087_00</t>
-  </si>
-  <si>
-    <t>87000_21-140_00</t>
-  </si>
-  <si>
-    <t>87000_23-099_00</t>
-  </si>
-  <si>
-    <t>87000_23-088_00</t>
-  </si>
-  <si>
-    <t>87000_20-082_00</t>
-  </si>
-  <si>
-    <t>87000_20-080_00</t>
-  </si>
-  <si>
-    <t>87000_21-154_00</t>
-  </si>
-  <si>
-    <t>87000_23-071_00</t>
-  </si>
-  <si>
-    <t>87000_19-057_00</t>
-  </si>
-  <si>
-    <t>87000_19-059_00</t>
-  </si>
-  <si>
-    <t>87000_19-058_00</t>
-  </si>
-  <si>
-    <t>87000_21-156_00</t>
-  </si>
-  <si>
-    <t>87000_23-121_00</t>
-  </si>
-  <si>
-    <t>87000_23-115_00</t>
-  </si>
-  <si>
-    <t>87000_17-1532_00</t>
-  </si>
-  <si>
-    <t>87000_17-1531_00</t>
-  </si>
-  <si>
-    <t>87000_23-108_00</t>
-  </si>
-  <si>
-    <t>87000_22-099_00</t>
-  </si>
-  <si>
-    <t>87000_22-007_00</t>
-  </si>
-  <si>
-    <t>87000_18-100_00</t>
-  </si>
-  <si>
     <t>Centro de Intendência da Marinha em Brasília</t>
   </si>
   <si>
@@ -792,9 +588,6 @@
     <t>Ata</t>
   </si>
   <si>
-    <t>Ata Link</t>
-  </si>
-  <si>
     <t>PE 01/2022</t>
   </si>
   <si>
@@ -1339,255 +1132,6 @@
   </si>
   <si>
     <t>23/02/2025</t>
-  </si>
-  <si>
-    <t>PE_01-2022</t>
-  </si>
-  <si>
-    <t>PE_20-2022</t>
-  </si>
-  <si>
-    <t>PE_20-2023</t>
-  </si>
-  <si>
-    <t>PE_02-2023</t>
-  </si>
-  <si>
-    <t>PE_03-2023</t>
-  </si>
-  <si>
-    <t>PE_15-2021</t>
-  </si>
-  <si>
-    <t>PE_26-2023</t>
-  </si>
-  <si>
-    <t>PE_52-2023</t>
-  </si>
-  <si>
-    <t>PE_05-2023</t>
-  </si>
-  <si>
-    <t>PE_22-2023</t>
-  </si>
-  <si>
-    <t>87000_23-038_00</t>
-  </si>
-  <si>
-    <t>87000_23-039_00</t>
-  </si>
-  <si>
-    <t>87000_23-046_00</t>
-  </si>
-  <si>
-    <t>87000_23-031_00</t>
-  </si>
-  <si>
-    <t>87000_23-040_00</t>
-  </si>
-  <si>
-    <t>87000_23-041_00</t>
-  </si>
-  <si>
-    <t>87000_23-035_00</t>
-  </si>
-  <si>
-    <t>87000_23-045_00</t>
-  </si>
-  <si>
-    <t>87000_23-044_00</t>
-  </si>
-  <si>
-    <t>87000_23-043_00</t>
-  </si>
-  <si>
-    <t>87000_23-034_00</t>
-  </si>
-  <si>
-    <t>87000_23-042_00</t>
-  </si>
-  <si>
-    <t>87000_23-036_00</t>
-  </si>
-  <si>
-    <t>87000_23-032_00</t>
-  </si>
-  <si>
-    <t>87000_23-033_00</t>
-  </si>
-  <si>
-    <t>87000_23-019_00</t>
-  </si>
-  <si>
-    <t>87000_23-048_00</t>
-  </si>
-  <si>
-    <t>87000_23-056_00</t>
-  </si>
-  <si>
-    <t>87000_23-057_00</t>
-  </si>
-  <si>
-    <t>87000_23-055_00</t>
-  </si>
-  <si>
-    <t>87000_23-049_00</t>
-  </si>
-  <si>
-    <t>87000_23-053_00</t>
-  </si>
-  <si>
-    <t>87000_23-052_00</t>
-  </si>
-  <si>
-    <t>87000_23-022_00</t>
-  </si>
-  <si>
-    <t>87000_23-054_00</t>
-  </si>
-  <si>
-    <t>87000_23-037_00</t>
-  </si>
-  <si>
-    <t>87000_23-050_00</t>
-  </si>
-  <si>
-    <t>87000_23-062_00</t>
-  </si>
-  <si>
-    <t>87000_23-064_00</t>
-  </si>
-  <si>
-    <t>87000_23-061_00</t>
-  </si>
-  <si>
-    <t>87000_23-063_00</t>
-  </si>
-  <si>
-    <t>87000_23-069_00</t>
-  </si>
-  <si>
-    <t>87000_23-066_00</t>
-  </si>
-  <si>
-    <t>87000_23-068_00</t>
-  </si>
-  <si>
-    <t>87000_23-070_00</t>
-  </si>
-  <si>
-    <t>87000_23-067_00</t>
-  </si>
-  <si>
-    <t>87000_23-065_00</t>
-  </si>
-  <si>
-    <t>87000_21-109_00</t>
-  </si>
-  <si>
-    <t>87000_23-072_00</t>
-  </si>
-  <si>
-    <t>87000_23-076_00</t>
-  </si>
-  <si>
-    <t>87000_23-074_00</t>
-  </si>
-  <si>
-    <t>87000_23-082_00</t>
-  </si>
-  <si>
-    <t>87000_23-081_00</t>
-  </si>
-  <si>
-    <t>87000_23-077_00</t>
-  </si>
-  <si>
-    <t>87000_23-079_00</t>
-  </si>
-  <si>
-    <t>87000_23-075_00</t>
-  </si>
-  <si>
-    <t>87000_23-078_00</t>
-  </si>
-  <si>
-    <t>87000_23-084_00</t>
-  </si>
-  <si>
-    <t>87000_23-085_00</t>
-  </si>
-  <si>
-    <t>87000_23-086_00</t>
-  </si>
-  <si>
-    <t>87000_23-080_00</t>
-  </si>
-  <si>
-    <t>87000_23-091_00</t>
-  </si>
-  <si>
-    <t>87000_23-098_00</t>
-  </si>
-  <si>
-    <t>87000_23-096_00</t>
-  </si>
-  <si>
-    <t>87000_23-095_00</t>
-  </si>
-  <si>
-    <t>87000_23-092_00</t>
-  </si>
-  <si>
-    <t>87000_23-093_00</t>
-  </si>
-  <si>
-    <t>87000_23-090_00</t>
-  </si>
-  <si>
-    <t>87000_23-089_00</t>
-  </si>
-  <si>
-    <t>87000_23-094_00</t>
-  </si>
-  <si>
-    <t>87000_23-109_00</t>
-  </si>
-  <si>
-    <t>87000_23-111_00</t>
-  </si>
-  <si>
-    <t>87000_23-112_00</t>
-  </si>
-  <si>
-    <t>87000_23-110_00</t>
-  </si>
-  <si>
-    <t>87000_23-113_00</t>
-  </si>
-  <si>
-    <t>87000_23-119_00</t>
-  </si>
-  <si>
-    <t>87000_23-118_00</t>
-  </si>
-  <si>
-    <t>87000_23-120_00</t>
-  </si>
-  <si>
-    <t>87000_23-116_00</t>
-  </si>
-  <si>
-    <t>87000_23-117_00</t>
-  </si>
-  <si>
-    <t>87000_23-122_00</t>
-  </si>
-  <si>
-    <t>87000_24-003_00</t>
-  </si>
-  <si>
-    <t>87000_24-002_00</t>
   </si>
   <si>
     <t>Controle de Atas de Registro de Preços - 2024</t>
@@ -1597,7 +1141,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1636,13 +1180,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1683,14 +1220,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1704,10 +1237,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2003,7 +1534,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K116"/>
+  <dimension ref="A1:K44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2023,7 +1554,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="20" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>253</v>
+        <v>185</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2038,7 +1569,7 @@
     </row>
     <row r="2" spans="1:11" ht="30" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>254</v>
+        <v>186</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -2053,7 +1584,7 @@
     </row>
     <row r="3" spans="1:11" ht="30" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>255</v>
+        <v>187</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2068,7 +1599,7 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="2" t="s">
-        <v>256</v>
+        <v>188</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -2109,46 +1640,34 @@
       <c r="I5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="4">
         <v>1</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="I6" s="4">
         <v>-9</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -2156,34 +1675,28 @@
         <v>2</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>71</v>
+        <v>10</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I7" s="4">
         <v>-6</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -2191,34 +1704,28 @@
         <v>3</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>72</v>
+        <v>9</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I8" s="4">
         <v>5</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -2226,34 +1733,28 @@
         <v>4</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>42</v>
+        <v>9</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I9" s="4">
         <v>9</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -2261,34 +1762,28 @@
         <v>5</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I10" s="4">
         <v>21</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -2296,34 +1791,28 @@
         <v>6</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I11" s="4">
         <v>30</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -2331,34 +1820,28 @@
         <v>7</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>69</v>
+        <v>13</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="I12" s="4">
         <v>46</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -2366,34 +1849,28 @@
         <v>8</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>70</v>
+        <v>14</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I13" s="4">
         <v>58</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -2401,34 +1878,28 @@
         <v>9</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I14" s="4">
         <v>77</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="K14" s="4" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -2436,34 +1907,28 @@
         <v>10</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="I15" s="4">
         <v>78</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="K15" s="4" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -2471,1119 +1936,840 @@
         <v>11</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>41</v>
+        <v>17</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I16" s="4">
         <v>134</v>
       </c>
-      <c r="J16" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="K16" s="4" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="4">
         <v>12</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I17" s="4">
         <v>134</v>
       </c>
-      <c r="J17" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="K17" s="4" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="4">
         <v>13</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I18" s="4">
         <v>145</v>
       </c>
-      <c r="J18" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="K18" s="4" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="4">
         <v>14</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I19" s="4">
         <v>145</v>
       </c>
-      <c r="J19" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="K19" s="4" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="4">
         <v>15</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>40</v>
+        <v>19</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I20" s="4">
         <v>145</v>
       </c>
-      <c r="J20" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="K20" s="4" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="4">
         <v>16</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>68</v>
+        <v>20</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="I21" s="4">
         <v>155</v>
       </c>
-      <c r="J21" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="K21" s="4" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="4">
         <v>17</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>67</v>
+        <v>17</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I22" s="4">
         <v>160</v>
       </c>
-      <c r="J22" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="K22" s="4" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="4">
         <v>18</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="I23" s="4">
         <v>170</v>
       </c>
-      <c r="J23" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="K23" s="4" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="4">
         <v>19</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="I24" s="4">
         <v>176</v>
       </c>
-      <c r="J24" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="K24" s="4" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="4">
         <v>20</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>66</v>
+        <v>22</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I25" s="4">
         <v>222</v>
       </c>
-      <c r="J25" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="K25" s="4" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="4">
         <v>21</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>65</v>
+        <v>17</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I26" s="4">
         <v>223</v>
       </c>
-      <c r="J26" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="K26" s="4" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="4">
         <v>22</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>64</v>
+        <v>23</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="I27" s="4">
         <v>249</v>
       </c>
-      <c r="J27" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="K27" s="4" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="4">
         <v>23</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>63</v>
+        <v>24</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>58</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="I28" s="4">
         <v>256</v>
       </c>
-      <c r="J28" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="K28" s="4" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="4">
         <v>24</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>44</v>
+        <v>25</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>59</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I29" s="4">
         <v>265</v>
       </c>
-      <c r="J29" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="K29" s="4" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="4">
         <v>25</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I30" s="4">
         <v>265</v>
       </c>
-      <c r="J30" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="K30" s="4" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="4">
         <v>26</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="I31" s="4">
         <v>271</v>
       </c>
-      <c r="J31" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="K31" s="4" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="4">
         <v>27</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="I32" s="4">
         <v>273</v>
       </c>
-      <c r="J32" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="K32" s="4" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="4">
         <v>28</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>38</v>
+        <v>28</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I33" s="4">
         <v>275</v>
       </c>
-      <c r="J33" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="K33" s="4" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="4">
         <v>29</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>61</v>
+        <v>28</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I34" s="4">
         <v>275</v>
       </c>
-      <c r="J34" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="K34" s="4" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="4">
         <v>30</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>62</v>
+        <v>28</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>65</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I35" s="4">
         <v>275</v>
       </c>
-      <c r="J35" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="K35" s="4" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="4">
         <v>31</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I36" s="4">
         <v>275</v>
       </c>
-      <c r="J36" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="K36" s="4" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="4">
         <v>32</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I37" s="4">
         <v>278</v>
       </c>
-      <c r="J37" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="K37" s="4" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="4">
         <v>33</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="I38" s="4">
         <v>286</v>
       </c>
-      <c r="J38" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="K38" s="4" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="4">
         <v>34</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="I39" s="4">
         <v>346</v>
       </c>
-      <c r="J39" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="K39" s="4" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="4">
         <v>35</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="I40" s="4">
         <v>346</v>
       </c>
-      <c r="J40" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="K40" s="4" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="4">
         <v>36</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I41" s="4">
         <v>620</v>
       </c>
-      <c r="J41" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="K41" s="4" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11">
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="4">
         <v>37</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I42" s="4">
         <v>744</v>
       </c>
-      <c r="J42" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="K42" s="4" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11">
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="4">
         <v>38</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>60</v>
+        <v>34</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I43" s="4">
         <v>744</v>
       </c>
-      <c r="J43" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="K43" s="4" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11">
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="4">
         <v>39</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="I44" s="4">
         <v>1437</v>
-      </c>
-      <c r="J44" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="K44" s="4" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11">
-      <c r="C45" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11">
-      <c r="C47" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11">
-      <c r="C48" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="49" spans="3:3">
-      <c r="C49" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="57" spans="3:3">
-      <c r="C57" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="58" spans="3:3">
-      <c r="C58" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="59" spans="3:3">
-      <c r="C59" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="65" spans="3:3">
-      <c r="C65" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="66" spans="3:3">
-      <c r="C66" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="70" spans="3:3">
-      <c r="C70" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="71" spans="3:3">
-      <c r="C71" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="72" spans="3:3">
-      <c r="C72" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="78" spans="3:3">
-      <c r="C78" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="80" spans="3:3">
-      <c r="C80" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="83" spans="3:3">
-      <c r="C83" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="95" spans="3:3">
-      <c r="C95" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="97" spans="3:3">
-      <c r="C97" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="99" spans="3:3">
-      <c r="C99" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="112" spans="3:3">
-      <c r="C112" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="115" spans="3:3">
-      <c r="C115" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="116" spans="3:3">
-      <c r="C116" s="5" t="s">
-        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -3593,47 +2779,6 @@
     <mergeCell ref="A3:K3"/>
     <mergeCell ref="A4:K4"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="C7" r:id="rId1"/>
-    <hyperlink ref="C8" r:id="rId2"/>
-    <hyperlink ref="C9" r:id="rId3"/>
-    <hyperlink ref="C12" r:id="rId4"/>
-    <hyperlink ref="C13" r:id="rId5"/>
-    <hyperlink ref="C16" r:id="rId6"/>
-    <hyperlink ref="C20" r:id="rId7"/>
-    <hyperlink ref="C21" r:id="rId8"/>
-    <hyperlink ref="C22" r:id="rId9"/>
-    <hyperlink ref="C25" r:id="rId10"/>
-    <hyperlink ref="C26" r:id="rId11"/>
-    <hyperlink ref="C27" r:id="rId12"/>
-    <hyperlink ref="C28" r:id="rId13"/>
-    <hyperlink ref="C29" r:id="rId14"/>
-    <hyperlink ref="C33" r:id="rId15"/>
-    <hyperlink ref="C34" r:id="rId16"/>
-    <hyperlink ref="C35" r:id="rId17"/>
-    <hyperlink ref="C43" r:id="rId18"/>
-    <hyperlink ref="C45" r:id="rId19"/>
-    <hyperlink ref="C47" r:id="rId20"/>
-    <hyperlink ref="C48" r:id="rId21"/>
-    <hyperlink ref="C49" r:id="rId22"/>
-    <hyperlink ref="C57" r:id="rId23"/>
-    <hyperlink ref="C58" r:id="rId24"/>
-    <hyperlink ref="C59" r:id="rId25"/>
-    <hyperlink ref="C65" r:id="rId26"/>
-    <hyperlink ref="C66" r:id="rId27"/>
-    <hyperlink ref="C70" r:id="rId28"/>
-    <hyperlink ref="C71" r:id="rId29"/>
-    <hyperlink ref="C72" r:id="rId30"/>
-    <hyperlink ref="C78" r:id="rId31"/>
-    <hyperlink ref="C80" r:id="rId32"/>
-    <hyperlink ref="C83" r:id="rId33"/>
-    <hyperlink ref="C95" r:id="rId34"/>
-    <hyperlink ref="C97" r:id="rId35"/>
-    <hyperlink ref="C99" r:id="rId36"/>
-    <hyperlink ref="C112" r:id="rId37"/>
-    <hyperlink ref="C115" r:id="rId38"/>
-    <hyperlink ref="C116" r:id="rId39"/>
-  </hyperlinks>
   <pageMargins left="0" right="0" top="0" bottom="0.7" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape"/>
 </worksheet>
@@ -3644,7 +2789,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K114"/>
+  <dimension ref="A1:K78"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3664,7 +2809,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="20" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>253</v>
+        <v>185</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3679,7 +2824,7 @@
     </row>
     <row r="2" spans="1:11" ht="30" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>254</v>
+        <v>186</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -3694,7 +2839,7 @@
     </row>
     <row r="3" spans="1:11" ht="30" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>524</v>
+        <v>372</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -3709,7 +2854,7 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="2" t="s">
-        <v>256</v>
+        <v>188</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -3729,8 +2874,8 @@
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>341</v>
+      <c r="C5" s="3" t="s">
+        <v>189</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>3</v>
@@ -3749,12 +2894,6 @@
       </c>
       <c r="I5" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -3762,34 +2901,28 @@
         <v>1</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>306</v>
+        <v>190</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>200</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F6" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>345</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>402</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>414</v>
       </c>
       <c r="I6" s="4">
         <v>20</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>441</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -3797,34 +2930,28 @@
         <v>2</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>259</v>
+        <v>190</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>270</v>
+        <v>201</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>346</v>
+        <v>277</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>403</v>
+        <v>334</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>414</v>
+        <v>345</v>
       </c>
       <c r="I7" s="4">
         <v>20</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>441</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -3832,34 +2959,28 @@
         <v>3</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>260</v>
+        <v>191</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>271</v>
+        <v>202</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>343</v>
+        <v>274</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>347</v>
+        <v>278</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>404</v>
+        <v>335</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>415</v>
+        <v>346</v>
       </c>
       <c r="I8" s="4">
         <v>33</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -3867,34 +2988,28 @@
         <v>4</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>260</v>
+        <v>191</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>272</v>
+        <v>203</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>343</v>
+        <v>274</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>348</v>
+        <v>279</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>404</v>
+        <v>335</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>416</v>
+        <v>347</v>
       </c>
       <c r="I9" s="4">
         <v>67</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -3902,34 +3017,28 @@
         <v>5</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>340</v>
+        <v>191</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>204</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>343</v>
+        <v>274</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>349</v>
+        <v>280</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>404</v>
+        <v>335</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>416</v>
+        <v>347</v>
       </c>
       <c r="I10" s="4">
         <v>67</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -3937,34 +3046,28 @@
         <v>6</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>339</v>
+        <v>191</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>205</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>343</v>
+        <v>274</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>350</v>
+        <v>281</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>404</v>
+        <v>335</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>416</v>
+        <v>347</v>
       </c>
       <c r="I11" s="4">
         <v>67</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -3972,34 +3075,28 @@
         <v>7</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>260</v>
+        <v>191</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>275</v>
+        <v>206</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>343</v>
+        <v>274</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>351</v>
+        <v>282</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>404</v>
+        <v>335</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>416</v>
+        <v>347</v>
       </c>
       <c r="I12" s="4">
         <v>67</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -4007,34 +3104,28 @@
         <v>8</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>260</v>
+        <v>191</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>276</v>
+        <v>207</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>343</v>
+        <v>274</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>352</v>
+        <v>283</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>404</v>
+        <v>335</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>416</v>
+        <v>347</v>
       </c>
       <c r="I13" s="4">
         <v>67</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -4042,34 +3133,28 @@
         <v>9</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>338</v>
+        <v>191</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>208</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>343</v>
+        <v>274</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>353</v>
+        <v>284</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>404</v>
+        <v>335</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>416</v>
+        <v>347</v>
       </c>
       <c r="I14" s="4">
         <v>67</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="K14" s="4" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -4077,34 +3162,28 @@
         <v>10</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>337</v>
+        <v>191</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>209</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>343</v>
+        <v>274</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>354</v>
+        <v>285</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>404</v>
+        <v>335</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>416</v>
+        <v>347</v>
       </c>
       <c r="I15" s="4">
         <v>67</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="K15" s="4" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -4112,2354 +3191,1826 @@
         <v>11</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>260</v>
+        <v>191</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>279</v>
+        <v>210</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>343</v>
+        <v>274</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>355</v>
+        <v>286</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>404</v>
+        <v>335</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>416</v>
+        <v>347</v>
       </c>
       <c r="I16" s="4">
         <v>67</v>
       </c>
-      <c r="J16" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="K16" s="4" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="4">
         <v>12</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>336</v>
+        <v>191</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>211</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>343</v>
+        <v>274</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>356</v>
+        <v>287</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>404</v>
+        <v>335</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>416</v>
+        <v>347</v>
       </c>
       <c r="I17" s="4">
         <v>67</v>
       </c>
-      <c r="J17" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="K17" s="4" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="4">
         <v>13</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>334</v>
+        <v>191</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>212</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>343</v>
+        <v>274</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>357</v>
+        <v>288</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>404</v>
+        <v>335</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>417</v>
+        <v>348</v>
       </c>
       <c r="I18" s="4">
         <v>68</v>
       </c>
-      <c r="J18" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="K18" s="4" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="4">
         <v>14</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="C19" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="G19" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>404</v>
-      </c>
       <c r="H19" s="4" t="s">
-        <v>417</v>
+        <v>348</v>
       </c>
       <c r="I19" s="4">
         <v>68</v>
       </c>
-      <c r="J19" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="K19" s="4" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="4">
         <v>15</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>260</v>
+        <v>191</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>283</v>
+        <v>214</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>343</v>
+        <v>274</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>359</v>
+        <v>290</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>404</v>
+        <v>335</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>418</v>
+        <v>349</v>
       </c>
       <c r="I20" s="4">
         <v>69</v>
       </c>
-      <c r="J20" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="K20" s="4" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="4">
         <v>16</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>284</v>
+        <v>215</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>360</v>
+        <v>291</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>419</v>
+        <v>350</v>
       </c>
       <c r="I21" s="4">
         <v>74</v>
       </c>
-      <c r="J21" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="K21" s="4" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="4">
         <v>17</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>285</v>
+        <v>216</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>405</v>
+        <v>336</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="I22" s="4">
         <v>78</v>
       </c>
-      <c r="J22" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="K22" s="4" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="4">
         <v>18</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>332</v>
+        <v>16</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>217</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>361</v>
+        <v>292</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>420</v>
+        <v>351</v>
       </c>
       <c r="I23" s="4">
         <v>90</v>
       </c>
-      <c r="J23" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="K23" s="4" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="4">
         <v>19</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>333</v>
+        <v>16</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>218</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>362</v>
+        <v>293</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>420</v>
+        <v>351</v>
       </c>
       <c r="I24" s="4">
         <v>90</v>
       </c>
-      <c r="J24" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="K24" s="4" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="4">
         <v>20</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>288</v>
+        <v>219</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>363</v>
+        <v>294</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>420</v>
+        <v>351</v>
       </c>
       <c r="I25" s="4">
         <v>90</v>
       </c>
-      <c r="J25" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="K25" s="4" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="4">
         <v>21</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>289</v>
+        <v>220</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>364</v>
+        <v>295</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>420</v>
+        <v>351</v>
       </c>
       <c r="I26" s="4">
         <v>90</v>
       </c>
-      <c r="J26" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="K26" s="4" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="4">
         <v>22</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>290</v>
+        <v>221</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>365</v>
+        <v>296</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>420</v>
+        <v>351</v>
       </c>
       <c r="I27" s="4">
         <v>90</v>
       </c>
-      <c r="J27" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="K27" s="4" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="4">
         <v>23</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>291</v>
+        <v>222</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>366</v>
+        <v>297</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>420</v>
+        <v>351</v>
       </c>
       <c r="I28" s="4">
         <v>90</v>
       </c>
-      <c r="J28" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="K28" s="4" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="4">
         <v>24</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>292</v>
+        <v>223</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>367</v>
+        <v>298</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>420</v>
+        <v>351</v>
       </c>
       <c r="I29" s="4">
         <v>90</v>
       </c>
-      <c r="J29" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="K29" s="4" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="4">
         <v>25</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>331</v>
+        <v>16</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>224</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>368</v>
+        <v>299</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>420</v>
+        <v>351</v>
       </c>
       <c r="I30" s="4">
         <v>90</v>
       </c>
-      <c r="J30" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="K30" s="4" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="4">
         <v>26</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>330</v>
+        <v>192</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>225</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>343</v>
+        <v>274</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>369</v>
+        <v>300</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>404</v>
+        <v>335</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>421</v>
+        <v>352</v>
       </c>
       <c r="I31" s="4">
         <v>95</v>
       </c>
-      <c r="J31" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="K31" s="4" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="4">
         <v>27</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>329</v>
+        <v>193</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>226</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>370</v>
+        <v>301</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>422</v>
+        <v>353</v>
       </c>
       <c r="I32" s="4">
         <v>98</v>
       </c>
-      <c r="J32" s="4" t="s">
-        <v>444</v>
-      </c>
-      <c r="K32" s="4" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="4">
         <v>28</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>263</v>
+        <v>194</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>296</v>
+        <v>227</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>371</v>
+        <v>302</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>406</v>
+        <v>337</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>423</v>
+        <v>354</v>
       </c>
       <c r="I33" s="4">
         <v>105</v>
       </c>
-      <c r="J33" s="4" t="s">
-        <v>445</v>
-      </c>
-      <c r="K33" s="4" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="4">
         <v>29</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>263</v>
+        <v>194</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>297</v>
+        <v>228</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>372</v>
+        <v>303</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>406</v>
+        <v>337</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>423</v>
+        <v>354</v>
       </c>
       <c r="I34" s="4">
         <v>105</v>
       </c>
-      <c r="J34" s="4" t="s">
-        <v>445</v>
-      </c>
-      <c r="K34" s="4" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="4">
         <v>30</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>263</v>
+        <v>194</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>298</v>
+        <v>229</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>373</v>
+        <v>304</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>406</v>
+        <v>337</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>423</v>
+        <v>354</v>
       </c>
       <c r="I35" s="4">
         <v>105</v>
       </c>
-      <c r="J35" s="4" t="s">
-        <v>445</v>
-      </c>
-      <c r="K35" s="4" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="4">
         <v>31</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>322</v>
+        <v>194</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>230</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>374</v>
+        <v>305</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>406</v>
+        <v>337</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>423</v>
+        <v>354</v>
       </c>
       <c r="I36" s="4">
         <v>105</v>
       </c>
-      <c r="J36" s="4" t="s">
-        <v>445</v>
-      </c>
-      <c r="K36" s="4" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="4">
         <v>32</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>323</v>
+        <v>193</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>231</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>375</v>
+        <v>306</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>407</v>
+        <v>338</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>424</v>
+        <v>355</v>
       </c>
       <c r="I37" s="4">
         <v>124</v>
       </c>
-      <c r="J37" s="4" t="s">
-        <v>444</v>
-      </c>
-      <c r="K37" s="4" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="4">
         <v>33</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>328</v>
+        <v>193</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>232</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>376</v>
+        <v>307</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>407</v>
+        <v>338</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>424</v>
+        <v>355</v>
       </c>
       <c r="I38" s="4">
         <v>124</v>
       </c>
-      <c r="J38" s="4" t="s">
-        <v>444</v>
-      </c>
-      <c r="K38" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="4">
         <v>34</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>325</v>
+        <v>193</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>233</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>377</v>
+        <v>308</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>407</v>
+        <v>338</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>424</v>
+        <v>355</v>
       </c>
       <c r="I39" s="4">
         <v>124</v>
       </c>
-      <c r="J39" s="4" t="s">
-        <v>444</v>
-      </c>
-      <c r="K39" s="4" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="4">
         <v>35</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>324</v>
+        <v>193</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>234</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>378</v>
+        <v>309</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>407</v>
+        <v>338</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>424</v>
+        <v>355</v>
       </c>
       <c r="I40" s="4">
         <v>124</v>
       </c>
-      <c r="J40" s="4" t="s">
-        <v>444</v>
-      </c>
-      <c r="K40" s="4" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="4">
         <v>36</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>326</v>
+        <v>193</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>235</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>370</v>
+        <v>301</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>407</v>
+        <v>338</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>425</v>
+        <v>356</v>
       </c>
       <c r="I41" s="4">
         <v>133</v>
       </c>
-      <c r="J41" s="4" t="s">
-        <v>444</v>
-      </c>
-      <c r="K41" s="4" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11">
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="4">
         <v>37</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>327</v>
+        <v>193</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>236</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>373</v>
+        <v>304</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>407</v>
+        <v>338</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>425</v>
+        <v>356</v>
       </c>
       <c r="I42" s="4">
         <v>133</v>
       </c>
-      <c r="J42" s="4" t="s">
-        <v>444</v>
-      </c>
-      <c r="K42" s="4" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11">
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="4">
         <v>38</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>264</v>
+        <v>195</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>306</v>
+        <v>237</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>379</v>
+        <v>310</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>408</v>
+        <v>339</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>426</v>
+        <v>357</v>
       </c>
       <c r="I43" s="4">
         <v>148</v>
       </c>
-      <c r="J43" s="4" t="s">
-        <v>446</v>
-      </c>
-      <c r="K43" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11">
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="4">
         <v>39</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>320</v>
+        <v>20</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>238</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="I44" s="4">
         <v>155</v>
       </c>
-      <c r="J44" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="K44" s="4" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11">
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="4">
         <v>40</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>308</v>
+        <v>239</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>380</v>
+        <v>311</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>427</v>
+        <v>358</v>
       </c>
       <c r="I45" s="4">
         <v>172</v>
       </c>
-      <c r="J45" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="K45" s="4" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11">
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="4">
         <v>41</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>321</v>
+        <v>23</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>240</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>381</v>
+        <v>312</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>427</v>
+        <v>358</v>
       </c>
       <c r="I46" s="4">
         <v>172</v>
       </c>
-      <c r="J46" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="K46" s="4" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11">
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="4">
         <v>42</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>310</v>
+        <v>241</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>382</v>
+        <v>313</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>427</v>
+        <v>358</v>
       </c>
       <c r="I47" s="4">
         <v>172</v>
       </c>
-      <c r="J47" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="K47" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11">
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="4">
         <v>43</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>311</v>
+        <v>242</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>383</v>
+        <v>314</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>427</v>
+        <v>358</v>
       </c>
       <c r="I48" s="4">
         <v>172</v>
       </c>
-      <c r="J48" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="K48" s="4" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11">
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="4">
         <v>44</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>312</v>
+        <v>243</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>344</v>
+        <v>275</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>384</v>
+        <v>315</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>427</v>
+        <v>358</v>
       </c>
       <c r="I49" s="4">
         <v>172</v>
       </c>
-      <c r="J49" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="K49" s="4" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11">
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="4">
         <v>45</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>318</v>
+        <v>23</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>244</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>428</v>
+        <v>359</v>
       </c>
       <c r="I50" s="4">
         <v>186</v>
       </c>
-      <c r="J50" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="K50" s="4" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11">
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="4">
         <v>46</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>317</v>
+        <v>23</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>245</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>385</v>
+        <v>316</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>429</v>
+        <v>360</v>
       </c>
       <c r="I51" s="4">
         <v>188</v>
       </c>
-      <c r="J51" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="K51" s="4" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11">
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="4">
         <v>47</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>316</v>
+        <v>23</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>246</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>386</v>
+        <v>317</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>429</v>
+        <v>360</v>
       </c>
       <c r="I52" s="4">
         <v>188</v>
       </c>
-      <c r="J52" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="K52" s="4" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11">
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="4">
         <v>48</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>319</v>
+        <v>23</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>247</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>387</v>
+        <v>318</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>430</v>
+        <v>361</v>
       </c>
       <c r="I53" s="4">
         <v>190</v>
       </c>
-      <c r="J53" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="K53" s="4" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11">
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="4">
         <v>49</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>313</v>
+        <v>23</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>248</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>388</v>
+        <v>319</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>430</v>
+        <v>361</v>
       </c>
       <c r="I54" s="4">
         <v>190</v>
       </c>
-      <c r="J54" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="K54" s="4" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11">
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="4">
         <v>50</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>315</v>
+        <v>23</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>249</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>389</v>
+        <v>320</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>430</v>
+        <v>361</v>
       </c>
       <c r="I55" s="4">
         <v>190</v>
       </c>
-      <c r="J55" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="K55" s="4" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11">
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="4">
         <v>51</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>314</v>
+        <v>23</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>250</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>390</v>
+        <v>321</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>431</v>
+        <v>362</v>
       </c>
       <c r="I56" s="4">
         <v>194</v>
       </c>
-      <c r="J56" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="K56" s="4" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11">
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="4">
         <v>52</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>265</v>
+        <v>196</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>320</v>
+        <v>251</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>342</v>
+        <v>273</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>391</v>
+        <v>322</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>409</v>
+        <v>340</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>432</v>
+        <v>363</v>
       </c>
       <c r="I57" s="4">
         <v>246</v>
       </c>
-      <c r="J57" s="4" t="s">
-        <v>447</v>
-      </c>
-      <c r="K57" s="4" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11">
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="4">
         <v>53</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>266</v>
+        <v>197</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>321</v>
+        <v>252</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>392</v>
+        <v>323</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>433</v>
+        <v>364</v>
       </c>
       <c r="I58" s="4">
         <v>250</v>
       </c>
-      <c r="J58" s="4" t="s">
-        <v>448</v>
-      </c>
-      <c r="K58" s="4" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11">
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="4">
         <v>54</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>267</v>
+        <v>198</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>322</v>
+        <v>253</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>393</v>
+        <v>324</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>410</v>
+        <v>341</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>434</v>
+        <v>365</v>
       </c>
       <c r="I59" s="4">
         <v>263</v>
       </c>
-      <c r="J59" s="4" t="s">
-        <v>449</v>
-      </c>
-      <c r="K59" s="4" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11">
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="4">
         <v>55</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>311</v>
+        <v>198</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>254</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>394</v>
+        <v>325</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>410</v>
+        <v>341</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>434</v>
+        <v>365</v>
       </c>
       <c r="I60" s="4">
         <v>263</v>
       </c>
-      <c r="J60" s="4" t="s">
-        <v>449</v>
-      </c>
-      <c r="K60" s="4" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11">
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="4">
         <v>56</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>310</v>
+        <v>198</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>255</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>395</v>
+        <v>326</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>410</v>
+        <v>341</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>434</v>
+        <v>365</v>
       </c>
       <c r="I61" s="4">
         <v>263</v>
       </c>
-      <c r="J61" s="4" t="s">
-        <v>449</v>
-      </c>
-      <c r="K61" s="4" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11">
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="4">
         <v>57</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>309</v>
+        <v>198</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>256</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>396</v>
+        <v>327</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>410</v>
+        <v>341</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>434</v>
+        <v>365</v>
       </c>
       <c r="I62" s="4">
         <v>263</v>
       </c>
-      <c r="J62" s="4" t="s">
-        <v>449</v>
-      </c>
-      <c r="K62" s="4" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11">
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="4">
         <v>58</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>308</v>
+        <v>198</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>257</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>397</v>
+        <v>328</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>410</v>
+        <v>341</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>434</v>
+        <v>365</v>
       </c>
       <c r="I63" s="4">
         <v>263</v>
       </c>
-      <c r="J63" s="4" t="s">
-        <v>449</v>
-      </c>
-      <c r="K63" s="4" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11">
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="4">
         <v>59</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>312</v>
+        <v>198</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>258</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>398</v>
+        <v>329</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>410</v>
+        <v>341</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>434</v>
+        <v>365</v>
       </c>
       <c r="I64" s="4">
         <v>263</v>
       </c>
-      <c r="J64" s="4" t="s">
-        <v>449</v>
-      </c>
-      <c r="K64" s="4" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11">
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="4">
         <v>60</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>267</v>
+        <v>198</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>328</v>
+        <v>259</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>399</v>
+        <v>330</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>410</v>
+        <v>341</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>434</v>
+        <v>365</v>
       </c>
       <c r="I65" s="4">
         <v>263</v>
       </c>
-      <c r="J65" s="4" t="s">
-        <v>449</v>
-      </c>
-      <c r="K65" s="4" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11">
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="4">
         <v>61</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>267</v>
+        <v>198</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>329</v>
+        <v>260</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>371</v>
+        <v>302</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>410</v>
+        <v>341</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>435</v>
+        <v>366</v>
       </c>
       <c r="I66" s="4">
         <v>266</v>
       </c>
-      <c r="J66" s="4" t="s">
-        <v>449</v>
-      </c>
-      <c r="K66" s="4" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11">
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="4">
         <v>62</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>307</v>
+        <v>198</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>261</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>395</v>
+        <v>326</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>410</v>
+        <v>341</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>435</v>
+        <v>366</v>
       </c>
       <c r="I67" s="4">
         <v>266</v>
       </c>
-      <c r="J67" s="4" t="s">
-        <v>449</v>
-      </c>
-      <c r="K67" s="4" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11">
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="4">
         <v>63</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>303</v>
+        <v>198</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>262</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>378</v>
+        <v>309</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>410</v>
+        <v>341</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>435</v>
+        <v>366</v>
       </c>
       <c r="I68" s="4">
         <v>266</v>
       </c>
-      <c r="J68" s="4" t="s">
-        <v>449</v>
-      </c>
-      <c r="K68" s="4" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11">
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="4">
         <v>64</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>300</v>
+        <v>198</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>263</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>394</v>
+        <v>325</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>410</v>
+        <v>341</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>435</v>
+        <v>366</v>
       </c>
       <c r="I69" s="4">
         <v>266</v>
       </c>
-      <c r="J69" s="4" t="s">
-        <v>449</v>
-      </c>
-      <c r="K69" s="4" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11">
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="4">
         <v>65</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>267</v>
+        <v>198</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>333</v>
+        <v>264</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>374</v>
+        <v>305</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>411</v>
+        <v>342</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="I70" s="4">
         <v>273</v>
       </c>
-      <c r="J70" s="4" t="s">
-        <v>449</v>
-      </c>
-      <c r="K70" s="4" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11">
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="4">
         <v>66</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>267</v>
+        <v>198</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>334</v>
+        <v>265</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>395</v>
+        <v>326</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>410</v>
+        <v>341</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>436</v>
+        <v>367</v>
       </c>
       <c r="I71" s="4">
         <v>280</v>
       </c>
-      <c r="J71" s="4" t="s">
-        <v>449</v>
-      </c>
-      <c r="K71" s="4" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11">
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="4">
         <v>67</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>267</v>
+        <v>198</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>335</v>
+        <v>266</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>393</v>
+        <v>324</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>410</v>
+        <v>341</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>436</v>
+        <v>367</v>
       </c>
       <c r="I72" s="4">
         <v>280</v>
       </c>
-      <c r="J72" s="4" t="s">
-        <v>449</v>
-      </c>
-      <c r="K72" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11">
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="4">
         <v>68</v>
       </c>
       <c r="B73" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C73" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="C73" s="5" t="s">
-        <v>304</v>
-      </c>
       <c r="D73" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>378</v>
+        <v>309</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>410</v>
+        <v>341</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>436</v>
+        <v>367</v>
       </c>
       <c r="I73" s="4">
         <v>280</v>
       </c>
-      <c r="J73" s="4" t="s">
-        <v>449</v>
-      </c>
-      <c r="K73" s="4" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11">
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="4">
         <v>69</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>305</v>
+        <v>198</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>268</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>399</v>
+        <v>330</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>410</v>
+        <v>341</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>437</v>
+        <v>368</v>
       </c>
       <c r="I74" s="4">
         <v>284</v>
       </c>
-      <c r="J74" s="4" t="s">
-        <v>449</v>
-      </c>
-      <c r="K74" s="4" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11">
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="4">
         <v>70</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="C75" s="5" t="s">
-        <v>302</v>
+        <v>198</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>269</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>400</v>
+        <v>331</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>410</v>
+        <v>341</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>438</v>
+        <v>369</v>
       </c>
       <c r="I75" s="4">
         <v>285</v>
       </c>
-      <c r="J75" s="4" t="s">
-        <v>449</v>
-      </c>
-      <c r="K75" s="4" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11">
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="4">
         <v>71</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="C76" s="5" t="s">
-        <v>301</v>
+        <v>199</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>270</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>401</v>
+        <v>332</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>412</v>
+        <v>343</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>439</v>
+        <v>370</v>
       </c>
       <c r="I76" s="4">
         <v>323</v>
       </c>
-      <c r="J76" s="4" t="s">
-        <v>450</v>
-      </c>
-      <c r="K76" s="4" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11">
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="4">
         <v>72</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C77" s="5" t="s">
-        <v>299</v>
+        <v>24</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>271</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>378</v>
+        <v>309</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>413</v>
+        <v>344</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>439</v>
+        <v>370</v>
       </c>
       <c r="I77" s="4">
         <v>323</v>
       </c>
-      <c r="J77" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="K77" s="4" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11">
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="4">
         <v>73</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>341</v>
+        <v>272</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>373</v>
+        <v>304</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>413</v>
+        <v>344</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>440</v>
+        <v>371</v>
       </c>
       <c r="I78" s="4">
         <v>351</v>
-      </c>
-      <c r="J78" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="K78" s="4" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11">
-      <c r="C79" s="5" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="81" spans="3:3">
-      <c r="C81" s="5" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="82" spans="3:3">
-      <c r="C82" s="5" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="84" spans="3:3">
-      <c r="C84" s="5" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="85" spans="3:3">
-      <c r="C85" s="5" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="86" spans="3:3">
-      <c r="C86" s="5" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="87" spans="3:3">
-      <c r="C87" s="5" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="88" spans="3:3">
-      <c r="C88" s="5" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="89" spans="3:3">
-      <c r="C89" s="5" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="90" spans="3:3">
-      <c r="C90" s="5" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="91" spans="3:3">
-      <c r="C91" s="5" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="92" spans="3:3">
-      <c r="C92" s="5" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="93" spans="3:3">
-      <c r="C93" s="5" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="94" spans="3:3">
-      <c r="C94" s="5" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="96" spans="3:3">
-      <c r="C96" s="5" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="98" spans="3:3">
-      <c r="C98" s="5" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="100" spans="3:3">
-      <c r="C100" s="5" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="101" spans="3:3">
-      <c r="C101" s="5" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="102" spans="3:3">
-      <c r="C102" s="5" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="103" spans="3:3">
-      <c r="C103" s="5" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="104" spans="3:3">
-      <c r="C104" s="5" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="105" spans="3:3">
-      <c r="C105" s="5" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="106" spans="3:3">
-      <c r="C106" s="5" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="107" spans="3:3">
-      <c r="C107" s="5" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="108" spans="3:3">
-      <c r="C108" s="5" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="109" spans="3:3">
-      <c r="C109" s="5" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="110" spans="3:3">
-      <c r="C110" s="5" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="111" spans="3:3">
-      <c r="C111" s="5" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="113" spans="3:3">
-      <c r="C113" s="5" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="114" spans="3:3">
-      <c r="C114" s="5" t="s">
-        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -6469,81 +5020,6 @@
     <mergeCell ref="A3:K3"/>
     <mergeCell ref="A4:K4"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="C5" r:id="rId1"/>
-    <hyperlink ref="C6" r:id="rId2"/>
-    <hyperlink ref="C10" r:id="rId3"/>
-    <hyperlink ref="C11" r:id="rId4"/>
-    <hyperlink ref="C14" r:id="rId5"/>
-    <hyperlink ref="C15" r:id="rId6"/>
-    <hyperlink ref="C17" r:id="rId7"/>
-    <hyperlink ref="C18" r:id="rId8"/>
-    <hyperlink ref="C19" r:id="rId9"/>
-    <hyperlink ref="C23" r:id="rId10"/>
-    <hyperlink ref="C24" r:id="rId11"/>
-    <hyperlink ref="C30" r:id="rId12"/>
-    <hyperlink ref="C31" r:id="rId13"/>
-    <hyperlink ref="C32" r:id="rId14"/>
-    <hyperlink ref="C36" r:id="rId15"/>
-    <hyperlink ref="C37" r:id="rId16"/>
-    <hyperlink ref="C38" r:id="rId17"/>
-    <hyperlink ref="C39" r:id="rId18"/>
-    <hyperlink ref="C40" r:id="rId19"/>
-    <hyperlink ref="C41" r:id="rId20"/>
-    <hyperlink ref="C42" r:id="rId21"/>
-    <hyperlink ref="C44" r:id="rId22"/>
-    <hyperlink ref="C46" r:id="rId23"/>
-    <hyperlink ref="C50" r:id="rId24"/>
-    <hyperlink ref="C51" r:id="rId25"/>
-    <hyperlink ref="C52" r:id="rId26"/>
-    <hyperlink ref="C53" r:id="rId27"/>
-    <hyperlink ref="C54" r:id="rId28"/>
-    <hyperlink ref="C55" r:id="rId29"/>
-    <hyperlink ref="C56" r:id="rId30"/>
-    <hyperlink ref="C60" r:id="rId31"/>
-    <hyperlink ref="C61" r:id="rId32"/>
-    <hyperlink ref="C62" r:id="rId33"/>
-    <hyperlink ref="C63" r:id="rId34"/>
-    <hyperlink ref="C64" r:id="rId35"/>
-    <hyperlink ref="C67" r:id="rId36"/>
-    <hyperlink ref="C68" r:id="rId37"/>
-    <hyperlink ref="C69" r:id="rId38"/>
-    <hyperlink ref="C73" r:id="rId39"/>
-    <hyperlink ref="C74" r:id="rId40"/>
-    <hyperlink ref="C75" r:id="rId41"/>
-    <hyperlink ref="C76" r:id="rId42"/>
-    <hyperlink ref="C77" r:id="rId43"/>
-    <hyperlink ref="C79" r:id="rId44"/>
-    <hyperlink ref="C81" r:id="rId45"/>
-    <hyperlink ref="C82" r:id="rId46"/>
-    <hyperlink ref="C84" r:id="rId47"/>
-    <hyperlink ref="C85" r:id="rId48"/>
-    <hyperlink ref="C86" r:id="rId49"/>
-    <hyperlink ref="C87" r:id="rId50"/>
-    <hyperlink ref="C88" r:id="rId51"/>
-    <hyperlink ref="C89" r:id="rId52"/>
-    <hyperlink ref="C90" r:id="rId53"/>
-    <hyperlink ref="C91" r:id="rId54"/>
-    <hyperlink ref="C92" r:id="rId55"/>
-    <hyperlink ref="C93" r:id="rId56"/>
-    <hyperlink ref="C94" r:id="rId57"/>
-    <hyperlink ref="C96" r:id="rId58"/>
-    <hyperlink ref="C98" r:id="rId59"/>
-    <hyperlink ref="C100" r:id="rId60"/>
-    <hyperlink ref="C101" r:id="rId61"/>
-    <hyperlink ref="C102" r:id="rId62"/>
-    <hyperlink ref="C103" r:id="rId63"/>
-    <hyperlink ref="C104" r:id="rId64"/>
-    <hyperlink ref="C105" r:id="rId65"/>
-    <hyperlink ref="C106" r:id="rId66"/>
-    <hyperlink ref="C107" r:id="rId67"/>
-    <hyperlink ref="C108" r:id="rId68"/>
-    <hyperlink ref="C109" r:id="rId69"/>
-    <hyperlink ref="C110" r:id="rId70"/>
-    <hyperlink ref="C111" r:id="rId71"/>
-    <hyperlink ref="C113" r:id="rId72"/>
-    <hyperlink ref="C114" r:id="rId73"/>
-  </hyperlinks>
   <pageMargins left="0" right="0" top="0" bottom="0.7" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape"/>
 </worksheet>

--- a/controle_contratos/Planilha_Completa.xlsx
+++ b/controle_contratos/Planilha_Completa.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1612" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1705" uniqueCount="373">
   <si>
     <t>Nº</t>
   </si>
@@ -45,78 +45,84 @@
 Vencer</t>
   </si>
   <si>
+    <t>link_contrato_inicial</t>
+  </si>
+  <si>
     <t>PE 42/2023</t>
   </si>
   <si>
+    <t>PE 02/2021</t>
+  </si>
+  <si>
+    <t>PE 29/2019</t>
+  </si>
+  <si>
+    <t>PE 08/2022</t>
+  </si>
+  <si>
+    <t>PE 09/2021</t>
+  </si>
+  <si>
+    <t>PE 02/2018</t>
+  </si>
+  <si>
+    <t>PE 03/2022</t>
+  </si>
+  <si>
+    <t>TJIL 01/2016</t>
+  </si>
+  <si>
+    <t>PE 31/2023</t>
+  </si>
+  <si>
+    <t>PE 25/2021</t>
+  </si>
+  <si>
+    <t>PE 15/2021</t>
+  </si>
+  <si>
+    <t>PE 06/2023</t>
+  </si>
+  <si>
+    <t>PE 01/2023</t>
+  </si>
+  <si>
+    <t>PE 11/2022</t>
+  </si>
+  <si>
+    <t>PE 14/2022</t>
+  </si>
+  <si>
+    <t>PE 08/2023</t>
+  </si>
+  <si>
+    <t>PE 08/2020</t>
+  </si>
+  <si>
+    <t>PE 20/2021</t>
+  </si>
+  <si>
+    <t>TJDL 1002/2023</t>
+  </si>
+  <si>
+    <t>PE 19/2019</t>
+  </si>
+  <si>
+    <t>PE 01/2016</t>
+  </si>
+  <si>
+    <t>TJIL 1004/2023</t>
+  </si>
+  <si>
+    <t>DE 44/2023</t>
+  </si>
+  <si>
+    <t>TJDL 01/2019</t>
+  </si>
+  <si>
     <t>PE 10/2020</t>
   </si>
   <si>
-    <t>PE 02/2021</t>
-  </si>
-  <si>
-    <t>PE 29/2019</t>
-  </si>
-  <si>
-    <t>PE 08/2022</t>
-  </si>
-  <si>
-    <t>PE 09/2021</t>
-  </si>
-  <si>
-    <t>PE 02/2018</t>
-  </si>
-  <si>
-    <t>PE 03/2022</t>
-  </si>
-  <si>
-    <t>TJIL 01/2016</t>
-  </si>
-  <si>
-    <t>PE 31/2023</t>
-  </si>
-  <si>
-    <t>PE 25/2021</t>
-  </si>
-  <si>
-    <t>PE 06/2023</t>
-  </si>
-  <si>
-    <t>PE 01/2023</t>
-  </si>
-  <si>
-    <t>PE 11/2022</t>
-  </si>
-  <si>
-    <t>PE 14/2022</t>
-  </si>
-  <si>
-    <t>PE 08/2023</t>
-  </si>
-  <si>
-    <t>PE 08/2020</t>
-  </si>
-  <si>
-    <t>PE 20/2021</t>
-  </si>
-  <si>
-    <t>TJDL 1002/2023</t>
-  </si>
-  <si>
-    <t>PE 19/2019</t>
-  </si>
-  <si>
-    <t>PE 01/2016</t>
-  </si>
-  <si>
-    <t>TJIL 1004/2023</t>
-  </si>
-  <si>
-    <t>DE 44/2023</t>
-  </si>
-  <si>
-    <t>TJDL 01/2019</t>
-  </si>
-  <si>
     <t>PE 35/2022</t>
   </si>
   <si>
@@ -126,111 +132,114 @@
     <t>TJIL 01/2017</t>
   </si>
   <si>
-    <t>87000/23-104/00</t>
+    <t>87000/23-102/00</t>
+  </si>
+  <si>
+    <t>87000/23-106/00</t>
+  </si>
+  <si>
+    <t>87000/22-008/00</t>
+  </si>
+  <si>
+    <t>87000/20-044/00</t>
+  </si>
+  <si>
+    <t>87000/22-009/00</t>
+  </si>
+  <si>
+    <t>87000/21-062/00</t>
+  </si>
+  <si>
+    <t>87000/19-033/00</t>
+  </si>
+  <si>
+    <t>87000/23-051/00</t>
+  </si>
+  <si>
+    <t>87000/21-080/00</t>
+  </si>
+  <si>
+    <t>87000/22-032/00</t>
+  </si>
+  <si>
+    <t>87000/21-086/00</t>
+  </si>
+  <si>
+    <t>87000/21-085/00</t>
+  </si>
+  <si>
+    <t>87000/21-084/00</t>
+  </si>
+  <si>
+    <t>87000/21-109/00</t>
+  </si>
+  <si>
+    <t>87000/23-073/00</t>
+  </si>
+  <si>
+    <t>87000/21-120/00</t>
+  </si>
+  <si>
+    <t>87000/21-135/00</t>
+  </si>
+  <si>
+    <t>87000/23-083/00</t>
+  </si>
+  <si>
+    <t>87000/23-087/00</t>
+  </si>
+  <si>
+    <t>87000/21-140/00</t>
+  </si>
+  <si>
+    <t>87000/23-099/00</t>
+  </si>
+  <si>
+    <t>87000/23-088/00</t>
+  </si>
+  <si>
+    <t>87000/20-080/00</t>
+  </si>
+  <si>
+    <t>87000/20-082/00</t>
+  </si>
+  <si>
+    <t>87000/21-154/00</t>
+  </si>
+  <si>
+    <t>87000/23-071/00</t>
+  </si>
+  <si>
+    <t>87000/19-057/00</t>
+  </si>
+  <si>
+    <t>87000/19-059/00</t>
+  </si>
+  <si>
+    <t>87000/19-058/00</t>
+  </si>
+  <si>
+    <t>87000/21-156/00</t>
+  </si>
+  <si>
+    <t>87000/23-121/00</t>
+  </si>
+  <si>
+    <t>87000/23-115/00</t>
+  </si>
+  <si>
+    <t>87000/17-1531/00</t>
+  </si>
+  <si>
+    <t>87000/17-1532/00</t>
+  </si>
+  <si>
+    <t>87000/24-002/00</t>
   </si>
   <si>
     <t>87000/21-005/00</t>
   </si>
   <si>
-    <t>87000/23-102/00</t>
-  </si>
-  <si>
-    <t>87000/23-106/00</t>
-  </si>
-  <si>
-    <t>87000/22-008/00</t>
-  </si>
-  <si>
-    <t>87000/20-044/00</t>
-  </si>
-  <si>
-    <t>87000/22-009/00</t>
-  </si>
-  <si>
-    <t>87000/21-062/00</t>
-  </si>
-  <si>
-    <t>87000/19-033/00</t>
-  </si>
-  <si>
-    <t>87000/23-051/00</t>
-  </si>
-  <si>
-    <t>87000/21-080/00</t>
-  </si>
-  <si>
-    <t>87000/22-032/00</t>
-  </si>
-  <si>
-    <t>87000/21-085/00</t>
-  </si>
-  <si>
-    <t>87000/21-084/00</t>
-  </si>
-  <si>
-    <t>87000/21-086/00</t>
-  </si>
-  <si>
-    <t>87000/23-073/00</t>
-  </si>
-  <si>
-    <t>87000/21-120/00</t>
-  </si>
-  <si>
-    <t>87000/21-135/00</t>
-  </si>
-  <si>
-    <t>87000/23-083/00</t>
-  </si>
-  <si>
-    <t>87000/23-087/00</t>
-  </si>
-  <si>
-    <t>87000/21-140/00</t>
-  </si>
-  <si>
-    <t>87000/23-099/00</t>
-  </si>
-  <si>
-    <t>87000/23-088/00</t>
-  </si>
-  <si>
-    <t>87000/20-082/00</t>
-  </si>
-  <si>
-    <t>87000/20-080/00</t>
-  </si>
-  <si>
-    <t>87000/21-154/00</t>
-  </si>
-  <si>
-    <t>87000/23-071/00</t>
-  </si>
-  <si>
-    <t>87000/19-057/00</t>
-  </si>
-  <si>
-    <t>87000/19-059/00</t>
-  </si>
-  <si>
-    <t>87000/19-058/00</t>
-  </si>
-  <si>
-    <t>87000/21-156/00</t>
-  </si>
-  <si>
-    <t>87000/23-121/00</t>
-  </si>
-  <si>
-    <t>87000/23-115/00</t>
-  </si>
-  <si>
-    <t>87000/17-1532/00</t>
-  </si>
-  <si>
-    <t>87000/17-1531/00</t>
-  </si>
-  <si>
     <t>87000/23-108/00</t>
   </si>
   <si>
@@ -246,156 +255,159 @@
     <t>GptFNB</t>
   </si>
   <si>
+    <t>CeIMBra</t>
+  </si>
+  <si>
     <t>Com7ºDN</t>
   </si>
   <si>
-    <t>CeIMBra</t>
-  </si>
-  <si>
     <t>CFGO</t>
   </si>
   <si>
-    <t>-</t>
+    <t>Divisão de Municiamento</t>
+  </si>
+  <si>
+    <t>Seção de Passagem e Bagagem</t>
+  </si>
+  <si>
+    <t>Divisão de Manutenção e Reparo de PNR</t>
+  </si>
+  <si>
+    <t>Divisão de Gerência dos Créditos</t>
+  </si>
+  <si>
+    <t>Divisão de Assistência Social</t>
+  </si>
+  <si>
+    <t>Divisão de Transporte</t>
+  </si>
+  <si>
+    <t>Divisão de Obras</t>
+  </si>
+  <si>
+    <t>Divisão de Serviços Gerais</t>
+  </si>
+  <si>
+    <t>Divisão de Conectividade de Sistemas de Informações</t>
+  </si>
+  <si>
+    <t>Divisão de Telefonia</t>
+  </si>
+  <si>
+    <t>Assessoria Comunicação Social</t>
   </si>
   <si>
     <t>Divisão de Segurança da Informação e Comunicações</t>
   </si>
   <si>
-    <t>Divisão de Municiamento</t>
-  </si>
-  <si>
-    <t>Seção de Passagem e Bagagem</t>
-  </si>
-  <si>
-    <t>Divisão de Manutenção e Reparo de PNR</t>
-  </si>
-  <si>
-    <t>Divisão de Gerência dos Créditos</t>
-  </si>
-  <si>
-    <t>Divisão de Assistência Social</t>
-  </si>
-  <si>
-    <t>Divisão de Transporte</t>
-  </si>
-  <si>
-    <t>Divisão de Obras</t>
-  </si>
-  <si>
-    <t>Divisão de Serviços Gerais</t>
-  </si>
-  <si>
-    <t>Divisão de Conectividade de Sistemas de Informações</t>
-  </si>
-  <si>
-    <t>Divisão de Telefonia</t>
-  </si>
-  <si>
     <t>Divisão de Obtenção</t>
   </si>
   <si>
-    <t>QUILHA NAUTICA LTDA</t>
+    <t>PLUS CONSTRUCOES E SERVICOS L</t>
+  </si>
+  <si>
+    <t>TOMASINI &amp; BUENO INDUSTRIA E</t>
+  </si>
+  <si>
+    <t>NORTFORT COMERCIO E SERVICOS</t>
+  </si>
+  <si>
+    <t>RS TURISMO E EVENTOS LTDA</t>
+  </si>
+  <si>
+    <t>ALFA E OMEGA  SERVICOS TERCEI</t>
+  </si>
+  <si>
+    <t>R MORAES AGENCIA DE TURISMO L</t>
+  </si>
+  <si>
+    <t>LUCIANO GONÇALVES BORBA ASSUNÇÃO</t>
+  </si>
+  <si>
+    <t>CIRURGICAS MULLET IMPORTADORA</t>
+  </si>
+  <si>
+    <t>INTEGRAR - INSTITUTO DE REABI</t>
+  </si>
+  <si>
+    <t>NP3 COMERCIO E SERVICOS LTDA</t>
+  </si>
+  <si>
+    <t>TECNICALL ENGENHARIA LTDA</t>
+  </si>
+  <si>
+    <t>HEIMAR-CONSTRUCOES E SERVICOS</t>
+  </si>
+  <si>
+    <t>ADTEL FACILITIES LTDA</t>
+  </si>
+  <si>
+    <t>ANDRACON SERVICOS GERAIS LTDA</t>
+  </si>
+  <si>
+    <t>NORESA NOVO RIO ENERGIA E SER</t>
+  </si>
+  <si>
+    <t>CLIAMA CLINICA DE ATENDIMENTO</t>
+  </si>
+  <si>
+    <t>VIVACE FISIOTERAPIA &amp; MEDICIN</t>
+  </si>
+  <si>
+    <t>I.S ENGECLIM SERVICOS DE ENGE</t>
+  </si>
+  <si>
+    <t>MCR SISTEMAS E CONSULTORIA LT</t>
+  </si>
+  <si>
+    <t>PRATICAR CENTRO DE TREINAMENT</t>
+  </si>
+  <si>
+    <t>ELP COMERCIO DE EQUIPAMENTOS</t>
+  </si>
+  <si>
+    <t>CLARO S.A.</t>
+  </si>
+  <si>
+    <t>PALCO LOCACAO LTDA</t>
+  </si>
+  <si>
+    <t>STAR LOCACAO DE SERVICOS GERA</t>
+  </si>
+  <si>
+    <t>MARCIO ANDERSON RODRIGUES COM</t>
+  </si>
+  <si>
+    <t>STAMM MUDANCAS E TRANSPORTES</t>
+  </si>
+  <si>
+    <t>BANCO BRADESCO S.A.</t>
+  </si>
+  <si>
+    <t>BANCO SANTANDER (BRASIL) S.A.</t>
+  </si>
+  <si>
+    <t>CAIXA ECONOMICA FEDERAL</t>
+  </si>
+  <si>
+    <t>UNICA SERVICOS EM SAUDE LTDA</t>
+  </si>
+  <si>
+    <t>ABRIGO DO MARINHEIRO</t>
+  </si>
+  <si>
+    <t>SEGUROS SURA S.A.</t>
+  </si>
+  <si>
+    <t>NEOENERGIA DISTRIBUICAO BRASI</t>
+  </si>
+  <si>
+    <t>UEDAMA COMERCIO DE PRODUTOS A</t>
   </si>
   <si>
     <t>FORTT DO BRASIL LTDA</t>
   </si>
   <si>
-    <t>PLUS CONSTRUCOES E SERVICOS L</t>
-  </si>
-  <si>
-    <t>TOMASINI &amp; BUENO INDUSTRIA E</t>
-  </si>
-  <si>
-    <t>NORTFORT COMERCIO E SERVICOS</t>
-  </si>
-  <si>
-    <t>RS TURISMO E EVENTOS LTDA</t>
-  </si>
-  <si>
-    <t>ALFA E OMEGA  SERVICOS TERCEI</t>
-  </si>
-  <si>
-    <t>R MORAES AGENCIA DE TURISMO L</t>
-  </si>
-  <si>
-    <t>LUCIANO GONÇALVES BORBA ASSUNÇÃO</t>
-  </si>
-  <si>
-    <t>CIRURGICAS MULLET IMPORTADORA</t>
-  </si>
-  <si>
-    <t>INTEGRAR - INSTITUTO DE REABI</t>
-  </si>
-  <si>
-    <t>NP3 COMERCIO E SERVICOS LTDA</t>
-  </si>
-  <si>
-    <t>HEIMAR-CONSTRUCOES E SERVICOS</t>
-  </si>
-  <si>
-    <t>ADTEL FACILITIES LTDA</t>
-  </si>
-  <si>
-    <t>TECNICALL ENGENHARIA LTDA</t>
-  </si>
-  <si>
-    <t>NORESA NOVO RIO ENERGIA E SER</t>
-  </si>
-  <si>
-    <t>CLIAMA CLINICA DE ATENDIMENTO</t>
-  </si>
-  <si>
-    <t>VIVACE FISIOTERAPIA &amp; MEDICIN</t>
-  </si>
-  <si>
-    <t>I.S ENGECLIM SERVICOS DE ENGE</t>
-  </si>
-  <si>
-    <t>MCR SISTEMAS E CONSULTORIA LT</t>
-  </si>
-  <si>
-    <t>PRATICAR CENTRO DE TREINAMENT</t>
-  </si>
-  <si>
-    <t>ELP COMERCIO DE EQUIPAMENTOS</t>
-  </si>
-  <si>
-    <t>CLARO S.A.</t>
-  </si>
-  <si>
-    <t>STAR LOCACAO DE SERVICOS GERA</t>
-  </si>
-  <si>
-    <t>PALCO LOCACAO LTDA</t>
-  </si>
-  <si>
-    <t>MARCIO ANDERSON RODRIGUES COM</t>
-  </si>
-  <si>
-    <t>STAMM MUDANCAS E TRANSPORTES</t>
-  </si>
-  <si>
-    <t>BANCO BRADESCO S.A.</t>
-  </si>
-  <si>
-    <t>BANCO SANTANDER (BRASIL) S.A.</t>
-  </si>
-  <si>
-    <t>CAIXA ECONOMICA FEDERAL</t>
-  </si>
-  <si>
-    <t>UNICA SERVICOS EM SAUDE LTDA</t>
-  </si>
-  <si>
-    <t>ABRIGO DO MARINHEIRO</t>
-  </si>
-  <si>
-    <t>SEGUROS SURA S.A.</t>
-  </si>
-  <si>
-    <t>NEOENERGIA DISTRIBUICAO BRASI</t>
-  </si>
-  <si>
     <t>OVER ELEVADORES LTDA</t>
   </si>
   <si>
@@ -411,69 +423,78 @@
     <t>Embarcações</t>
   </si>
   <si>
+    <t>Manutenção de Cozinha xx</t>
+  </si>
+  <si>
+    <t>Passagens Rodoviárias</t>
+  </si>
+  <si>
+    <t>Serviço de Jardinagem</t>
+  </si>
+  <si>
+    <t>Passagens Aéreas</t>
+  </si>
+  <si>
+    <t>Leiloeiro Oficial</t>
+  </si>
+  <si>
+    <t>Material Permanente</t>
+  </si>
+  <si>
+    <t>Assistência Social</t>
+  </si>
+  <si>
+    <t>Gestão de Frota</t>
+  </si>
+  <si>
+    <t>Serviços de Engenharia</t>
+  </si>
+  <si>
+    <t>Serviços de Limpeza</t>
+  </si>
+  <si>
+    <t>Resíduos Sólidos</t>
+  </si>
+  <si>
+    <t>Manutenção Frigorífica</t>
+  </si>
+  <si>
+    <t>Licença de Software</t>
+  </si>
+  <si>
+    <t>Materiais de Tecnologia</t>
+  </si>
+  <si>
+    <t>Serviço Móvel</t>
+  </si>
+  <si>
+    <t>Montagem de Palanques</t>
+  </si>
+  <si>
+    <t>TV por assinatura</t>
+  </si>
+  <si>
+    <t>Transporte de Bagagem</t>
+  </si>
+  <si>
+    <t>Cessão de Uso</t>
+  </si>
+  <si>
+    <t>Locação de Móvel</t>
+  </si>
+  <si>
+    <t>Seguro Total</t>
+  </si>
+  <si>
+    <t>Fornecimento de Energia</t>
+  </si>
+  <si>
+    <t>Panificados</t>
+  </si>
+  <si>
     <t>Central Telefônica</t>
   </si>
   <si>
-    <t>Manutenção de Cozinha</t>
-  </si>
-  <si>
-    <t>Passagens</t>
-  </si>
-  <si>
-    <t>Serviço de Jardinagem</t>
-  </si>
-  <si>
-    <t>Leiloeiro Oficial</t>
-  </si>
-  <si>
-    <t>Material Permanente</t>
-  </si>
-  <si>
-    <t>Assistência Social</t>
-  </si>
-  <si>
-    <t>Gestão de Frota</t>
-  </si>
-  <si>
-    <t>Serviços de Engenharia</t>
-  </si>
-  <si>
-    <t>Resíduos Sólidos</t>
-  </si>
-  <si>
-    <t>Manutenção Frigorífica</t>
-  </si>
-  <si>
-    <t>Licença de Software</t>
-  </si>
-  <si>
-    <t>Materiais de Tecnologia</t>
-  </si>
-  <si>
-    <t>Serviço Móvel</t>
-  </si>
-  <si>
-    <t>Montagem de Palanques</t>
-  </si>
-  <si>
-    <t>TV por assinatura</t>
-  </si>
-  <si>
-    <t>Transporte de Bagagem</t>
-  </si>
-  <si>
-    <t>Cessão de Uso</t>
-  </si>
-  <si>
-    <t>Locação de Móvel</t>
-  </si>
-  <si>
-    <t>Seguro Total</t>
-  </si>
-  <si>
-    <t>Fornecimento de Energia</t>
-  </si>
-  <si>
     <t>Elevadores</t>
   </si>
   <si>
@@ -483,12 +504,6 @@
     <t>D.O.U</t>
   </si>
   <si>
-    <t>29/02/2024</t>
-  </si>
-  <si>
-    <t>03/03/2024</t>
-  </si>
-  <si>
     <t>14/03/2024</t>
   </si>
   <si>
@@ -519,6 +534,9 @@
     <t>01/08/2024</t>
   </si>
   <si>
+    <t>04/08/2024</t>
+  </si>
+  <si>
     <t>11/08/2024</t>
   </si>
   <si>
@@ -564,6 +582,12 @@
     <t>18/02/2025</t>
   </si>
   <si>
+    <t>23/02/2025</t>
+  </si>
+  <si>
+    <t>01/03/2025</t>
+  </si>
+  <si>
     <t>19/11/2025</t>
   </si>
   <si>
@@ -582,7 +606,10 @@
     <t>Controle de Contratos - 2024</t>
   </si>
   <si>
-    <t>Atualizado em: 08/03/2024</t>
+    <t>Atualizado em: 12/03/2024</t>
+  </si>
+  <si>
+    <t>Link indisponível</t>
   </si>
   <si>
     <t>Ata</t>
@@ -603,9 +630,6 @@
     <t>PE 03/2023</t>
   </si>
   <si>
-    <t>PE 15/2021</t>
-  </si>
-  <si>
     <t>PE 26/2023</t>
   </si>
   <si>
@@ -627,6 +651,9 @@
     <t>87000/23-046/00</t>
   </si>
   <si>
+    <t>87000/23-034/00</t>
+  </si>
+  <si>
     <t>87000/23-031/00</t>
   </si>
   <si>
@@ -648,18 +675,15 @@
     <t>87000/23-043/00</t>
   </si>
   <si>
-    <t>87000/23-034/00</t>
-  </si>
-  <si>
     <t>87000/23-042/00</t>
   </si>
   <si>
+    <t>87000/23-032/00</t>
+  </si>
+  <si>
     <t>87000/23-036/00</t>
   </si>
   <si>
-    <t>87000/23-032/00</t>
-  </si>
-  <si>
     <t>87000/23-033/00</t>
   </si>
   <si>
@@ -711,30 +735,30 @@
     <t>87000/23-063/00</t>
   </si>
   <si>
+    <t>87000/23-066/00</t>
+  </si>
+  <si>
+    <t>87000/23-068/00</t>
+  </si>
+  <si>
+    <t>87000/23-070/00</t>
+  </si>
+  <si>
     <t>87000/23-069/00</t>
   </si>
   <si>
-    <t>87000/23-066/00</t>
-  </si>
-  <si>
-    <t>87000/23-068/00</t>
-  </si>
-  <si>
-    <t>87000/23-070/00</t>
-  </si>
-  <si>
     <t>87000/23-067/00</t>
   </si>
   <si>
     <t>87000/23-065/00</t>
   </si>
   <si>
-    <t>87000/21-109/00</t>
-  </si>
-  <si>
     <t>87000/23-072/00</t>
   </si>
   <si>
+    <t>87000/23-077/00</t>
+  </si>
+  <si>
     <t>87000/23-076/00</t>
   </si>
   <si>
@@ -747,9 +771,6 @@
     <t>87000/23-081/00</t>
   </si>
   <si>
-    <t>87000/23-077/00</t>
-  </si>
-  <si>
     <t>87000/23-079/00</t>
   </si>
   <si>
@@ -777,27 +798,27 @@
     <t>87000/23-098/00</t>
   </si>
   <si>
+    <t>87000/23-095/00</t>
+  </si>
+  <si>
     <t>87000/23-096/00</t>
   </si>
   <si>
-    <t>87000/23-095/00</t>
+    <t>87000/23-094/00</t>
+  </si>
+  <si>
+    <t>87000/23-090/00</t>
   </si>
   <si>
     <t>87000/23-092/00</t>
   </si>
   <si>
+    <t>87000/23-089/00</t>
+  </si>
+  <si>
     <t>87000/23-093/00</t>
   </si>
   <si>
-    <t>87000/23-090/00</t>
-  </si>
-  <si>
-    <t>87000/23-089/00</t>
-  </si>
-  <si>
-    <t>87000/23-094/00</t>
-  </si>
-  <si>
     <t>87000/23-109/00</t>
   </si>
   <si>
@@ -813,12 +834,12 @@
     <t>87000/23-113/00</t>
   </si>
   <si>
+    <t>87000/23-118/00</t>
+  </si>
+  <si>
     <t>87000/23-119/00</t>
   </si>
   <si>
-    <t>87000/23-118/00</t>
-  </si>
-  <si>
     <t>87000/23-120/00</t>
   </si>
   <si>
@@ -834,9 +855,6 @@
     <t>87000/24-003/00</t>
   </si>
   <si>
-    <t>87000/24-002/00</t>
-  </si>
-  <si>
     <t>ERMB</t>
   </si>
   <si>
@@ -855,6 +873,9 @@
     <t>ART PAPER INDUSTRIA E COMERCI</t>
   </si>
   <si>
+    <t>AAZ COMERCIAL LTDA</t>
+  </si>
+  <si>
     <t>LAZARO BEZERRA SOARES</t>
   </si>
   <si>
@@ -876,18 +897,15 @@
     <t>ALEGRENSE DISTRIBUIDORA E REP</t>
   </si>
   <si>
-    <t>AAZ COMERCIAL LTDA</t>
-  </si>
-  <si>
     <t>SMART SOLUTIONS - SOLUCOES IN</t>
   </si>
   <si>
+    <t>LER - LIVRARIA E PAPELARIA LT</t>
+  </si>
+  <si>
     <t>LG COMERCIO E SERVICOS LTDA</t>
   </si>
   <si>
-    <t>LER - LIVRARIA E PAPELARIA LT</t>
-  </si>
-  <si>
     <t>AMAZONAS COMERCIO DE ADESIVOS</t>
   </si>
   <si>
@@ -930,25 +948,22 @@
     <t>ANJ COMERCIO DE PRODUTOS ALIM</t>
   </si>
   <si>
-    <t>UEDAMA COMERCIO DE PRODUTOS A</t>
-  </si>
-  <si>
     <t>YOUC DISTRIBUIDORA LTDA</t>
   </si>
   <si>
+    <t>NOBORU HORTIFRUTI LTDA</t>
+  </si>
+  <si>
+    <t>JT&amp;A SOLUCOES LTDA</t>
+  </si>
+  <si>
+    <t>COMERCIAL MINAS BRASILIA LTDA</t>
+  </si>
+  <si>
     <t>J &amp; S ALIMENTOS LTDA</t>
   </si>
   <si>
-    <t>NOBORU HORTIFRUTI LTDA</t>
-  </si>
-  <si>
-    <t>JT&amp;A SOLUCOES LTDA</t>
-  </si>
-  <si>
-    <t>COMERCIAL MINAS BRASILIA LTDA</t>
-  </si>
-  <si>
-    <t>ANDRACON SERVICOS GERAIS LTDA</t>
+    <t>C DO VALE LOPES</t>
   </si>
   <si>
     <t>M&amp;M IMPORTACAO E ECOMMERCE DE</t>
@@ -963,9 +978,6 @@
     <t>REPREMIG REPRESENTACAO E COME</t>
   </si>
   <si>
-    <t>C DO VALE LOPES</t>
-  </si>
-  <si>
     <t>OKAY TECHNOLOGY COMERCIO DO B</t>
   </si>
   <si>
@@ -990,27 +1002,27 @@
     <t>GLOBAL DISTRIBUICAO DE BENS D</t>
   </si>
   <si>
+    <t>JVC INDUSTRIA COMERCIO ATACAD</t>
+  </si>
+  <si>
     <t>FRIGORIFICO CALAFATE LTDA</t>
   </si>
   <si>
-    <t>JVC INDUSTRIA COMERCIO ATACAD</t>
+    <t>PEIXE DO CAIS COMERCIO DE PES</t>
+  </si>
+  <si>
+    <t>S J PARAISO CHARQUE LTDA</t>
   </si>
   <si>
     <t>JCA COMERCIO DE ALIMENTOS LTD</t>
   </si>
   <si>
+    <t>FONTE DE VIDA INDUSTRIA E COM</t>
+  </si>
+  <si>
     <t>MIRANDA COMERCIO DE ALIMENTOS</t>
   </si>
   <si>
-    <t>S J PARAISO CHARQUE LTDA</t>
-  </si>
-  <si>
-    <t>FONTE DE VIDA INDUSTRIA E COM</t>
-  </si>
-  <si>
-    <t>PEIXE DO CAIS COMERCIO DE PES</t>
-  </si>
-  <si>
     <t>RPR REPRESENTACAO DE PRODUTOS</t>
   </si>
   <si>
@@ -1035,9 +1047,6 @@
     <t>Hortifrutigranjeiros</t>
   </si>
   <si>
-    <t>Serviços de Limpeza</t>
-  </si>
-  <si>
     <t>Contêineres Frigoríficos</t>
   </si>
   <si>
@@ -1050,9 +1059,6 @@
     <t>Eventos Protocolares</t>
   </si>
   <si>
-    <t>Panificados</t>
-  </si>
-  <si>
     <t>29/03/2024</t>
   </si>
   <si>
@@ -1089,9 +1095,6 @@
     <t>20/07/2024</t>
   </si>
   <si>
-    <t>04/08/2024</t>
-  </si>
-  <si>
     <t>28/08/2024</t>
   </si>
   <si>
@@ -1129,9 +1132,6 @@
   </si>
   <si>
     <t>26/01/2025</t>
-  </si>
-  <si>
-    <t>23/02/2025</t>
   </si>
   <si>
     <t>Controle de Atas de Registro de Preços - 2024</t>
@@ -1534,7 +1534,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K44"/>
+  <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1554,7 +1554,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="20" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1569,7 +1569,7 @@
     </row>
     <row r="2" spans="1:11" ht="30" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1584,7 +1584,7 @@
     </row>
     <row r="3" spans="1:11" ht="30" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1599,7 +1599,7 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="2" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1640,34 +1640,38 @@
       <c r="I5" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="J5" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="4">
         <v>1</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>79</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="E6" s="4"/>
       <c r="F6" s="4" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="I6" s="4">
-        <v>-9</v>
+        <v>1</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1678,25 +1682,26 @@
         <v>10</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>80</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="E7" s="4"/>
       <c r="F7" s="4" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="I7" s="4">
-        <v>-6</v>
+        <v>5</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1704,28 +1709,31 @@
         <v>3</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="I8" s="4">
-        <v>5</v>
+        <v>17</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1733,28 +1741,31 @@
         <v>4</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="I9" s="4">
-        <v>9</v>
+        <v>26</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1762,28 +1773,31 @@
         <v>5</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="I10" s="4">
-        <v>21</v>
+        <v>42</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1791,28 +1805,31 @@
         <v>6</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="I11" s="4">
-        <v>30</v>
+        <v>54</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1820,28 +1837,31 @@
         <v>7</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="I12" s="4">
-        <v>46</v>
+        <v>73</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1849,28 +1869,31 @@
         <v>8</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>82</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="I13" s="4">
-        <v>58</v>
+        <v>74</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1878,28 +1901,31 @@
         <v>9</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="I14" s="4">
-        <v>77</v>
+        <v>130</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1907,28 +1933,31 @@
         <v>10</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="I15" s="4">
-        <v>78</v>
+        <v>130</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1936,60 +1965,66 @@
         <v>11</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="I16" s="4">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>141</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="4">
         <v>12</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="I17" s="4">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>141</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="4">
         <v>13</v>
       </c>
@@ -1997,115 +2032,127 @@
         <v>19</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="I18" s="4">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>141</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="4">
         <v>14</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="I19" s="4">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>144</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="4">
         <v>15</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="I20" s="4">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>151</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="4">
         <v>16</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="I21" s="4">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>156</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="4">
         <v>17</v>
       </c>
@@ -2113,663 +2160,762 @@
         <v>17</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="I22" s="4">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>166</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="4">
         <v>18</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="I23" s="4">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>172</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="4">
         <v>19</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="I24" s="4">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>218</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="4">
         <v>20</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="I25" s="4">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>219</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="4">
         <v>21</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="I26" s="4">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>245</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="4">
         <v>22</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="I27" s="4">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>252</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="4">
         <v>23</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="I28" s="4">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>261</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="4">
         <v>24</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="I29" s="4">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>261</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="4">
         <v>25</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="I30" s="4">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>267</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="4">
         <v>26</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="I31" s="4">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>269</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="4">
         <v>27</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="I32" s="4">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>271</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="4">
         <v>28</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="I33" s="4">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>271</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="4">
         <v>29</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="I34" s="4">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>271</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="4">
         <v>30</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="I35" s="4">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>271</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="4">
         <v>31</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="I36" s="4">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>274</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="4">
         <v>32</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="I37" s="4">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>282</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="4">
         <v>33</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="I38" s="4">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>342</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="4">
         <v>34</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="I39" s="4">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>342</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="4">
         <v>35</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="I40" s="4">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>347</v>
+      </c>
+      <c r="J40" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="4">
         <v>36</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="I41" s="4">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>353</v>
+      </c>
+      <c r="J41" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="4">
         <v>37</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="I42" s="4">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>616</v>
+      </c>
+      <c r="J42" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="4">
         <v>38</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>89</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="E43" s="4"/>
       <c r="F43" s="4" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="I43" s="4">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>740</v>
+      </c>
+      <c r="J43" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="4">
         <v>39</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D44" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="I44" s="4">
+        <v>740</v>
+      </c>
+      <c r="J44" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="4">
+        <v>40</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C45" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="E44" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="G44" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="H44" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="I44" s="4">
-        <v>1437</v>
+      <c r="D45" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="I45" s="4">
+        <v>1433</v>
+      </c>
+      <c r="J45" s="4" t="s">
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -2789,7 +2935,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K78"/>
+  <dimension ref="A1:K76"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2809,7 +2955,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="20" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2824,7 +2970,7 @@
     </row>
     <row r="2" spans="1:11" ht="30" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -2854,7 +3000,7 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="2" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -2875,7 +3021,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>3</v>
@@ -2894,6 +3040,9 @@
       </c>
       <c r="I5" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -2901,28 +3050,31 @@
         <v>1</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="I6" s="4">
-        <v>20</v>
+        <v>16</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -2930,28 +3082,31 @@
         <v>2</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="I7" s="4">
-        <v>20</v>
+        <v>16</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -2959,28 +3114,31 @@
         <v>3</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="I8" s="4">
-        <v>33</v>
+        <v>29</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -2988,28 +3146,31 @@
         <v>4</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I9" s="4">
-        <v>67</v>
+        <v>63</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -3017,28 +3178,31 @@
         <v>5</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I10" s="4">
-        <v>67</v>
+        <v>63</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -3046,28 +3210,31 @@
         <v>6</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I11" s="4">
-        <v>67</v>
+        <v>63</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -3075,28 +3242,31 @@
         <v>7</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I12" s="4">
-        <v>67</v>
+        <v>63</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -3104,28 +3274,31 @@
         <v>8</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I13" s="4">
-        <v>67</v>
+        <v>63</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -3133,28 +3306,31 @@
         <v>9</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I14" s="4">
-        <v>67</v>
+        <v>63</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -3162,28 +3338,31 @@
         <v>10</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I15" s="4">
-        <v>67</v>
+        <v>63</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -3191,147 +3370,162 @@
         <v>11</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I16" s="4">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>63</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="4">
         <v>12</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I17" s="4">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>63</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="4">
         <v>13</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="I18" s="4">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>64</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="4">
         <v>14</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="I19" s="4">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>64</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="4">
         <v>15</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="I20" s="4">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>65</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="4">
         <v>16</v>
       </c>
@@ -3339,57 +3533,63 @@
         <v>16</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="I21" s="4">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>70</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="4">
         <v>17</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="I22" s="4">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>74</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="4">
         <v>18</v>
       </c>
@@ -3397,28 +3597,31 @@
         <v>16</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="I23" s="4">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>86</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="4">
         <v>19</v>
       </c>
@@ -3426,28 +3629,31 @@
         <v>16</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="I24" s="4">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>86</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="4">
         <v>20</v>
       </c>
@@ -3455,28 +3661,31 @@
         <v>16</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="I25" s="4">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>86</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="4">
         <v>21</v>
       </c>
@@ -3484,28 +3693,31 @@
         <v>16</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="I26" s="4">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>86</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="4">
         <v>22</v>
       </c>
@@ -3513,28 +3725,31 @@
         <v>16</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="I27" s="4">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>86</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="4">
         <v>23</v>
       </c>
@@ -3542,28 +3757,31 @@
         <v>16</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="I28" s="4">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>86</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="4">
         <v>24</v>
       </c>
@@ -3571,28 +3789,31 @@
         <v>16</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="I29" s="4">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>86</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="4">
         <v>25</v>
       </c>
@@ -3600,1417 +3821,1498 @@
         <v>16</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="I30" s="4">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>86</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="4">
         <v>26</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="I31" s="4">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>91</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="4">
         <v>27</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="I32" s="4">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>94</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="4">
         <v>28</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="I33" s="4">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>101</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="4">
         <v>29</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="I34" s="4">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>101</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="4">
         <v>30</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>304</v>
+        <v>128</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="I35" s="4">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>101</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="4">
         <v>31</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="I36" s="4">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>101</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="4">
         <v>32</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="I37" s="4">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>120</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="4">
         <v>33</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="I38" s="4">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>120</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="4">
         <v>34</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="I39" s="4">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>120</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="4">
         <v>35</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="I40" s="4">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>120</v>
+      </c>
+      <c r="J40" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="4">
         <v>36</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="I41" s="4">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>129</v>
+      </c>
+      <c r="J41" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="4">
         <v>37</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>304</v>
+        <v>128</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="I42" s="4">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>129</v>
+      </c>
+      <c r="J42" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="4">
         <v>38</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>195</v>
+        <v>21</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>310</v>
+        <v>109</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>339</v>
+        <v>145</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>357</v>
+        <v>173</v>
       </c>
       <c r="I43" s="4">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>151</v>
+      </c>
+      <c r="J43" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="4">
         <v>39</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>88</v>
+        <v>281</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>107</v>
+        <v>315</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>167</v>
+        <v>359</v>
       </c>
       <c r="I44" s="4">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>168</v>
+      </c>
+      <c r="J44" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="4">
         <v>40</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="I45" s="4">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>168</v>
+      </c>
+      <c r="J45" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="4">
         <v>41</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="I46" s="4">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>168</v>
+      </c>
+      <c r="J46" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="4">
         <v>42</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="I47" s="4">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>168</v>
+      </c>
+      <c r="J47" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="4">
         <v>43</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="I48" s="4">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>168</v>
+      </c>
+      <c r="J48" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="4">
         <v>44</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>275</v>
+        <v>90</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>315</v>
+        <v>115</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="I49" s="4">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>182</v>
+      </c>
+      <c r="J49" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="4">
         <v>45</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>113</v>
+        <v>320</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="I50" s="4">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>184</v>
+      </c>
+      <c r="J50" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="4">
         <v>46</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="I51" s="4">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>184</v>
+      </c>
+      <c r="J51" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="4">
         <v>47</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="I52" s="4">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>186</v>
+      </c>
+      <c r="J52" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="4">
         <v>48</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="I53" s="4">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>186</v>
+      </c>
+      <c r="J53" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="4">
         <v>49</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="I54" s="4">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>186</v>
+      </c>
+      <c r="J54" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="4">
         <v>50</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="I55" s="4">
         <v>190</v>
       </c>
-    </row>
-    <row r="56" spans="1:9">
+      <c r="J55" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="4">
         <v>51</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>23</v>
+        <v>204</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>89</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="E56" s="4"/>
       <c r="F56" s="4" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>143</v>
+        <v>343</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="I56" s="4">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>242</v>
+      </c>
+      <c r="J56" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="4">
         <v>52</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>273</v>
+        <v>80</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>340</v>
+        <v>148</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="I57" s="4">
         <v>246</v>
       </c>
-    </row>
-    <row r="58" spans="1:9">
+      <c r="J57" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="4">
         <v>53</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>143</v>
+        <v>344</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="I58" s="4">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>259</v>
+      </c>
+      <c r="J58" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="4">
         <v>54</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="I59" s="4">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>259</v>
+      </c>
+      <c r="J59" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="4">
         <v>55</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="I60" s="4">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>259</v>
+      </c>
+      <c r="J60" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="4">
         <v>56</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="I61" s="4">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>259</v>
+      </c>
+      <c r="J61" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="4">
         <v>57</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="I62" s="4">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>259</v>
+      </c>
+      <c r="J62" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="4">
         <v>58</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="I63" s="4">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>259</v>
+      </c>
+      <c r="J63" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="4">
         <v>59</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="I64" s="4">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>259</v>
+      </c>
+      <c r="J64" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="4">
         <v>60</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>330</v>
+        <v>308</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="I65" s="4">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>262</v>
+      </c>
+      <c r="J65" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="4">
         <v>61</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>302</v>
+        <v>332</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="I66" s="4">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>262</v>
+      </c>
+      <c r="J66" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="4">
         <v>62</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="I67" s="4">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>262</v>
+      </c>
+      <c r="J67" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="4">
         <v>63</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="C68" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="H68" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="I68" s="4">
         <v>262</v>
       </c>
-      <c r="D68" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="E68" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="F68" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="G68" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="H68" s="4" t="s">
-        <v>366</v>
-      </c>
-      <c r="I68" s="4">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+      <c r="J68" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="4">
         <v>64</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>366</v>
+        <v>183</v>
       </c>
       <c r="I69" s="4">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>269</v>
+      </c>
+      <c r="J69" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="4">
         <v>65</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>305</v>
+        <v>329</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>177</v>
+        <v>368</v>
       </c>
       <c r="I70" s="4">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>276</v>
+      </c>
+      <c r="J70" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="4">
         <v>66</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="I71" s="4">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>276</v>
+      </c>
+      <c r="J71" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="4">
         <v>67</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="I72" s="4">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>276</v>
+      </c>
+      <c r="J72" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="4">
         <v>68</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>309</v>
+        <v>330</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="I73" s="4">
         <v>280</v>
       </c>
-    </row>
-    <row r="74" spans="1:9">
+      <c r="J73" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="4">
         <v>69</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="I74" s="4">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>281</v>
+      </c>
+      <c r="J74" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="4">
         <v>70</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="I75" s="4">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>319</v>
+      </c>
+      <c r="J75" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="4">
         <v>71</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>199</v>
+        <v>25</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>332</v>
+        <v>313</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>343</v>
+        <v>157</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="I76" s="4">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
-      <c r="A77" s="4">
-        <v>72</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="D77" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="E77" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="F77" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="G77" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="H77" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="I77" s="4">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
-      <c r="A78" s="4">
-        <v>73</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="D78" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="E78" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="F78" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="G78" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="H78" s="4" t="s">
-        <v>371</v>
-      </c>
-      <c r="I78" s="4">
-        <v>351</v>
+        <v>319</v>
+      </c>
+      <c r="J76" s="4" t="s">
+        <v>197</v>
       </c>
     </row>
   </sheetData>

--- a/controle_contratos/Planilha_Completa.xlsx
+++ b/controle_contratos/Planilha_Completa.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1705" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1709" uniqueCount="376">
   <si>
     <t>Nº</t>
   </si>
@@ -597,6 +597,12 @@
     <t>14/02/2028</t>
   </si>
   <si>
+    <t>https://www.com7dn.mb/sites/default/arquivos/obtencao/Atas_e_Contratos/PE_08-2023/87000_24-002_00/contrato_inicial/contrato_inicial.pdf</t>
+  </si>
+  <si>
+    <t>https://www.com7dn.mb/sites/default/arquivos/obtencao/Atas_e_Contratos/PE_10-2020/87000_21-005_00/contrato_inicial/contrato_inicial.pdf</t>
+  </si>
+  <si>
     <t>Centro de Intendência da Marinha em Brasília</t>
   </si>
   <si>
@@ -606,10 +612,13 @@
     <t>Controle de Contratos - 2024</t>
   </si>
   <si>
-    <t>Atualizado em: 12/03/2024</t>
+    <t>Atualizado em: 13/03/2024</t>
   </si>
   <si>
     <t>Link indisponível</t>
+  </si>
+  <si>
+    <t>Ver Detalhes</t>
   </si>
   <si>
     <t>Ata</t>
@@ -1141,7 +1150,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1180,6 +1189,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1220,10 +1236,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1237,8 +1257,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1554,7 +1576,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="20" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1569,7 +1591,7 @@
     </row>
     <row r="2" spans="1:11" ht="30" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1584,7 +1606,7 @@
     </row>
     <row r="3" spans="1:11" ht="30" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1599,7 +1621,7 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1668,10 +1690,10 @@
         <v>162</v>
       </c>
       <c r="I6" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1698,10 +1720,10 @@
         <v>163</v>
       </c>
       <c r="I7" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1730,10 +1752,10 @@
         <v>164</v>
       </c>
       <c r="I8" s="4">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1762,10 +1784,10 @@
         <v>165</v>
       </c>
       <c r="I9" s="4">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1794,10 +1816,10 @@
         <v>166</v>
       </c>
       <c r="I10" s="4">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1826,10 +1848,10 @@
         <v>167</v>
       </c>
       <c r="I11" s="4">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1858,10 +1880,10 @@
         <v>168</v>
       </c>
       <c r="I12" s="4">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1890,10 +1912,10 @@
         <v>169</v>
       </c>
       <c r="I13" s="4">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1922,10 +1944,10 @@
         <v>170</v>
       </c>
       <c r="I14" s="4">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1954,10 +1976,10 @@
         <v>170</v>
       </c>
       <c r="I15" s="4">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1986,10 +2008,10 @@
         <v>171</v>
       </c>
       <c r="I16" s="4">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -2018,10 +2040,10 @@
         <v>171</v>
       </c>
       <c r="I17" s="4">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -2050,10 +2072,10 @@
         <v>171</v>
       </c>
       <c r="I18" s="4">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -2082,10 +2104,10 @@
         <v>172</v>
       </c>
       <c r="I19" s="4">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -2114,10 +2136,10 @@
         <v>173</v>
       </c>
       <c r="I20" s="4">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -2146,10 +2168,10 @@
         <v>174</v>
       </c>
       <c r="I21" s="4">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -2178,10 +2200,10 @@
         <v>175</v>
       </c>
       <c r="I22" s="4">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -2210,10 +2232,10 @@
         <v>176</v>
       </c>
       <c r="I23" s="4">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -2242,10 +2264,10 @@
         <v>177</v>
       </c>
       <c r="I24" s="4">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -2274,10 +2296,10 @@
         <v>178</v>
       </c>
       <c r="I25" s="4">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -2306,10 +2328,10 @@
         <v>179</v>
       </c>
       <c r="I26" s="4">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -2338,10 +2360,10 @@
         <v>180</v>
       </c>
       <c r="I27" s="4">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -2370,10 +2392,10 @@
         <v>181</v>
       </c>
       <c r="I28" s="4">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -2402,10 +2424,10 @@
         <v>181</v>
       </c>
       <c r="I29" s="4">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -2434,10 +2456,10 @@
         <v>182</v>
       </c>
       <c r="I30" s="4">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -2466,10 +2488,10 @@
         <v>183</v>
       </c>
       <c r="I31" s="4">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -2498,10 +2520,10 @@
         <v>184</v>
       </c>
       <c r="I32" s="4">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -2530,10 +2552,10 @@
         <v>184</v>
       </c>
       <c r="I33" s="4">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -2562,10 +2584,10 @@
         <v>184</v>
       </c>
       <c r="I34" s="4">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -2594,10 +2616,10 @@
         <v>184</v>
       </c>
       <c r="I35" s="4">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -2626,10 +2648,10 @@
         <v>185</v>
       </c>
       <c r="I36" s="4">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -2658,10 +2680,10 @@
         <v>186</v>
       </c>
       <c r="I37" s="4">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -2690,10 +2712,10 @@
         <v>187</v>
       </c>
       <c r="I38" s="4">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -2722,10 +2744,10 @@
         <v>187</v>
       </c>
       <c r="I39" s="4">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -2754,10 +2776,10 @@
         <v>188</v>
       </c>
       <c r="I40" s="4">
-        <v>347</v>
-      </c>
-      <c r="J40" s="4" t="s">
-        <v>197</v>
+        <v>346</v>
+      </c>
+      <c r="J40" s="5" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -2786,10 +2808,10 @@
         <v>189</v>
       </c>
       <c r="I41" s="4">
-        <v>353</v>
-      </c>
-      <c r="J41" s="4" t="s">
-        <v>197</v>
+        <v>352</v>
+      </c>
+      <c r="J41" s="5" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -2818,10 +2840,10 @@
         <v>190</v>
       </c>
       <c r="I42" s="4">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -2848,10 +2870,10 @@
         <v>191</v>
       </c>
       <c r="I43" s="4">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -2880,10 +2902,10 @@
         <v>191</v>
       </c>
       <c r="I44" s="4">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -2912,10 +2934,10 @@
         <v>192</v>
       </c>
       <c r="I45" s="4">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -2925,6 +2947,10 @@
     <mergeCell ref="A3:K3"/>
     <mergeCell ref="A4:K4"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="J40" r:id="rId1"/>
+    <hyperlink ref="J41" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0" right="0" top="0" bottom="0.7" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape"/>
 </worksheet>
@@ -2955,7 +2981,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="20" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2970,7 +2996,7 @@
     </row>
     <row r="2" spans="1:11" ht="30" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -2985,7 +3011,7 @@
     </row>
     <row r="3" spans="1:11" ht="30" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -3000,7 +3026,7 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -3021,7 +3047,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>3</v>
@@ -3050,10 +3076,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>79</v>
@@ -3062,19 +3088,19 @@
         <v>82</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="I6" s="4">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -3082,10 +3108,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>79</v>
@@ -3094,19 +3120,19 @@
         <v>82</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="I7" s="4">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -3114,31 +3140,31 @@
         <v>3</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>80</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="I8" s="4">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -3146,31 +3172,31 @@
         <v>4</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>80</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="I9" s="4">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -3178,31 +3204,31 @@
         <v>5</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>80</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="I10" s="4">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -3210,31 +3236,31 @@
         <v>6</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>80</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="I11" s="4">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -3242,31 +3268,31 @@
         <v>7</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>80</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="I12" s="4">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -3274,31 +3300,31 @@
         <v>8</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>80</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="I13" s="4">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -3306,31 +3332,31 @@
         <v>9</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>80</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="I14" s="4">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -3338,31 +3364,31 @@
         <v>10</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>80</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="I15" s="4">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -3370,31 +3396,31 @@
         <v>11</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>80</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="I16" s="4">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -3402,31 +3428,31 @@
         <v>12</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>80</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="I17" s="4">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -3434,31 +3460,31 @@
         <v>13</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>80</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="I18" s="4">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -3466,31 +3492,31 @@
         <v>14</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>80</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="I19" s="4">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -3498,31 +3524,31 @@
         <v>15</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>80</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="I20" s="4">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -3533,7 +3559,7 @@
         <v>16</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>79</v>
@@ -3542,19 +3568,19 @@
         <v>82</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>140</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="I21" s="4">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -3565,7 +3591,7 @@
         <v>35</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>80</v>
@@ -3577,16 +3603,16 @@
         <v>130</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="H22" s="4" t="s">
         <v>169</v>
       </c>
       <c r="I22" s="4">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -3597,7 +3623,7 @@
         <v>16</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>79</v>
@@ -3606,19 +3632,19 @@
         <v>82</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>140</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="I23" s="4">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -3629,7 +3655,7 @@
         <v>16</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>79</v>
@@ -3638,19 +3664,19 @@
         <v>82</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>140</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="I24" s="4">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -3661,7 +3687,7 @@
         <v>16</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>79</v>
@@ -3670,19 +3696,19 @@
         <v>82</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>140</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="I25" s="4">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -3693,7 +3719,7 @@
         <v>16</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>79</v>
@@ -3702,19 +3728,19 @@
         <v>82</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>140</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="I26" s="4">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -3725,7 +3751,7 @@
         <v>16</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>79</v>
@@ -3734,19 +3760,19 @@
         <v>82</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>140</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="I27" s="4">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -3757,7 +3783,7 @@
         <v>16</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>79</v>
@@ -3766,19 +3792,19 @@
         <v>82</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>140</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="I28" s="4">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -3789,7 +3815,7 @@
         <v>16</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>79</v>
@@ -3798,19 +3824,19 @@
         <v>82</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>140</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="I29" s="4">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -3821,7 +3847,7 @@
         <v>16</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>79</v>
@@ -3830,19 +3856,19 @@
         <v>82</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="G30" s="4" t="s">
         <v>140</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="I30" s="4">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -3850,31 +3876,31 @@
         <v>26</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>80</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="I31" s="4">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -3882,10 +3908,10 @@
         <v>27</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>79</v>
@@ -3894,19 +3920,19 @@
         <v>82</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>140</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="I32" s="4">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -3914,10 +3940,10 @@
         <v>28</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>79</v>
@@ -3926,19 +3952,19 @@
         <v>82</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="I33" s="4">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -3946,10 +3972,10 @@
         <v>29</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>79</v>
@@ -3958,19 +3984,19 @@
         <v>82</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="I34" s="4">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -3978,10 +4004,10 @@
         <v>30</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>79</v>
@@ -3993,16 +4019,16 @@
         <v>128</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="I35" s="4">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -4010,10 +4036,10 @@
         <v>31</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>79</v>
@@ -4022,19 +4048,19 @@
         <v>82</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="I36" s="4">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -4042,10 +4068,10 @@
         <v>32</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>79</v>
@@ -4054,19 +4080,19 @@
         <v>82</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="I37" s="4">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -4074,10 +4100,10 @@
         <v>33</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>79</v>
@@ -4086,19 +4112,19 @@
         <v>82</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="I38" s="4">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -4106,10 +4132,10 @@
         <v>34</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>79</v>
@@ -4118,19 +4144,19 @@
         <v>82</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="I39" s="4">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -4138,10 +4164,10 @@
         <v>35</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>79</v>
@@ -4150,19 +4176,19 @@
         <v>82</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="I40" s="4">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -4170,10 +4196,10 @@
         <v>36</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>79</v>
@@ -4182,19 +4208,19 @@
         <v>82</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="I41" s="4">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -4202,10 +4228,10 @@
         <v>37</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>79</v>
@@ -4217,16 +4243,16 @@
         <v>128</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="I42" s="4">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -4237,7 +4263,7 @@
         <v>21</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>80</v>
@@ -4255,10 +4281,10 @@
         <v>173</v>
       </c>
       <c r="I43" s="4">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -4269,28 +4295,28 @@
         <v>24</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>79</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="G44" s="4" t="s">
         <v>148</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="I44" s="4">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -4301,7 +4327,7 @@
         <v>24</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>80</v>
@@ -4310,19 +4336,19 @@
         <v>90</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="G45" s="4" t="s">
         <v>148</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="I45" s="4">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -4333,7 +4359,7 @@
         <v>24</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>80</v>
@@ -4342,19 +4368,19 @@
         <v>90</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="G46" s="4" t="s">
         <v>148</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="I46" s="4">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J46" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -4365,7 +4391,7 @@
         <v>24</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>80</v>
@@ -4374,19 +4400,19 @@
         <v>90</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="G47" s="4" t="s">
         <v>148</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="I47" s="4">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -4397,7 +4423,7 @@
         <v>24</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>80</v>
@@ -4406,19 +4432,19 @@
         <v>90</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="G48" s="4" t="s">
         <v>148</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="I48" s="4">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -4429,7 +4455,7 @@
         <v>24</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>80</v>
@@ -4444,13 +4470,13 @@
         <v>148</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="I49" s="4">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J49" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -4461,7 +4487,7 @@
         <v>24</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="D50" s="4" t="s">
         <v>80</v>
@@ -4470,19 +4496,19 @@
         <v>90</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="G50" s="4" t="s">
         <v>148</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="I50" s="4">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J50" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -4493,7 +4519,7 @@
         <v>24</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>80</v>
@@ -4502,19 +4528,19 @@
         <v>90</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="G51" s="4" t="s">
         <v>148</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="I51" s="4">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J51" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -4525,7 +4551,7 @@
         <v>24</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="D52" s="4" t="s">
         <v>80</v>
@@ -4534,19 +4560,19 @@
         <v>90</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="G52" s="4" t="s">
         <v>148</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="I52" s="4">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J52" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -4557,7 +4583,7 @@
         <v>24</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>80</v>
@@ -4566,19 +4592,19 @@
         <v>90</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="G53" s="4" t="s">
         <v>148</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="I53" s="4">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J53" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -4589,7 +4615,7 @@
         <v>24</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>80</v>
@@ -4598,19 +4624,19 @@
         <v>90</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="G54" s="4" t="s">
         <v>148</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="I54" s="4">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J54" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -4621,7 +4647,7 @@
         <v>24</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>80</v>
@@ -4630,19 +4656,19 @@
         <v>90</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="G55" s="4" t="s">
         <v>148</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="I55" s="4">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J55" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -4650,29 +4676,29 @@
         <v>51</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="E56" s="4"/>
       <c r="F56" s="4" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="I56" s="4">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J56" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -4680,10 +4706,10 @@
         <v>52</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>80</v>
@@ -4692,19 +4718,19 @@
         <v>91</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="G57" s="4" t="s">
         <v>148</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="I57" s="4">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J57" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -4712,10 +4738,10 @@
         <v>53</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>79</v>
@@ -4724,19 +4750,19 @@
         <v>82</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="I58" s="4">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J58" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -4744,10 +4770,10 @@
         <v>54</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>79</v>
@@ -4756,19 +4782,19 @@
         <v>82</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="I59" s="4">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J59" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -4776,10 +4802,10 @@
         <v>55</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>79</v>
@@ -4788,19 +4814,19 @@
         <v>82</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="I60" s="4">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J60" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -4808,10 +4834,10 @@
         <v>56</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="D61" s="4" t="s">
         <v>79</v>
@@ -4820,19 +4846,19 @@
         <v>82</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="I61" s="4">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J61" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -4840,10 +4866,10 @@
         <v>57</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="D62" s="4" t="s">
         <v>79</v>
@@ -4852,19 +4878,19 @@
         <v>82</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="I62" s="4">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J62" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -4872,10 +4898,10 @@
         <v>58</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="D63" s="4" t="s">
         <v>79</v>
@@ -4884,19 +4910,19 @@
         <v>82</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="I63" s="4">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J63" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -4904,10 +4930,10 @@
         <v>59</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="D64" s="4" t="s">
         <v>79</v>
@@ -4916,19 +4942,19 @@
         <v>82</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="I64" s="4">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J64" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -4936,10 +4962,10 @@
         <v>60</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>79</v>
@@ -4948,19 +4974,19 @@
         <v>82</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="I65" s="4">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="J65" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -4968,10 +4994,10 @@
         <v>61</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D66" s="4" t="s">
         <v>79</v>
@@ -4980,19 +5006,19 @@
         <v>82</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="I66" s="4">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="J66" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="67" spans="1:10">
@@ -5000,10 +5026,10 @@
         <v>62</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D67" s="4" t="s">
         <v>79</v>
@@ -5012,19 +5038,19 @@
         <v>82</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="I67" s="4">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="J67" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -5032,10 +5058,10 @@
         <v>63</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="D68" s="4" t="s">
         <v>79</v>
@@ -5044,19 +5070,19 @@
         <v>82</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="I68" s="4">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="J68" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="69" spans="1:10">
@@ -5064,10 +5090,10 @@
         <v>64</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="D69" s="4" t="s">
         <v>79</v>
@@ -5076,19 +5102,19 @@
         <v>82</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="H69" s="4" t="s">
         <v>183</v>
       </c>
       <c r="I69" s="4">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J69" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="70" spans="1:10">
@@ -5096,10 +5122,10 @@
         <v>65</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="D70" s="4" t="s">
         <v>79</v>
@@ -5108,19 +5134,19 @@
         <v>82</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="I70" s="4">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J70" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="71" spans="1:10">
@@ -5128,10 +5154,10 @@
         <v>66</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="D71" s="4" t="s">
         <v>79</v>
@@ -5140,19 +5166,19 @@
         <v>82</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="I71" s="4">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J71" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="72" spans="1:10">
@@ -5160,10 +5186,10 @@
         <v>67</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="D72" s="4" t="s">
         <v>79</v>
@@ -5172,19 +5198,19 @@
         <v>82</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="I72" s="4">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J72" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="73" spans="1:10">
@@ -5192,10 +5218,10 @@
         <v>68</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="D73" s="4" t="s">
         <v>79</v>
@@ -5204,19 +5230,19 @@
         <v>82</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="I73" s="4">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J73" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="74" spans="1:10">
@@ -5224,10 +5250,10 @@
         <v>69</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="D74" s="4" t="s">
         <v>79</v>
@@ -5236,19 +5262,19 @@
         <v>82</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="I74" s="4">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="J74" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="75" spans="1:10">
@@ -5256,10 +5282,10 @@
         <v>70</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="D75" s="4" t="s">
         <v>79</v>
@@ -5268,19 +5294,19 @@
         <v>82</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="I75" s="4">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="J75" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="76" spans="1:10">
@@ -5291,7 +5317,7 @@
         <v>25</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="D76" s="4" t="s">
         <v>80</v>
@@ -5300,19 +5326,19 @@
         <v>84</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="G76" s="4" t="s">
         <v>157</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="I76" s="4">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="J76" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>

--- a/controle_contratos/Planilha_Completa.xlsx
+++ b/controle_contratos/Planilha_Completa.xlsx
@@ -612,7 +612,7 @@
     <t>Controle de Contratos - 2024</t>
   </si>
   <si>
-    <t>Atualizado em: 04/05/2024</t>
+    <t>Atualizado em: 09/05/2024</t>
   </si>
   <si>
     <t>Link indisponível</t>
@@ -1690,7 +1690,7 @@
         <v>162</v>
       </c>
       <c r="I6" s="4">
-        <v>-52</v>
+        <v>-57</v>
       </c>
       <c r="J6" s="4" t="s">
         <v>199</v>
@@ -1720,7 +1720,7 @@
         <v>163</v>
       </c>
       <c r="I7" s="4">
-        <v>-48</v>
+        <v>-53</v>
       </c>
       <c r="J7" s="4" t="s">
         <v>199</v>
@@ -1752,7 +1752,7 @@
         <v>164</v>
       </c>
       <c r="I8" s="4">
-        <v>-36</v>
+        <v>-41</v>
       </c>
       <c r="J8" s="4" t="s">
         <v>199</v>
@@ -1784,7 +1784,7 @@
         <v>165</v>
       </c>
       <c r="I9" s="4">
-        <v>-27</v>
+        <v>-32</v>
       </c>
       <c r="J9" s="4" t="s">
         <v>199</v>
@@ -1816,7 +1816,7 @@
         <v>166</v>
       </c>
       <c r="I10" s="4">
-        <v>-11</v>
+        <v>-16</v>
       </c>
       <c r="J10" s="4" t="s">
         <v>199</v>
@@ -1848,7 +1848,7 @@
         <v>167</v>
       </c>
       <c r="I11" s="4">
-        <v>1</v>
+        <v>-4</v>
       </c>
       <c r="J11" s="4" t="s">
         <v>199</v>
@@ -1880,7 +1880,7 @@
         <v>168</v>
       </c>
       <c r="I12" s="4">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J12" s="4" t="s">
         <v>199</v>
@@ -1912,7 +1912,7 @@
         <v>169</v>
       </c>
       <c r="I13" s="4">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="J13" s="4" t="s">
         <v>199</v>
@@ -1944,7 +1944,7 @@
         <v>170</v>
       </c>
       <c r="I14" s="4">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="J14" s="4" t="s">
         <v>199</v>
@@ -1976,7 +1976,7 @@
         <v>170</v>
       </c>
       <c r="I15" s="4">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="J15" s="4" t="s">
         <v>199</v>
@@ -2008,7 +2008,7 @@
         <v>171</v>
       </c>
       <c r="I16" s="4">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="J16" s="4" t="s">
         <v>199</v>
@@ -2040,7 +2040,7 @@
         <v>171</v>
       </c>
       <c r="I17" s="4">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="J17" s="4" t="s">
         <v>199</v>
@@ -2072,7 +2072,7 @@
         <v>171</v>
       </c>
       <c r="I18" s="4">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="J18" s="4" t="s">
         <v>199</v>
@@ -2104,7 +2104,7 @@
         <v>172</v>
       </c>
       <c r="I19" s="4">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="J19" s="4" t="s">
         <v>199</v>
@@ -2136,7 +2136,7 @@
         <v>173</v>
       </c>
       <c r="I20" s="4">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="J20" s="4" t="s">
         <v>199</v>
@@ -2168,7 +2168,7 @@
         <v>174</v>
       </c>
       <c r="I21" s="4">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="J21" s="4" t="s">
         <v>199</v>
@@ -2200,7 +2200,7 @@
         <v>175</v>
       </c>
       <c r="I22" s="4">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="J22" s="4" t="s">
         <v>199</v>
@@ -2232,7 +2232,7 @@
         <v>176</v>
       </c>
       <c r="I23" s="4">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="J23" s="4" t="s">
         <v>199</v>
@@ -2264,7 +2264,7 @@
         <v>177</v>
       </c>
       <c r="I24" s="4">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="J24" s="4" t="s">
         <v>199</v>
@@ -2296,7 +2296,7 @@
         <v>178</v>
       </c>
       <c r="I25" s="4">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="J25" s="4" t="s">
         <v>199</v>
@@ -2328,7 +2328,7 @@
         <v>179</v>
       </c>
       <c r="I26" s="4">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="J26" s="4" t="s">
         <v>199</v>
@@ -2360,7 +2360,7 @@
         <v>180</v>
       </c>
       <c r="I27" s="4">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="J27" s="4" t="s">
         <v>199</v>
@@ -2392,7 +2392,7 @@
         <v>181</v>
       </c>
       <c r="I28" s="4">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="J28" s="4" t="s">
         <v>199</v>
@@ -2424,7 +2424,7 @@
         <v>181</v>
       </c>
       <c r="I29" s="4">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="J29" s="4" t="s">
         <v>199</v>
@@ -2456,7 +2456,7 @@
         <v>182</v>
       </c>
       <c r="I30" s="4">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="J30" s="4" t="s">
         <v>199</v>
@@ -2488,7 +2488,7 @@
         <v>183</v>
       </c>
       <c r="I31" s="4">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="J31" s="4" t="s">
         <v>199</v>
@@ -2520,7 +2520,7 @@
         <v>184</v>
       </c>
       <c r="I32" s="4">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="J32" s="4" t="s">
         <v>199</v>
@@ -2552,7 +2552,7 @@
         <v>184</v>
       </c>
       <c r="I33" s="4">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="J33" s="4" t="s">
         <v>199</v>
@@ -2584,7 +2584,7 @@
         <v>184</v>
       </c>
       <c r="I34" s="4">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="J34" s="4" t="s">
         <v>199</v>
@@ -2616,7 +2616,7 @@
         <v>184</v>
       </c>
       <c r="I35" s="4">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="J35" s="4" t="s">
         <v>199</v>
@@ -2648,7 +2648,7 @@
         <v>185</v>
       </c>
       <c r="I36" s="4">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="J36" s="4" t="s">
         <v>199</v>
@@ -2680,7 +2680,7 @@
         <v>186</v>
       </c>
       <c r="I37" s="4">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="J37" s="4" t="s">
         <v>199</v>
@@ -2712,7 +2712,7 @@
         <v>187</v>
       </c>
       <c r="I38" s="4">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="J38" s="4" t="s">
         <v>199</v>
@@ -2744,7 +2744,7 @@
         <v>187</v>
       </c>
       <c r="I39" s="4">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="J39" s="4" t="s">
         <v>199</v>
@@ -2776,7 +2776,7 @@
         <v>188</v>
       </c>
       <c r="I40" s="4">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="J40" s="5" t="s">
         <v>200</v>
@@ -2808,7 +2808,7 @@
         <v>189</v>
       </c>
       <c r="I41" s="4">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="J41" s="5" t="s">
         <v>200</v>
@@ -2840,7 +2840,7 @@
         <v>190</v>
       </c>
       <c r="I42" s="4">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="J42" s="4" t="s">
         <v>199</v>
@@ -2870,7 +2870,7 @@
         <v>191</v>
       </c>
       <c r="I43" s="4">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="J43" s="4" t="s">
         <v>199</v>
@@ -2902,7 +2902,7 @@
         <v>191</v>
       </c>
       <c r="I44" s="4">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="J44" s="4" t="s">
         <v>199</v>
@@ -2934,7 +2934,7 @@
         <v>192</v>
       </c>
       <c r="I45" s="4">
-        <v>1380</v>
+        <v>1375</v>
       </c>
       <c r="J45" s="4" t="s">
         <v>199</v>
@@ -3097,7 +3097,7 @@
         <v>350</v>
       </c>
       <c r="I6" s="4">
-        <v>-37</v>
+        <v>-42</v>
       </c>
       <c r="J6" s="4" t="s">
         <v>199</v>
@@ -3129,7 +3129,7 @@
         <v>350</v>
       </c>
       <c r="I7" s="4">
-        <v>-37</v>
+        <v>-42</v>
       </c>
       <c r="J7" s="4" t="s">
         <v>199</v>
@@ -3161,7 +3161,7 @@
         <v>351</v>
       </c>
       <c r="I8" s="4">
-        <v>-24</v>
+        <v>-29</v>
       </c>
       <c r="J8" s="4" t="s">
         <v>199</v>
@@ -3193,7 +3193,7 @@
         <v>352</v>
       </c>
       <c r="I9" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J9" s="4" t="s">
         <v>199</v>
@@ -3225,7 +3225,7 @@
         <v>352</v>
       </c>
       <c r="I10" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J10" s="4" t="s">
         <v>199</v>
@@ -3257,7 +3257,7 @@
         <v>352</v>
       </c>
       <c r="I11" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J11" s="4" t="s">
         <v>199</v>
@@ -3289,7 +3289,7 @@
         <v>352</v>
       </c>
       <c r="I12" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J12" s="4" t="s">
         <v>199</v>
@@ -3321,7 +3321,7 @@
         <v>352</v>
       </c>
       <c r="I13" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J13" s="4" t="s">
         <v>199</v>
@@ -3353,7 +3353,7 @@
         <v>352</v>
       </c>
       <c r="I14" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J14" s="4" t="s">
         <v>199</v>
@@ -3385,7 +3385,7 @@
         <v>352</v>
       </c>
       <c r="I15" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J15" s="4" t="s">
         <v>199</v>
@@ -3417,7 +3417,7 @@
         <v>352</v>
       </c>
       <c r="I16" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J16" s="4" t="s">
         <v>199</v>
@@ -3449,7 +3449,7 @@
         <v>352</v>
       </c>
       <c r="I17" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J17" s="4" t="s">
         <v>199</v>
@@ -3481,7 +3481,7 @@
         <v>353</v>
       </c>
       <c r="I18" s="4">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="J18" s="4" t="s">
         <v>199</v>
@@ -3513,7 +3513,7 @@
         <v>353</v>
       </c>
       <c r="I19" s="4">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="J19" s="4" t="s">
         <v>199</v>
@@ -3545,7 +3545,7 @@
         <v>354</v>
       </c>
       <c r="I20" s="4">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="J20" s="4" t="s">
         <v>199</v>
@@ -3577,7 +3577,7 @@
         <v>355</v>
       </c>
       <c r="I21" s="4">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="J21" s="4" t="s">
         <v>199</v>
@@ -3609,7 +3609,7 @@
         <v>169</v>
       </c>
       <c r="I22" s="4">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="J22" s="4" t="s">
         <v>199</v>
@@ -3641,7 +3641,7 @@
         <v>356</v>
       </c>
       <c r="I23" s="4">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="J23" s="4" t="s">
         <v>199</v>
@@ -3673,7 +3673,7 @@
         <v>356</v>
       </c>
       <c r="I24" s="4">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="J24" s="4" t="s">
         <v>199</v>
@@ -3705,7 +3705,7 @@
         <v>356</v>
       </c>
       <c r="I25" s="4">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="J25" s="4" t="s">
         <v>199</v>
@@ -3737,7 +3737,7 @@
         <v>356</v>
       </c>
       <c r="I26" s="4">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="J26" s="4" t="s">
         <v>199</v>
@@ -3769,7 +3769,7 @@
         <v>356</v>
       </c>
       <c r="I27" s="4">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="J27" s="4" t="s">
         <v>199</v>
@@ -3801,7 +3801,7 @@
         <v>356</v>
       </c>
       <c r="I28" s="4">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="J28" s="4" t="s">
         <v>199</v>
@@ -3833,7 +3833,7 @@
         <v>356</v>
       </c>
       <c r="I29" s="4">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="J29" s="4" t="s">
         <v>199</v>
@@ -3865,7 +3865,7 @@
         <v>356</v>
       </c>
       <c r="I30" s="4">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="J30" s="4" t="s">
         <v>199</v>
@@ -3897,7 +3897,7 @@
         <v>357</v>
       </c>
       <c r="I31" s="4">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="J31" s="4" t="s">
         <v>199</v>
@@ -3929,7 +3929,7 @@
         <v>358</v>
       </c>
       <c r="I32" s="4">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="J32" s="4" t="s">
         <v>199</v>
@@ -3961,7 +3961,7 @@
         <v>359</v>
       </c>
       <c r="I33" s="4">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="J33" s="4" t="s">
         <v>199</v>
@@ -3993,7 +3993,7 @@
         <v>359</v>
       </c>
       <c r="I34" s="4">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="J34" s="4" t="s">
         <v>199</v>
@@ -4025,7 +4025,7 @@
         <v>359</v>
       </c>
       <c r="I35" s="4">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="J35" s="4" t="s">
         <v>199</v>
@@ -4057,7 +4057,7 @@
         <v>359</v>
       </c>
       <c r="I36" s="4">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="J36" s="4" t="s">
         <v>199</v>
@@ -4089,7 +4089,7 @@
         <v>360</v>
       </c>
       <c r="I37" s="4">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="J37" s="4" t="s">
         <v>199</v>
@@ -4121,7 +4121,7 @@
         <v>360</v>
       </c>
       <c r="I38" s="4">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="J38" s="4" t="s">
         <v>199</v>
@@ -4153,7 +4153,7 @@
         <v>360</v>
       </c>
       <c r="I39" s="4">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="J39" s="4" t="s">
         <v>199</v>
@@ -4185,7 +4185,7 @@
         <v>360</v>
       </c>
       <c r="I40" s="4">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="J40" s="4" t="s">
         <v>199</v>
@@ -4217,7 +4217,7 @@
         <v>361</v>
       </c>
       <c r="I41" s="4">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="J41" s="4" t="s">
         <v>199</v>
@@ -4249,7 +4249,7 @@
         <v>361</v>
       </c>
       <c r="I42" s="4">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="J42" s="4" t="s">
         <v>199</v>
@@ -4281,7 +4281,7 @@
         <v>173</v>
       </c>
       <c r="I43" s="4">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="J43" s="4" t="s">
         <v>199</v>
@@ -4313,7 +4313,7 @@
         <v>362</v>
       </c>
       <c r="I44" s="4">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J44" s="4" t="s">
         <v>199</v>
@@ -4345,7 +4345,7 @@
         <v>362</v>
       </c>
       <c r="I45" s="4">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J45" s="4" t="s">
         <v>199</v>
@@ -4377,7 +4377,7 @@
         <v>362</v>
       </c>
       <c r="I46" s="4">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J46" s="4" t="s">
         <v>199</v>
@@ -4409,7 +4409,7 @@
         <v>362</v>
       </c>
       <c r="I47" s="4">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J47" s="4" t="s">
         <v>199</v>
@@ -4441,7 +4441,7 @@
         <v>362</v>
       </c>
       <c r="I48" s="4">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J48" s="4" t="s">
         <v>199</v>
@@ -4473,7 +4473,7 @@
         <v>363</v>
       </c>
       <c r="I49" s="4">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="J49" s="4" t="s">
         <v>199</v>
@@ -4505,7 +4505,7 @@
         <v>364</v>
       </c>
       <c r="I50" s="4">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="J50" s="4" t="s">
         <v>199</v>
@@ -4537,7 +4537,7 @@
         <v>364</v>
       </c>
       <c r="I51" s="4">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="J51" s="4" t="s">
         <v>199</v>
@@ -4569,7 +4569,7 @@
         <v>365</v>
       </c>
       <c r="I52" s="4">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="J52" s="4" t="s">
         <v>199</v>
@@ -4601,7 +4601,7 @@
         <v>365</v>
       </c>
       <c r="I53" s="4">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="J53" s="4" t="s">
         <v>199</v>
@@ -4633,7 +4633,7 @@
         <v>365</v>
       </c>
       <c r="I54" s="4">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="J54" s="4" t="s">
         <v>199</v>
@@ -4665,7 +4665,7 @@
         <v>366</v>
       </c>
       <c r="I55" s="4">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="J55" s="4" t="s">
         <v>199</v>
@@ -4695,7 +4695,7 @@
         <v>367</v>
       </c>
       <c r="I56" s="4">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="J56" s="4" t="s">
         <v>199</v>
@@ -4727,7 +4727,7 @@
         <v>368</v>
       </c>
       <c r="I57" s="4">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="J57" s="4" t="s">
         <v>199</v>
@@ -4759,7 +4759,7 @@
         <v>369</v>
       </c>
       <c r="I58" s="4">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="J58" s="4" t="s">
         <v>199</v>
@@ -4791,7 +4791,7 @@
         <v>369</v>
       </c>
       <c r="I59" s="4">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="J59" s="4" t="s">
         <v>199</v>
@@ -4823,7 +4823,7 @@
         <v>369</v>
       </c>
       <c r="I60" s="4">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="J60" s="4" t="s">
         <v>199</v>
@@ -4855,7 +4855,7 @@
         <v>369</v>
       </c>
       <c r="I61" s="4">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="J61" s="4" t="s">
         <v>199</v>
@@ -4887,7 +4887,7 @@
         <v>369</v>
       </c>
       <c r="I62" s="4">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="J62" s="4" t="s">
         <v>199</v>
@@ -4919,7 +4919,7 @@
         <v>369</v>
       </c>
       <c r="I63" s="4">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="J63" s="4" t="s">
         <v>199</v>
@@ -4951,7 +4951,7 @@
         <v>369</v>
       </c>
       <c r="I64" s="4">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="J64" s="4" t="s">
         <v>199</v>
@@ -4983,7 +4983,7 @@
         <v>370</v>
       </c>
       <c r="I65" s="4">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="J65" s="4" t="s">
         <v>199</v>
@@ -5015,7 +5015,7 @@
         <v>370</v>
       </c>
       <c r="I66" s="4">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="J66" s="4" t="s">
         <v>199</v>
@@ -5047,7 +5047,7 @@
         <v>370</v>
       </c>
       <c r="I67" s="4">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="J67" s="4" t="s">
         <v>199</v>
@@ -5079,7 +5079,7 @@
         <v>370</v>
       </c>
       <c r="I68" s="4">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="J68" s="4" t="s">
         <v>199</v>
@@ -5111,7 +5111,7 @@
         <v>183</v>
       </c>
       <c r="I69" s="4">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="J69" s="4" t="s">
         <v>199</v>
@@ -5143,7 +5143,7 @@
         <v>371</v>
       </c>
       <c r="I70" s="4">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="J70" s="4" t="s">
         <v>199</v>
@@ -5175,7 +5175,7 @@
         <v>371</v>
       </c>
       <c r="I71" s="4">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="J71" s="4" t="s">
         <v>199</v>
@@ -5207,7 +5207,7 @@
         <v>371</v>
       </c>
       <c r="I72" s="4">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="J72" s="4" t="s">
         <v>199</v>
@@ -5239,7 +5239,7 @@
         <v>372</v>
       </c>
       <c r="I73" s="4">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="J73" s="4" t="s">
         <v>199</v>
@@ -5271,7 +5271,7 @@
         <v>373</v>
       </c>
       <c r="I74" s="4">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="J74" s="4" t="s">
         <v>199</v>
@@ -5303,7 +5303,7 @@
         <v>374</v>
       </c>
       <c r="I75" s="4">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="J75" s="4" t="s">
         <v>199</v>
@@ -5335,7 +5335,7 @@
         <v>374</v>
       </c>
       <c r="I76" s="4">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="J76" s="4" t="s">
         <v>199</v>
